--- a/DbCoordenadas.xlsx
+++ b/DbCoordenadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CACAU\Desktop\Mapa Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED54951-F30C-4AC4-9D55-7BF27FAC4F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225322E-39A0-45A2-BB2A-3A930DE1845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
   <sheets>
     <sheet name="COORDENADAS" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11024" uniqueCount="6451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11029" uniqueCount="6451">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -19383,21 +19383,22 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>CANTINHO DAS FRUTAS-JACARECANGA</t>
-  </si>
-  <si>
     <t>-3.7395448378000700</t>
   </si>
   <si>
     <t>-38.505843788754900</t>
+  </si>
+  <si>
+    <t>PESO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -19459,7 +19460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -19478,7 +19479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19870,7 +19872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BFD8A-3599-407A-9626-08449CFF72EA}">
   <dimension ref="A1:K1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
+    <sheetView topLeftCell="E827" workbookViewId="0">
       <selection activeCell="B1095" sqref="B1095"/>
     </sheetView>
   </sheetViews>
@@ -57993,10 +57995,10 @@
         <v>6434</v>
       </c>
       <c r="J1090" s="10" t="s">
+        <v>6448</v>
+      </c>
+      <c r="K1090" s="10" t="s">
         <v>6449</v>
-      </c>
-      <c r="K1090" s="10" t="s">
-        <v>6450</v>
       </c>
     </row>
   </sheetData>
@@ -58010,10 +58012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58023,13 +58025,14 @@
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6447</v>
       </c>
@@ -58046,19 +58049,22 @@
         <v>6443</v>
       </c>
       <c r="F1" t="s">
+        <v>6450</v>
+      </c>
+      <c r="G1" t="s">
         <v>6442</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6441</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6440</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6439</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45757</v>
       </c>
@@ -58066,371 +58072,407 @@
         <v>6432</v>
       </c>
       <c r="C2">
-        <v>1692</v>
+        <v>11069</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>866</v>
       </c>
       <c r="E2" s="4">
-        <v>209.45</v>
-      </c>
-      <c r="F2" t="str">
+        <v>408.6</v>
+      </c>
+      <c r="F2" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="G2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7085863</v>
-      </c>
-      <c r="G2" t="str">
+        <v>-3.76838301</v>
+      </c>
+      <c r="H2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6568387</v>
-      </c>
-      <c r="H2" s="3" t="s">
+        <v>-38.63246723</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45757</v>
       </c>
       <c r="B3" t="s">
-        <v>6435</v>
+        <v>6432</v>
       </c>
       <c r="C3">
-        <v>11047</v>
+        <v>3771</v>
       </c>
       <c r="D3" t="s">
-        <v>6438</v>
+        <v>498</v>
       </c>
       <c r="E3" s="4">
-        <v>543.6</v>
-      </c>
-      <c r="F3" t="str">
+        <v>541</v>
+      </c>
+      <c r="F3" s="11">
+        <v>84.3</v>
+      </c>
+      <c r="G3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.73140298</v>
-      </c>
-      <c r="G3" t="str">
+        <v>-3.6736142</v>
+      </c>
+      <c r="H3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.49667067</v>
-      </c>
-      <c r="H3" s="3" t="s">
+        <v>-38.6696458</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45757</v>
       </c>
       <c r="B4" t="s">
-        <v>6437</v>
+        <v>6433</v>
       </c>
       <c r="C4">
-        <v>4458</v>
+        <v>11912</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>1028</v>
       </c>
       <c r="E4" s="4">
-        <v>1648.42</v>
-      </c>
-      <c r="F4" t="str">
+        <v>679</v>
+      </c>
+      <c r="F4" s="11">
+        <v>24.6</v>
+      </c>
+      <c r="G4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7100856</v>
-      </c>
-      <c r="G4" t="str">
+        <v>-3.73839532</v>
+      </c>
+      <c r="H4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5897058</v>
-      </c>
-      <c r="H4" s="3" t="s">
+        <v>-38.53222215</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45757</v>
       </c>
       <c r="B5" t="s">
-        <v>6432</v>
+        <v>6433</v>
       </c>
       <c r="C5">
-        <v>4293</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
-        <v>2388.0100000000002</v>
-      </c>
-      <c r="F5" t="str">
+        <v>3736.4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="G5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7347353</v>
-      </c>
-      <c r="G5" t="str">
+        <v>-3.7966519</v>
+      </c>
+      <c r="H5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6595839</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>-38.6007377</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45757</v>
       </c>
       <c r="B6" t="s">
-        <v>6437</v>
+        <v>6433</v>
       </c>
       <c r="C6">
-        <v>465</v>
+        <v>9318</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>709</v>
       </c>
       <c r="E6" s="4">
-        <v>4888.75</v>
-      </c>
-      <c r="F6" t="str">
+        <v>2473.1999999999998</v>
+      </c>
+      <c r="F6" s="11">
+        <v>121.1</v>
+      </c>
+      <c r="G6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7135362</v>
-      </c>
-      <c r="G6" t="str">
+        <v>-3.7881221</v>
+      </c>
+      <c r="H6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5885703</v>
-      </c>
-      <c r="H6" s="3" t="s">
+        <v>-38.6107546</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45757</v>
       </c>
       <c r="B7" t="s">
-        <v>6437</v>
+        <v>6433</v>
       </c>
       <c r="C7">
-        <v>4202</v>
+        <v>1967</v>
       </c>
       <c r="D7" t="s">
-        <v>569</v>
+        <v>288</v>
       </c>
       <c r="E7" s="4">
-        <v>3572.25</v>
-      </c>
-      <c r="F7" t="str">
+        <v>1502.8</v>
+      </c>
+      <c r="F7" s="11">
+        <v>57.6</v>
+      </c>
+      <c r="G7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.71767679</v>
-      </c>
-      <c r="G7" t="str">
+        <v>-3.7865804</v>
+      </c>
+      <c r="H7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.57899347</v>
-      </c>
-      <c r="H7" s="3" t="s">
+        <v>-38.5979579</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45757</v>
       </c>
       <c r="B8" t="s">
-        <v>6436</v>
+        <v>6432</v>
       </c>
       <c r="C8">
-        <v>212</v>
+        <v>931</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4">
-        <v>3709.12</v>
-      </c>
-      <c r="F8" t="str">
+        <v>1098.8</v>
+      </c>
+      <c r="F8" s="11">
+        <v>90.5</v>
+      </c>
+      <c r="G8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8185168</v>
-      </c>
-      <c r="G8" t="str">
+        <v>-3.766361</v>
+      </c>
+      <c r="H8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4971878</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>-38.6211393</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45757</v>
       </c>
       <c r="B9" t="s">
-        <v>6436</v>
+        <v>6432</v>
       </c>
       <c r="C9">
-        <v>3486</v>
+        <v>3259</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="E9" s="4">
-        <v>850.5</v>
-      </c>
-      <c r="F9" t="str">
+        <v>214.4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="G9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.830081</v>
-      </c>
-      <c r="G9" t="str">
+        <v>-3.759452</v>
+      </c>
+      <c r="H9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.509759</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>-38.6293862</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>45757</v>
       </c>
       <c r="B10" t="s">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="C10">
-        <v>196</v>
+        <v>11736</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>987</v>
       </c>
       <c r="E10" s="4">
-        <v>2619.33</v>
-      </c>
-      <c r="F10" t="str">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="G10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7548351</v>
-      </c>
-      <c r="G10" t="str">
+        <v>-3.7619405</v>
+      </c>
+      <c r="H10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5561623</v>
-      </c>
-      <c r="H10" s="3" t="s">
+        <v>-38.6195665</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45757</v>
       </c>
       <c r="B11" t="s">
-        <v>6436</v>
+        <v>6435</v>
       </c>
       <c r="C11">
-        <v>172</v>
+        <v>11032</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>6434</v>
       </c>
       <c r="E11" s="4">
-        <v>4194.78</v>
-      </c>
-      <c r="F11" t="str">
+        <v>630</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15</v>
+      </c>
+      <c r="G11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8003218</v>
-      </c>
-      <c r="G11" t="str">
+        <v>-3.7395448378000700</v>
+      </c>
+      <c r="H11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5880765</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>-38.505843788754900</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>45757</v>
       </c>
       <c r="B12" t="s">
-        <v>6435</v>
+        <v>6432</v>
       </c>
       <c r="C12">
-        <v>224</v>
+        <v>4089</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>549</v>
       </c>
       <c r="E12" s="4">
-        <v>4047.59</v>
-      </c>
-      <c r="F12" t="str">
+        <v>1016.8</v>
+      </c>
+      <c r="F12" s="11">
+        <v>108.8</v>
+      </c>
+      <c r="G12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7440842</v>
-      </c>
-      <c r="G12" t="str">
+        <v>-3.7666193</v>
+      </c>
+      <c r="H12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4749343</v>
-      </c>
-      <c r="H12" s="3" t="s">
+        <v>-38.6538536</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45757</v>
       </c>
       <c r="B13" t="s">
-        <v>6435</v>
+        <v>6432</v>
       </c>
       <c r="C13">
-        <v>9340</v>
+        <v>11163</v>
       </c>
       <c r="D13" t="s">
-        <v>721</v>
+        <v>889</v>
       </c>
       <c r="E13" s="4">
-        <v>4892.5</v>
-      </c>
-      <c r="F13" t="str">
+        <v>3025</v>
+      </c>
+      <c r="F13" s="11">
+        <v>252.9</v>
+      </c>
+      <c r="G13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.745611</v>
-      </c>
-      <c r="G13" t="str">
+        <v>-3.67322246</v>
+      </c>
+      <c r="H13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.495747</v>
-      </c>
-      <c r="H13" s="3" t="s">
+        <v>-38.67026304</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>45757</v>
       </c>
@@ -58438,621 +58480,716 @@
         <v>6436</v>
       </c>
       <c r="C14">
-        <v>1006</v>
+        <v>709</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4">
-        <v>2230.81</v>
-      </c>
-      <c r="F14" t="str">
+        <v>1066.2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="G14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8194034</v>
-      </c>
-      <c r="G14" t="str">
+        <v>-3.83265451</v>
+      </c>
+      <c r="H14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4963739</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>-38.58103395</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45757</v>
       </c>
       <c r="B15" t="s">
-        <v>6436</v>
+        <v>6432</v>
       </c>
       <c r="C15">
-        <v>954</v>
+        <v>11844</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>1014</v>
       </c>
       <c r="E15" s="4">
-        <v>2360.5500000000002</v>
-      </c>
-      <c r="F15" t="str">
+        <v>2099.1999999999998</v>
+      </c>
+      <c r="F15" s="11">
+        <v>169.2</v>
+      </c>
+      <c r="G15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8301305</v>
-      </c>
-      <c r="G15" t="str">
+        <v>-3.76944093</v>
+      </c>
+      <c r="H15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4875383</v>
-      </c>
-      <c r="H15" s="3" t="s">
+        <v>-38.65433696</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>45757</v>
       </c>
       <c r="B16" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="C16">
-        <v>9631</v>
+        <v>1004</v>
       </c>
       <c r="D16" t="s">
-        <v>813</v>
+        <v>159</v>
       </c>
       <c r="E16" s="4">
-        <v>3747.63</v>
-      </c>
-      <c r="F16" t="str">
+        <v>2549.23</v>
+      </c>
+      <c r="F16" s="11">
+        <v>129</v>
+      </c>
+      <c r="G16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7302312</v>
-      </c>
-      <c r="G16" t="str">
+        <v>-3.8009513</v>
+      </c>
+      <c r="H16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.568373</v>
-      </c>
-      <c r="H16" s="3" t="s">
+        <v>-38.586656</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45757</v>
       </c>
       <c r="B17" t="s">
-        <v>6435</v>
+        <v>6437</v>
       </c>
       <c r="C17">
-        <v>4029</v>
+        <v>950</v>
       </c>
       <c r="D17" t="s">
-        <v>542</v>
+        <v>146</v>
       </c>
       <c r="E17" s="4">
-        <v>3419.86</v>
-      </c>
-      <c r="F17" t="str">
+        <v>5801.26</v>
+      </c>
+      <c r="F17" s="11">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="G17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7411822</v>
-      </c>
-      <c r="G17" t="str">
+        <v>-3.7233183</v>
+      </c>
+      <c r="H17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5041525</v>
-      </c>
-      <c r="H17" s="3" t="s">
+        <v>-38.5963513</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>45757</v>
       </c>
       <c r="B18" t="s">
-        <v>6437</v>
+        <v>6435</v>
       </c>
       <c r="C18">
-        <v>830</v>
+        <v>4029</v>
       </c>
       <c r="D18" t="s">
-        <v>6448</v>
+        <v>542</v>
       </c>
       <c r="E18" s="4">
-        <v>986.56</v>
-      </c>
-      <c r="F18" t="str">
+        <v>3419.86</v>
+      </c>
+      <c r="F18" s="11">
+        <v>159.6</v>
+      </c>
+      <c r="G18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.706271</v>
-      </c>
-      <c r="G18" t="str">
+        <v>-3.7411822</v>
+      </c>
+      <c r="H18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.574687</v>
-      </c>
-      <c r="H18" s="3" t="s">
+        <v>-38.5041525</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45757</v>
       </c>
       <c r="B19" t="s">
-        <v>6436</v>
+        <v>6437</v>
       </c>
       <c r="C19">
-        <v>1004</v>
+        <v>9631</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>813</v>
       </c>
       <c r="E19" s="4">
-        <v>2549.23</v>
-      </c>
-      <c r="F19" t="str">
+        <v>3747.63</v>
+      </c>
+      <c r="F19" s="11">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="G19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8009513</v>
-      </c>
-      <c r="G19" t="str">
+        <v>-3.7302312</v>
+      </c>
+      <c r="H19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.586656</v>
-      </c>
-      <c r="H19" s="3" t="s">
+        <v>-38.568373</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>45757</v>
       </c>
       <c r="B20" t="s">
-        <v>6432</v>
+        <v>6436</v>
       </c>
       <c r="C20">
-        <v>11844</v>
+        <v>954</v>
       </c>
       <c r="D20" t="s">
-        <v>1014</v>
+        <v>147</v>
       </c>
       <c r="E20" s="4">
-        <v>2099.1999999999998</v>
-      </c>
-      <c r="F20" t="str">
+        <v>2360.5500000000002</v>
+      </c>
+      <c r="F20" s="11">
+        <v>133.1</v>
+      </c>
+      <c r="G20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76944093</v>
-      </c>
-      <c r="G20" t="str">
+        <v>-3.8301305</v>
+      </c>
+      <c r="H20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.65433696</v>
-      </c>
-      <c r="H20" s="3" t="s">
+        <v>-38.4875383</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45757</v>
       </c>
       <c r="B21" t="s">
-        <v>6435</v>
+        <v>6436</v>
       </c>
       <c r="C21">
-        <v>709</v>
+        <v>1006</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="E21" s="4">
-        <v>1066.2</v>
-      </c>
-      <c r="F21" t="str">
+        <v>2230.81</v>
+      </c>
+      <c r="F21" s="11">
+        <v>104.6</v>
+      </c>
+      <c r="G21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.83265451</v>
-      </c>
-      <c r="G21" t="str">
+        <v>-3.8194034</v>
+      </c>
+      <c r="H21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.58103395</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>-38.4963739</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>45757</v>
       </c>
       <c r="B22" t="s">
-        <v>6432</v>
+        <v>6435</v>
       </c>
       <c r="C22">
-        <v>11163</v>
+        <v>9340</v>
       </c>
       <c r="D22" t="s">
-        <v>889</v>
+        <v>721</v>
       </c>
       <c r="E22" s="4">
-        <v>3025</v>
-      </c>
-      <c r="F22" t="str">
+        <v>4892.5</v>
+      </c>
+      <c r="F22" s="11">
+        <v>203.6</v>
+      </c>
+      <c r="G22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.67322246</v>
-      </c>
-      <c r="G22" t="str">
+        <v>-3.745611</v>
+      </c>
+      <c r="H22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.67026304</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>-38.495747</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>45757</v>
       </c>
       <c r="B23" t="s">
-        <v>6432</v>
+        <v>6435</v>
       </c>
       <c r="C23">
-        <v>4089</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>549</v>
+        <v>26</v>
       </c>
       <c r="E23" s="4">
-        <v>1016.8</v>
-      </c>
-      <c r="F23" t="str">
+        <v>4047.59</v>
+      </c>
+      <c r="F23" s="11">
+        <v>210.3</v>
+      </c>
+      <c r="G23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7666193</v>
-      </c>
-      <c r="G23" t="str">
+        <v>-3.7440842</v>
+      </c>
+      <c r="H23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6538536</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>-38.4749343</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>45757</v>
       </c>
       <c r="B24" t="s">
-        <v>6435</v>
+        <v>6436</v>
       </c>
       <c r="C24">
-        <v>11032</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>6434</v>
+        <v>20</v>
       </c>
       <c r="E24" s="4">
-        <v>630</v>
-      </c>
-      <c r="F24" t="str">
+        <v>4194.78</v>
+      </c>
+      <c r="F24" s="11">
+        <v>211.4</v>
+      </c>
+      <c r="G24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7395448378000700</v>
-      </c>
-      <c r="G24" t="str">
+        <v>-3.8003218</v>
+      </c>
+      <c r="H24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.505843788754900</v>
-      </c>
-      <c r="H24" s="3" t="s">
+        <v>-38.5880765</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>45757</v>
       </c>
       <c r="B25" t="s">
-        <v>6432</v>
+        <v>6433</v>
       </c>
       <c r="C25">
-        <v>11736</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>987</v>
+        <v>24</v>
       </c>
       <c r="E25" s="4">
-        <v>283.39999999999998</v>
-      </c>
-      <c r="F25" t="str">
+        <v>2619.33</v>
+      </c>
+      <c r="F25" s="11">
+        <v>93.2</v>
+      </c>
+      <c r="G25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7619405</v>
-      </c>
-      <c r="G25" t="str">
+        <v>-3.7548351</v>
+      </c>
+      <c r="H25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6195665</v>
-      </c>
-      <c r="H25" s="3" t="s">
+        <v>-38.5561623</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>45757</v>
       </c>
       <c r="B26" t="s">
-        <v>6432</v>
+        <v>6436</v>
       </c>
       <c r="C26">
-        <v>3259</v>
+        <v>3486</v>
       </c>
       <c r="D26" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E26" s="4">
-        <v>214.4</v>
-      </c>
-      <c r="F26" t="str">
+        <v>850.5</v>
+      </c>
+      <c r="F26" s="11">
+        <v>45.6</v>
+      </c>
+      <c r="G26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.759452</v>
-      </c>
-      <c r="G26" t="str">
+        <v>-3.830081</v>
+      </c>
+      <c r="H26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6293862</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>-38.509759</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>45757</v>
       </c>
       <c r="B27" t="s">
-        <v>6432</v>
+        <v>6436</v>
       </c>
       <c r="C27">
-        <v>931</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="E27" s="4">
-        <v>1098.8</v>
-      </c>
-      <c r="F27" t="str">
+        <v>3709.12</v>
+      </c>
+      <c r="F27" s="11">
+        <v>194.1</v>
+      </c>
+      <c r="G27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.766361</v>
-      </c>
-      <c r="G27" t="str">
+        <v>-3.8185168</v>
+      </c>
+      <c r="H27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6211393</v>
-      </c>
-      <c r="H27" s="3" t="s">
+        <v>-38.4971878</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>45757</v>
       </c>
       <c r="B28" t="s">
-        <v>6433</v>
+        <v>6437</v>
       </c>
       <c r="C28">
-        <v>1967</v>
+        <v>4202</v>
       </c>
       <c r="D28" t="s">
-        <v>288</v>
+        <v>569</v>
       </c>
       <c r="E28" s="4">
-        <v>1502.8</v>
-      </c>
-      <c r="F28" t="str">
+        <v>3572.25</v>
+      </c>
+      <c r="F28" s="11">
+        <v>206</v>
+      </c>
+      <c r="G28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7865804</v>
-      </c>
-      <c r="G28" t="str">
+        <v>-3.71767679</v>
+      </c>
+      <c r="H28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5979579</v>
-      </c>
-      <c r="H28" s="3" t="s">
+        <v>-38.57899347</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>45757</v>
       </c>
       <c r="B29" t="s">
-        <v>6433</v>
+        <v>6437</v>
       </c>
       <c r="C29">
-        <v>9318</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>709</v>
+        <v>55</v>
       </c>
       <c r="E29" s="4">
-        <v>2473.1999999999998</v>
-      </c>
-      <c r="F29" t="str">
+        <v>4888.75</v>
+      </c>
+      <c r="F29" s="11">
+        <v>240</v>
+      </c>
+      <c r="G29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7881221</v>
-      </c>
-      <c r="G29" t="str">
+        <v>-3.7135362</v>
+      </c>
+      <c r="H29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6107546</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>-38.5885703</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>45757</v>
       </c>
       <c r="B30" t="s">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="C30">
-        <v>284</v>
+        <v>4293</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>590</v>
       </c>
       <c r="E30" s="4">
-        <v>3736.4</v>
-      </c>
-      <c r="F30" t="str">
+        <v>2388.0100000000002</v>
+      </c>
+      <c r="F30" s="11">
+        <v>127</v>
+      </c>
+      <c r="G30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7966519</v>
-      </c>
-      <c r="G30" t="str">
+        <v>-3.7347353</v>
+      </c>
+      <c r="H30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6007377</v>
-      </c>
-      <c r="H30" s="3" t="s">
+        <v>-38.6595839</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>45757</v>
       </c>
       <c r="B31" t="s">
-        <v>6433</v>
+        <v>6437</v>
       </c>
       <c r="C31">
-        <v>11912</v>
+        <v>4458</v>
       </c>
       <c r="D31" t="s">
-        <v>1028</v>
+        <v>610</v>
       </c>
       <c r="E31" s="4">
-        <v>679</v>
-      </c>
-      <c r="F31" t="str">
+        <v>1648.42</v>
+      </c>
+      <c r="F31" s="11">
+        <v>58.6</v>
+      </c>
+      <c r="G31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.73839532</v>
-      </c>
-      <c r="G31" t="str">
+        <v>-3.7100856</v>
+      </c>
+      <c r="H31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.53222215</v>
-      </c>
-      <c r="H31" s="3" t="s">
+        <v>-38.5897058</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>45757</v>
       </c>
       <c r="B32" t="s">
-        <v>6432</v>
+        <v>6435</v>
       </c>
       <c r="C32">
-        <v>3771</v>
+        <v>11047</v>
       </c>
       <c r="D32" t="s">
-        <v>498</v>
+        <v>6438</v>
       </c>
       <c r="E32" s="4">
-        <v>541</v>
-      </c>
-      <c r="F32" t="str">
+        <v>543.6</v>
+      </c>
+      <c r="F32" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="G32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.6736142</v>
-      </c>
-      <c r="G32" t="str">
+        <v>-3.73140298</v>
+      </c>
+      <c r="H32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6696458</v>
-      </c>
-      <c r="H32" s="3" t="s">
+        <v>-38.49667067</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>45757</v>
       </c>
       <c r="B33" t="s">
+        <v>6437</v>
+      </c>
+      <c r="C33">
+        <v>830</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="4">
+        <v>986.56</v>
+      </c>
+      <c r="F33" s="11">
+        <v>105.3</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(C33,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.706271</v>
+      </c>
+      <c r="H33" t="str">
+        <f>VLOOKUP(C33,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.574687</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45757</v>
+      </c>
+      <c r="B34" t="s">
         <v>6432</v>
       </c>
-      <c r="C33">
-        <v>11069</v>
-      </c>
-      <c r="D33" t="s">
-        <v>866</v>
-      </c>
-      <c r="E33" s="4">
-        <v>408.6</v>
-      </c>
-      <c r="F33" t="str">
-        <f>VLOOKUP(C33,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76838301</v>
-      </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(C33,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.63246723</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="C34">
+        <v>1692</v>
+      </c>
+      <c r="D34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="4">
+        <v>209.45</v>
+      </c>
+      <c r="F34" s="11">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(C34,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7085863</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP(C34,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.6568387</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>3735</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DbCoordenadas.xlsx
+++ b/DbCoordenadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CACAU\Desktop\Mapa Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81924083-8A42-467C-836F-34DF4A893D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E29DADC-7110-4777-9B1E-ED1927B58DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dbcaminhoes!$A$1:$L$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">horarios!$A$1:$G$367</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pesoCaminhao!$A$1:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pesoCaminhao!$A$1:$G$52</definedName>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">COORDENADAS!$A$1:$K$1088</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12895" uniqueCount="6733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13286" uniqueCount="6736">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -20521,9 +20521,6 @@
     <t>PAO DE ACUCAR - AGUANAMBI</t>
   </si>
   <si>
-    <t>08 ÀS 116</t>
-  </si>
-  <si>
     <t>SEG À SAB</t>
   </si>
   <si>
@@ -20690,6 +20687,18 @@
   </si>
   <si>
     <t>-38.73454749436100</t>
+  </si>
+  <si>
+    <t>OCB9225</t>
+  </si>
+  <si>
+    <t>RECEBIMENTOS SEM</t>
+  </si>
+  <si>
+    <t>08 ÀS 11</t>
+  </si>
+  <si>
+    <t>SEM CARGA</t>
   </si>
 </sst>
 </file>
@@ -63734,10 +63743,10 @@
         <v>6429</v>
       </c>
       <c r="J1088" s="1" t="s">
+        <v>6730</v>
+      </c>
+      <c r="K1088" s="1" t="s">
         <v>6731</v>
-      </c>
-      <c r="K1088" s="1" t="s">
-        <v>6732</v>
       </c>
     </row>
     <row r="1089" spans="1:11" s="2" customFormat="1">
@@ -63814,15 +63823,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE30DAF-9744-4943-A78B-D8A86085D6FF}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
@@ -64913,15 +64922,15 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60.75">
-      <c r="A48" s="19" t="s">
-        <v>6474</v>
+    <row r="48" spans="1:7" ht="40.5">
+      <c r="A48" s="21">
+        <v>524</v>
       </c>
       <c r="B48" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>6473</v>
+        <v>6732</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>6472</v>
@@ -64936,67 +64945,67 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="40.5">
-      <c r="A49" s="21">
-        <v>502</v>
+    <row r="49" spans="1:7" ht="60.75">
+      <c r="A49" s="19" t="s">
+        <v>6474</v>
       </c>
       <c r="B49" s="21">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>6518</v>
+        <v>6473</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>6517</v>
+        <v>6472</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>6479</v>
+        <v>6471</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>6470</v>
       </c>
       <c r="G49" s="11">
-        <v>900</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="40.5">
-      <c r="A50" s="17">
-        <v>503</v>
-      </c>
-      <c r="B50" s="17">
+      <c r="A50" s="21">
+        <v>502</v>
+      </c>
+      <c r="B50" s="21">
         <v>81</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>6516</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>6476</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>6515</v>
-      </c>
-      <c r="F50" s="14" t="s">
+      <c r="C50" s="20" t="s">
+        <v>6518</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>6517</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>6479</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>6470</v>
       </c>
       <c r="G50" s="11">
         <v>900</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60.75">
-      <c r="A51" s="15" t="s">
-        <v>6474</v>
+    <row r="51" spans="1:7" ht="40.5">
+      <c r="A51" s="17">
+        <v>503</v>
       </c>
       <c r="B51" s="17">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>6477</v>
+        <v>6516</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>6476</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>6475</v>
+        <v>6515</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>6470</v>
@@ -65005,16 +65014,39 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="12"/>
+    <row r="52" spans="1:7" ht="60.75">
+      <c r="A52" s="15" t="s">
+        <v>6474</v>
+      </c>
+      <c r="B52" s="17">
+        <v>91</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>6477</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>6476</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>6475</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>6470</v>
+      </c>
+      <c r="G52" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -65025,7 +65057,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65038,8 +65070,8 @@
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="8" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -65076,38 +65108,38 @@
         <v>6437</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>6730</v>
+        <v>6729</v>
       </c>
       <c r="L1" t="s">
-        <v>6727</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B2" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C2">
-        <v>11250</v>
+        <v>1142</v>
       </c>
       <c r="D2" t="s">
-        <v>909</v>
+        <v>186</v>
       </c>
       <c r="E2" s="4">
-        <v>1015.9</v>
+        <v>616.29999999999995</v>
       </c>
       <c r="F2">
-        <v>31.1</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.68961523</v>
+        <v>-3.846401</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.66855858</v>
+        <v>-38.656205</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6571</v>
@@ -65120,36 +65152,36 @@
         <v>1590</v>
       </c>
       <c r="L2" t="str">
-        <f>VLOOKUP(C2,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <f>VLOOKUP(C2,horarios!B:H,6,0)</f>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B3" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C3">
-        <v>2368</v>
+        <v>1980</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E3" s="4">
-        <v>1446.39</v>
+        <v>742.2</v>
       </c>
       <c r="F3">
-        <v>101.5</v>
+        <v>46.6</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7658197</v>
+        <v>-3.8958534</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6401005</v>
+        <v>-38.6839187</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6571</v>
@@ -65162,35 +65194,35 @@
         <v>1590</v>
       </c>
       <c r="L3" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B4" t="s">
-        <v>6434</v>
+        <v>6436</v>
       </c>
       <c r="C4">
-        <v>10749</v>
+        <v>11203</v>
       </c>
       <c r="D4" t="s">
-        <v>822</v>
+        <v>897</v>
       </c>
       <c r="E4" s="4">
-        <v>508.8</v>
+        <v>404.4</v>
       </c>
       <c r="F4">
-        <v>90.6</v>
+        <v>28.5</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7242051</v>
+        <v>-3.78267443</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4636954</v>
+        <v>-38.60153491</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6571</v>
@@ -65203,36 +65235,36 @@
         <v>1590</v>
       </c>
       <c r="L4" t="str">
-        <f>VLOOKUP(C4,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <f>VLOOKUP(C4,horarios!B:H,6,0)</f>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B5" t="s">
-        <v>6434</v>
+        <v>6735</v>
       </c>
       <c r="C5">
-        <v>11645</v>
+        <v>11455</v>
       </c>
       <c r="D5" t="s">
-        <v>968</v>
+        <v>941</v>
       </c>
       <c r="E5" s="4">
-        <v>1578.6</v>
+        <v>900</v>
       </c>
       <c r="F5">
-        <v>110.1</v>
+        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.72712807</v>
+        <v>-3.7451759</v>
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.47527325</v>
+        <v>-38.5402234</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6571</v>
@@ -65241,39 +65273,38 @@
         <v>6572</v>
       </c>
       <c r="K5" s="8">
-        <f>VLOOKUP(B5,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
       <c r="L5" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B6" t="s">
-        <v>6434</v>
+        <v>6732</v>
       </c>
       <c r="C6">
-        <v>11455</v>
+        <v>762</v>
       </c>
       <c r="D6" t="s">
-        <v>941</v>
+        <v>103</v>
       </c>
       <c r="E6" s="4">
-        <v>1600</v>
+        <v>1230</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>40.4</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7451759</v>
+        <v>-3.8119541</v>
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5402234</v>
+        <v>-38.5972122</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6571</v>
@@ -65286,36 +65317,36 @@
         <v>1590</v>
       </c>
       <c r="L6" t="str">
-        <f>VLOOKUP(C6,horarios!B:G,6,0)</f>
+        <f>VLOOKUP(C6,horarios!B:H,6,0)</f>
         <v>MANHA</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B7" t="s">
-        <v>6516</v>
+        <v>6732</v>
       </c>
       <c r="C7">
-        <v>11038</v>
+        <v>10752</v>
       </c>
       <c r="D7" t="s">
-        <v>6573</v>
+        <v>824</v>
       </c>
       <c r="E7" s="4">
-        <v>52.7</v>
+        <v>19026</v>
       </c>
       <c r="F7">
-        <v>15.3</v>
+        <v>720</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76291613</v>
+        <v>-3.8361488</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.58180232</v>
+        <v>-38.5733762</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6571</v>
@@ -65325,38 +65356,38 @@
       </c>
       <c r="K7" s="8">
         <f>VLOOKUP(B7,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L7" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B8" t="s">
-        <v>6516</v>
+        <v>6435</v>
       </c>
       <c r="C8">
-        <v>4272</v>
+        <v>1817</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>279</v>
       </c>
       <c r="E8" s="4">
-        <v>376.9</v>
+        <v>220.8</v>
       </c>
       <c r="F8">
-        <v>12.2</v>
+        <v>7.1</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8131261</v>
+        <v>-3.8858374</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5610963</v>
+        <v>-38.6815548</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6571</v>
@@ -65366,38 +65397,38 @@
       </c>
       <c r="K8" s="8">
         <f>VLOOKUP(B8,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L8" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B9" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C9">
-        <v>3715</v>
+        <v>9333</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>717</v>
       </c>
       <c r="E9" s="4">
-        <v>1421.8</v>
+        <v>201</v>
       </c>
       <c r="F9">
-        <v>71.5</v>
+        <v>12</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7667473</v>
+        <v>-3.8853172</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6108829</v>
+        <v>-38.6816109</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6571</v>
@@ -65410,35 +65441,35 @@
         <v>1590</v>
       </c>
       <c r="L9" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B10" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C10">
-        <v>2337</v>
+        <v>4965</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>679</v>
       </c>
       <c r="E10" s="4">
-        <v>160.5</v>
+        <v>179.45</v>
       </c>
       <c r="F10">
-        <v>27.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.754912</v>
+        <v>-3.8811139</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6618811</v>
+        <v>-38.6756829</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6571</v>
@@ -65451,36 +65482,36 @@
         <v>1590</v>
       </c>
       <c r="L10" t="str">
-        <f>VLOOKUP(C10,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <f>VLOOKUP(C10,horarios!B:H,6,0)</f>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B11" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C11">
-        <v>12039</v>
+        <v>1708</v>
       </c>
       <c r="D11" t="s">
-        <v>6426</v>
+        <v>262</v>
       </c>
       <c r="E11" s="4">
-        <v>336.94</v>
+        <v>1600</v>
       </c>
       <c r="F11">
-        <v>14.8</v>
+        <v>50</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.680505269986350</v>
+        <v>-3.8359504</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.73454749436100</v>
+        <v>-38.5950891</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6571</v>
@@ -65493,35 +65524,35 @@
         <v>1590</v>
       </c>
       <c r="L11" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B12" t="s">
-        <v>6516</v>
+        <v>6732</v>
       </c>
       <c r="C12">
-        <v>4531</v>
+        <v>4677</v>
       </c>
       <c r="D12" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="E12" s="4">
-        <v>787.4</v>
+        <v>216.4</v>
       </c>
       <c r="F12">
-        <v>23.7</v>
+        <v>7.9</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8049639</v>
+        <v>-3.7567353</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5656991</v>
+        <v>-38.5408141</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6571</v>
@@ -65531,38 +65562,38 @@
       </c>
       <c r="K12" s="8">
         <f>VLOOKUP(B12,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L12" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B13" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C13">
-        <v>5112</v>
+        <v>9332</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>716</v>
       </c>
       <c r="E13" s="4">
-        <v>171.4</v>
+        <v>384.6</v>
       </c>
       <c r="F13">
-        <v>20.7</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.6940768</v>
+        <v>-3.8486247</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6603972</v>
+        <v>-38.614286</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6571</v>
@@ -65575,36 +65606,36 @@
         <v>1590</v>
       </c>
       <c r="L13" t="str">
-        <f>VLOOKUP(C13,horarios!B:G,6,0)</f>
+        <f>VLOOKUP(C13,horarios!B:H,6,0)</f>
         <v>MANHA</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B14" t="s">
-        <v>6431</v>
+        <v>6434</v>
       </c>
       <c r="C14">
-        <v>3568</v>
+        <v>2909</v>
       </c>
       <c r="D14" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="E14" s="4">
-        <v>140.69999999999999</v>
+        <v>15196.8</v>
       </c>
       <c r="F14">
-        <v>15.8</v>
+        <v>1537.7</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.6915836</v>
+        <v>-3.8546626</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6353067</v>
+        <v>-38.6021541</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6571</v>
@@ -65617,36 +65648,36 @@
         <v>1590</v>
       </c>
       <c r="L14" t="str">
-        <f>VLOOKUP(C14,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <f>VLOOKUP(C14,horarios!B:H,6,0)</f>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B15" t="s">
-        <v>6431</v>
+        <v>6436</v>
       </c>
       <c r="C15">
-        <v>11961</v>
+        <v>11895</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="E15" s="4">
-        <v>144.65</v>
+        <v>2527.23</v>
       </c>
       <c r="F15">
-        <v>17.2</v>
+        <v>115.4</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.69845952</v>
+        <v>-3.89368547</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.59345865</v>
+        <v>-38.51477265</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6571</v>
@@ -65659,36 +65690,36 @@
         <v>1590</v>
       </c>
       <c r="L15" t="str">
-        <f>VLOOKUP(C15,horarios!B:G,6,0)</f>
+        <f>VLOOKUP(C15,horarios!B:H,6,0)</f>
         <v>MANHA</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B16" t="s">
         <v>6431</v>
       </c>
       <c r="C16">
-        <v>9618</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>806</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4">
-        <v>143.80000000000001</v>
+        <v>3515.54</v>
       </c>
       <c r="F16">
-        <v>3.4</v>
+        <v>147.1</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.6403587</v>
+        <v>-3.7429477</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.7016511</v>
+        <v>-38.5599157</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6571</v>
@@ -65701,36 +65732,36 @@
         <v>1590</v>
       </c>
       <c r="L16" t="str">
-        <f>VLOOKUP(C16,horarios!B:G,6,0)</f>
+        <f>VLOOKUP(C16,horarios!B:H,6,0)</f>
         <v>MANHA</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B17" t="s">
-        <v>6431</v>
+        <v>6732</v>
       </c>
       <c r="C17">
-        <v>4660</v>
+        <v>3486</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>456</v>
       </c>
       <c r="E17" s="4">
-        <v>250.4</v>
+        <v>832.24</v>
       </c>
       <c r="F17">
-        <v>19.7</v>
+        <v>45</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7272566</v>
+        <v>-3.830081</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6584095</v>
+        <v>-38.509759</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>6571</v>
@@ -65743,36 +65774,36 @@
         <v>1590</v>
       </c>
       <c r="L17" t="str">
-        <f>VLOOKUP(C17,horarios!B:G,6,0)</f>
+        <f>VLOOKUP(C17,horarios!B:H,6,0)</f>
         <v>MANHA</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B18" t="s">
-        <v>6431</v>
+        <v>6732</v>
       </c>
       <c r="C18">
-        <v>9598</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>797</v>
+        <v>25</v>
       </c>
       <c r="E18" s="4">
-        <v>400.35</v>
+        <v>3607.31</v>
       </c>
       <c r="F18">
-        <v>44</v>
+        <v>190.9</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7448789</v>
+        <v>-3.8185168</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6495637</v>
+        <v>-38.4971878</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6571</v>
@@ -65785,36 +65816,36 @@
         <v>1590</v>
       </c>
       <c r="L18" t="str">
-        <f>VLOOKUP(C18,horarios!B:G,6,0)</f>
+        <f>VLOOKUP(C18,horarios!B:H,6,0)</f>
         <v>MANHA</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B19" t="s">
         <v>6431</v>
       </c>
       <c r="C19">
-        <v>11334</v>
+        <v>4202</v>
       </c>
       <c r="D19" t="s">
-        <v>920</v>
+        <v>569</v>
       </c>
       <c r="E19" s="4">
-        <v>679.9</v>
+        <v>3430.19</v>
       </c>
       <c r="F19">
-        <v>63.5</v>
+        <v>204</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.69321003</v>
+        <v>-3.71767679</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.61875114</v>
+        <v>-38.57899347</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>6571</v>
@@ -65827,39 +65858,219 @@
         <v>1590</v>
       </c>
       <c r="L19" t="str">
-        <f>VLOOKUP(C19,horarios!B:G,6,0)</f>
+        <f>VLOOKUP(C19,horarios!B:H,6,0)</f>
         <v>MANHA</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
+      <c r="A20" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C20">
+        <v>3166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1399.26</v>
+      </c>
+      <c r="F20">
+        <v>60.6</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(C20,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.8071766</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP(C20,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.555096</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K20" s="8">
+        <f>VLOOKUP(B20,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L20" t="str">
+        <f>VLOOKUP(C20,horarios!B:H,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
+      <c r="A21" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C21">
+        <v>658</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2230</v>
+      </c>
+      <c r="F21">
+        <v>212</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(C21,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7466444</v>
+      </c>
+      <c r="H21" t="str">
+        <f>VLOOKUP(C21,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.5504395</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K21" s="8">
+        <f>VLOOKUP(B21,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L21" t="str">
+        <f>VLOOKUP(C21,horarios!B:H,6,0)</f>
+        <v>DIURNO</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
+      <c r="A22" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C22">
+        <v>2726</v>
+      </c>
+      <c r="D22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="4">
+        <v>999.51</v>
+      </c>
+      <c r="F22">
+        <v>29.1</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(C22,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.8143736</v>
+      </c>
+      <c r="H22" t="str">
+        <f>VLOOKUP(C22,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.6120921</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K22" s="8">
+        <f>VLOOKUP(B22,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L22" t="str">
+        <f>VLOOKUP(C22,horarios!B:H,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
+      <c r="A23" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C23">
+        <v>9326</v>
+      </c>
+      <c r="D23" t="s">
+        <v>714</v>
+      </c>
+      <c r="E23" s="4">
+        <v>331.3</v>
+      </c>
+      <c r="F23">
+        <v>13.7</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(C23,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.86330658</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP(C23,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.58178138</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K23" s="8">
+        <f>VLOOKUP(B23,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L23" t="str">
+        <f>VLOOKUP(C23,horarios!B:H,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
+      <c r="A24" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C24">
+        <v>2990</v>
+      </c>
+      <c r="D24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1041.32</v>
+      </c>
+      <c r="F24">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(C24,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7086442</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP(C24,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.563186</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K24" s="8">
+        <f>VLOOKUP(B24,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L24" t="str">
+        <f>VLOOKUP(C24,horarios!B:H,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="5"/>
@@ -66026,11 +66237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21761DE-D20C-4731-A2F1-25317F434EA2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66041,33 +66251,37 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="35" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>6723</v>
+        <v>6722</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>6722</v>
+        <v>6721</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>6726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6733</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6588</v>
       </c>
@@ -66081,11 +66295,14 @@
         <v>6577</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>6719</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6718</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6588</v>
       </c>
@@ -66096,14 +66313,17 @@
         <v>625</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>6718</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6717</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6588</v>
       </c>
@@ -66119,9 +66339,12 @@
       <c r="E4" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>6591</v>
       </c>
@@ -66137,9 +66360,12 @@
       <c r="E5" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" hidden="1">
+      <c r="G5" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6582</v>
       </c>
@@ -66153,16 +66379,19 @@
         <v>6585</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F6" t="s">
         <v>6583</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1">
+      <c r="G6" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6582</v>
       </c>
@@ -66176,16 +66405,19 @@
         <v>6585</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="F7" t="s">
         <v>6595</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1">
+      <c r="G7" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>6582</v>
       </c>
@@ -66199,16 +66431,19 @@
         <v>6585</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="F8" t="s">
         <v>6595</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>6591</v>
       </c>
@@ -66224,9 +66459,12 @@
       <c r="E9" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" hidden="1">
+      <c r="G9" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>6582</v>
       </c>
@@ -66240,16 +66478,19 @@
         <v>6585</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F10" t="s">
         <v>6583</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>6591</v>
       </c>
@@ -66265,9 +66506,12 @@
       <c r="E11" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" hidden="1">
+      <c r="G11" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>6588</v>
       </c>
@@ -66281,16 +66525,19 @@
         <v>6585</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="F12" t="s">
         <v>6583</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1">
+      <c r="G12" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>6601</v>
       </c>
@@ -66301,7 +66548,7 @@
         <v>396</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>6606</v>
@@ -66309,11 +66556,14 @@
       <c r="F13" t="s">
         <v>6583</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1">
+      <c r="G13" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>6588</v>
       </c>
@@ -66327,16 +66577,19 @@
         <v>6585</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="F14" t="s">
         <v>6583</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1">
+      <c r="G14" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>6588</v>
       </c>
@@ -66350,16 +66603,19 @@
         <v>6585</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="F15" t="s">
         <v>6583</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1">
+      <c r="G15" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>6582</v>
       </c>
@@ -66373,16 +66629,19 @@
         <v>6585</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F16" t="s">
         <v>6583</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>6582</v>
       </c>
@@ -66398,9 +66657,12 @@
       <c r="E17" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>6591</v>
       </c>
@@ -66414,11 +66676,14 @@
         <v>6577</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>6715</v>
-      </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7">
+        <v>6714</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>6582</v>
       </c>
@@ -66429,14 +66694,17 @@
         <v>378</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>6704</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" hidden="1">
+        <v>6703</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>6582</v>
       </c>
@@ -66450,16 +66718,19 @@
         <v>6585</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F20" t="s">
         <v>6583</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>6601</v>
       </c>
@@ -66475,9 +66746,12 @@
       <c r="E21" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" hidden="1">
+      <c r="G21" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>6582</v>
       </c>
@@ -66491,16 +66765,19 @@
         <v>6585</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F22" t="s">
         <v>6583</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>6588</v>
       </c>
@@ -66516,9 +66793,12 @@
       <c r="E23" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" hidden="1">
+      <c r="G23" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>6582</v>
       </c>
@@ -66526,22 +66806,25 @@
         <v>4220</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>6585</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F24" t="s">
         <v>6583</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>6588</v>
       </c>
@@ -66557,9 +66840,12 @@
       <c r="E25" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>6601</v>
       </c>
@@ -66575,9 +66861,12 @@
       <c r="E26" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>6588</v>
       </c>
@@ -66588,14 +66877,17 @@
         <v>326</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" hidden="1">
+      <c r="G27" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>6582</v>
       </c>
@@ -66609,16 +66901,19 @@
         <v>6585</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F28" t="s">
         <v>6583</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>6601</v>
       </c>
@@ -66634,9 +66929,12 @@
       <c r="E29" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" hidden="1">
+      <c r="G29" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>6588</v>
       </c>
@@ -66650,16 +66948,19 @@
         <v>6585</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
       <c r="F30" t="s">
         <v>6583</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>6582</v>
       </c>
@@ -66670,14 +66971,17 @@
         <v>483</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>6711</v>
-      </c>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7">
+        <v>6710</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>6582</v>
       </c>
@@ -66685,17 +66989,20 @@
         <v>2207</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>6709</v>
-      </c>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" hidden="1">
+        <v>6708</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>6582</v>
       </c>
@@ -66709,16 +67016,19 @@
         <v>6585</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F33" t="s">
         <v>6583</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1">
+      <c r="G33" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>6582</v>
       </c>
@@ -66732,16 +67042,19 @@
         <v>6585</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>6708</v>
+        <v>6707</v>
       </c>
       <c r="F34" t="s">
         <v>6583</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1">
+      <c r="G34" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>6601</v>
       </c>
@@ -66760,11 +67073,14 @@
       <c r="F35" t="s">
         <v>6583</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>6601</v>
       </c>
@@ -66780,9 +67096,12 @@
       <c r="E36" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" hidden="1">
+      <c r="G36" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>6591</v>
       </c>
@@ -66796,16 +67115,19 @@
         <v>6607</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="F37" t="s">
         <v>6583</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1">
+      <c r="G37" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>6591</v>
       </c>
@@ -66819,16 +67141,19 @@
         <v>6607</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
       <c r="F38" t="s">
         <v>6609</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>6591</v>
       </c>
@@ -66844,9 +67169,12 @@
       <c r="E39" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>6590</v>
       </c>
@@ -66857,14 +67185,17 @@
         <v>51</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" hidden="1">
+      <c r="G40" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>6582</v>
       </c>
@@ -66878,16 +67209,19 @@
         <v>6585</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F41" t="s">
         <v>6583</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>6586</v>
       </c>
@@ -66898,14 +67232,17 @@
         <v>347</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>6704</v>
-      </c>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7">
+        <v>6703</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>6586</v>
       </c>
@@ -66916,14 +67253,17 @@
         <v>29</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>6704</v>
-      </c>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" hidden="1">
+        <v>6703</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>6601</v>
       </c>
@@ -66934,7 +67274,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>6606</v>
@@ -66942,11 +67282,14 @@
       <c r="F44" t="s">
         <v>6583</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>6591</v>
       </c>
@@ -66954,7 +67297,7 @@
         <v>9338</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>6577</v>
@@ -66962,9 +67305,12 @@
       <c r="E45" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" hidden="1">
+      <c r="G45" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>6582</v>
       </c>
@@ -66978,16 +67324,19 @@
         <v>6585</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F46" t="s">
         <v>6583</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>6582</v>
       </c>
@@ -66998,14 +67347,17 @@
         <v>807</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>6601</v>
       </c>
@@ -67021,9 +67373,12 @@
       <c r="E48" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" hidden="1">
+      <c r="G48" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>6582</v>
       </c>
@@ -67037,16 +67392,19 @@
         <v>6585</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="F49" t="s">
         <v>6583</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1">
+      <c r="G49" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>6582</v>
       </c>
@@ -67065,11 +67423,14 @@
       <c r="F50" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G50" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>6601</v>
       </c>
@@ -67085,9 +67446,12 @@
       <c r="E51" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" hidden="1">
+      <c r="G51" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>6601</v>
       </c>
@@ -67106,11 +67470,14 @@
       <c r="F52" t="s">
         <v>6583</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1">
+      <c r="G52" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>6601</v>
       </c>
@@ -67129,11 +67496,14 @@
       <c r="F53" t="s">
         <v>6583</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="G53" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>6591</v>
       </c>
@@ -67149,9 +67519,12 @@
       <c r="E54" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" hidden="1">
+      <c r="G54" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>6586</v>
       </c>
@@ -67165,16 +67538,19 @@
         <v>6585</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="F55" t="s">
         <v>6583</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1">
+      <c r="G55" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>6582</v>
       </c>
@@ -67188,16 +67564,19 @@
         <v>6585</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
       <c r="F56" t="s">
-        <v>6699</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>6698</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>6588</v>
       </c>
@@ -67211,11 +67590,14 @@
         <v>6577</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>6693</v>
-      </c>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" hidden="1">
+        <v>6692</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>6582</v>
       </c>
@@ -67229,16 +67611,19 @@
         <v>6585</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="F58" t="s">
         <v>6583</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>6582</v>
       </c>
@@ -67249,14 +67634,17 @@
         <v>226</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>6693</v>
-      </c>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" hidden="1">
+        <v>6692</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>6582</v>
       </c>
@@ -67275,11 +67663,14 @@
       <c r="F60" t="s">
         <v>6583</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1">
+      <c r="G60" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>6601</v>
       </c>
@@ -67298,11 +67689,14 @@
       <c r="F61" t="s">
         <v>6583</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>6582</v>
       </c>
@@ -67318,9 +67712,12 @@
       <c r="E62" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" hidden="1">
+      <c r="G62" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>6582</v>
       </c>
@@ -67339,11 +67736,14 @@
       <c r="F63" t="s">
         <v>6583</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1">
+      <c r="G63" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>6586</v>
       </c>
@@ -67351,10 +67751,10 @@
         <v>1982</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>6589</v>
@@ -67362,11 +67762,14 @@
       <c r="F64" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G64" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1">
+      <c r="G64" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>6582</v>
       </c>
@@ -67374,10 +67777,10 @@
         <v>517</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>6589</v>
@@ -67385,11 +67788,14 @@
       <c r="F65" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G65" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1">
+      <c r="G65" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>6582</v>
       </c>
@@ -67403,16 +67809,19 @@
         <v>6585</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="F66" t="s">
         <v>6583</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1">
+      <c r="G66" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>6582</v>
       </c>
@@ -67431,11 +67840,14 @@
       <c r="F67" t="s">
         <v>6583</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1">
+      <c r="G67" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>6582</v>
       </c>
@@ -67446,19 +67858,22 @@
         <v>239</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="F68" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G68" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1">
+      <c r="G68" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>6590</v>
       </c>
@@ -67472,16 +67887,19 @@
         <v>6585</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="F69" t="s">
         <v>6583</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="G69" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>6582</v>
       </c>
@@ -67492,14 +67910,17 @@
         <v>104</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>6617</v>
       </c>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="1:7" hidden="1">
+      <c r="G70" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>6582</v>
       </c>
@@ -67518,11 +67939,14 @@
       <c r="F71" t="s">
         <v>6583</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1">
+      <c r="G71" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>6582</v>
       </c>
@@ -67541,11 +67965,14 @@
       <c r="F72" t="s">
         <v>6583</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="G72" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>6588</v>
       </c>
@@ -67559,11 +67986,14 @@
         <v>6577</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>6693</v>
-      </c>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7">
+        <v>6692</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>6588</v>
       </c>
@@ -67571,7 +68001,7 @@
         <v>707</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>6577</v>
@@ -67579,9 +68009,12 @@
       <c r="E74" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G74"/>
-    </row>
-    <row r="75" spans="1:7" hidden="1">
+      <c r="G74" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>6586</v>
       </c>
@@ -67600,11 +68033,14 @@
       <c r="F75" t="s">
         <v>6583</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1">
+      <c r="G75" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>6582</v>
       </c>
@@ -67615,7 +68051,7 @@
         <v>263</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>6589</v>
@@ -67623,11 +68059,14 @@
       <c r="F76" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G76" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1">
+      <c r="G76" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>6586</v>
       </c>
@@ -67641,16 +68080,19 @@
         <v>6585</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="F77" t="s">
         <v>6583</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1">
+      <c r="G77" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>6586</v>
       </c>
@@ -67669,11 +68111,14 @@
       <c r="F78" t="s">
         <v>6583</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1">
+      <c r="G78" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>6591</v>
       </c>
@@ -67687,16 +68132,19 @@
         <v>6585</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
       <c r="F79" t="s">
         <v>6609</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1">
+      <c r="G79" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>6588</v>
       </c>
@@ -67710,16 +68158,19 @@
         <v>6585</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
       <c r="F80" t="s">
         <v>6583</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1">
+      <c r="G80" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>6582</v>
       </c>
@@ -67738,11 +68189,14 @@
       <c r="F81" t="s">
         <v>6583</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>6582</v>
       </c>
@@ -67758,9 +68212,12 @@
       <c r="E82" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G82"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>6601</v>
       </c>
@@ -67771,14 +68228,17 @@
         <v>32</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="1:7" hidden="1">
+      <c r="G83" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>6586</v>
       </c>
@@ -67792,16 +68252,19 @@
         <v>6585</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="F84" t="s">
         <v>6583</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="G84" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>6582</v>
       </c>
@@ -67812,14 +68275,17 @@
         <v>591</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>6687</v>
-      </c>
-      <c r="G85"/>
-    </row>
-    <row r="86" spans="1:7" hidden="1">
+        <v>6686</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>6601</v>
       </c>
@@ -67838,11 +68304,14 @@
       <c r="F86" t="s">
         <v>6583</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1">
+      <c r="G86" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>6582</v>
       </c>
@@ -67861,11 +68330,14 @@
       <c r="F87" t="s">
         <v>6583</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>6601</v>
       </c>
@@ -67876,14 +68348,17 @@
         <v>489</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E88" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G88"/>
-    </row>
-    <row r="89" spans="1:7" hidden="1">
+      <c r="G88" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>6601</v>
       </c>
@@ -67902,11 +68377,14 @@
       <c r="F89" t="s">
         <v>6583</v>
       </c>
-      <c r="G89" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1">
+      <c r="G89" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>6601</v>
       </c>
@@ -67925,11 +68403,14 @@
       <c r="F90" t="s">
         <v>6583</v>
       </c>
-      <c r="G90" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1">
+      <c r="G90" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>6582</v>
       </c>
@@ -67948,11 +68429,14 @@
       <c r="F91" t="s">
         <v>6583</v>
       </c>
-      <c r="G91" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1">
+      <c r="G91" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>6590</v>
       </c>
@@ -67963,7 +68447,7 @@
         <v>405</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E92" s="30" t="s">
         <v>6589</v>
@@ -67971,11 +68455,14 @@
       <c r="F92" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G92" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1">
+      <c r="G92" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>6588</v>
       </c>
@@ -67989,16 +68476,19 @@
         <v>6585</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="F93" t="s">
         <v>6583</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1">
+      <c r="G93" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>6582</v>
       </c>
@@ -68017,11 +68507,14 @@
       <c r="F94" t="s">
         <v>6583</v>
       </c>
-      <c r="G94" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1">
+      <c r="G94" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>6582</v>
       </c>
@@ -68040,11 +68533,14 @@
       <c r="F95" t="s">
         <v>6583</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1">
+      <c r="G95" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>6582</v>
       </c>
@@ -68063,11 +68559,14 @@
       <c r="F96" t="s">
         <v>6583</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1">
+      <c r="G96" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>6588</v>
       </c>
@@ -68081,16 +68580,19 @@
         <v>6585</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="F97" t="s">
         <v>6583</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1">
+      <c r="G97" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>6588</v>
       </c>
@@ -68104,16 +68606,19 @@
         <v>6585</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="F98" t="s">
         <v>6583</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1">
+      <c r="G98" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>6601</v>
       </c>
@@ -68132,11 +68637,14 @@
       <c r="F99" t="s">
         <v>6583</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1">
+      <c r="G99" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>6601</v>
       </c>
@@ -68155,11 +68663,14 @@
       <c r="F100" t="s">
         <v>6583</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1">
+      <c r="G100" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>6582</v>
       </c>
@@ -68178,11 +68689,14 @@
       <c r="F101" t="s">
         <v>6583</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1">
+      <c r="G101" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>6588</v>
       </c>
@@ -68196,16 +68710,19 @@
         <v>6585</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="F102" t="s">
         <v>6583</v>
       </c>
-      <c r="G102" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1">
+      <c r="G102" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>6590</v>
       </c>
@@ -68219,16 +68736,19 @@
         <v>6585</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="F103" t="s">
         <v>6583</v>
       </c>
-      <c r="G103" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1">
+      <c r="G103" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>6590</v>
       </c>
@@ -68239,19 +68759,22 @@
         <v>833</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="F104" t="s">
         <v>6583</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="G104" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>6601</v>
       </c>
@@ -68267,9 +68790,12 @@
       <c r="E105" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G105"/>
-    </row>
-    <row r="106" spans="1:7" hidden="1">
+      <c r="G105" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>6588</v>
       </c>
@@ -68283,16 +68809,19 @@
         <v>6585</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="F106" t="s">
         <v>6583</v>
       </c>
-      <c r="G106" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1">
+      <c r="G106" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>6588</v>
       </c>
@@ -68306,16 +68835,19 @@
         <v>6585</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="F107" t="s">
         <v>6583</v>
       </c>
-      <c r="G107" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1">
+      <c r="G107" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>6591</v>
       </c>
@@ -68334,11 +68866,14 @@
       <c r="F108" t="s">
         <v>6583</v>
       </c>
-      <c r="G108" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1">
+      <c r="G108" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>6586</v>
       </c>
@@ -68357,11 +68892,14 @@
       <c r="F109" s="30" t="s">
         <v>6617</v>
       </c>
-      <c r="G109" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1">
+      <c r="G109" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>6586</v>
       </c>
@@ -68380,11 +68918,14 @@
       <c r="F110" s="30" t="s">
         <v>6617</v>
       </c>
-      <c r="G110" s="30" t="s">
-        <v>6728</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1">
+      <c r="G110" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H110" s="30" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>6582</v>
       </c>
@@ -68398,16 +68939,19 @@
         <v>6585</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="F111" t="s">
         <v>6595</v>
       </c>
-      <c r="G111" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="G111" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>6582</v>
       </c>
@@ -68418,14 +68962,17 @@
         <v>906</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E112" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G112"/>
-    </row>
-    <row r="113" spans="1:7" hidden="1">
+      <c r="G112" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>6582</v>
       </c>
@@ -68439,16 +68986,19 @@
         <v>6585</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="F113" t="s">
         <v>6595</v>
       </c>
-      <c r="G113" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1">
+      <c r="G113" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>6582</v>
       </c>
@@ -68462,16 +69012,19 @@
         <v>6585</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="F114" t="s">
         <v>6595</v>
       </c>
-      <c r="G114" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1">
+      <c r="G114" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>6582</v>
       </c>
@@ -68490,11 +69043,14 @@
       <c r="F115" t="s">
         <v>6595</v>
       </c>
-      <c r="G115" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1">
+      <c r="G115" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>6588</v>
       </c>
@@ -68505,7 +69061,7 @@
         <v>575</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E116" s="30" t="s">
         <v>6592</v>
@@ -68514,10 +69070,13 @@
         <v>6592</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>6724</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>6601</v>
       </c>
@@ -68528,14 +69087,17 @@
         <v>364</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>6682</v>
-      </c>
-      <c r="G117"/>
-    </row>
-    <row r="118" spans="1:7">
+        <v>6681</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H117"/>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>6601</v>
       </c>
@@ -68546,14 +69108,17 @@
         <v>362</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>6682</v>
-      </c>
-      <c r="G118"/>
-    </row>
-    <row r="119" spans="1:7" hidden="1">
+        <v>6681</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H118"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>6586</v>
       </c>
@@ -68561,7 +69126,7 @@
         <v>3292</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
       <c r="D119" s="30" t="s">
         <v>6585</v>
@@ -68572,11 +69137,14 @@
       <c r="F119" t="s">
         <v>6583</v>
       </c>
-      <c r="G119" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="G119" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>6601</v>
       </c>
@@ -68587,14 +69155,17 @@
         <v>103</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E120" s="30" t="s">
         <v>6599</v>
       </c>
-      <c r="G120"/>
-    </row>
-    <row r="121" spans="1:7" hidden="1">
+      <c r="G120" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>6578</v>
       </c>
@@ -68605,19 +69176,22 @@
         <v>19</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>6729</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1">
+        <v>6727</v>
+      </c>
+      <c r="H121" s="30" t="s">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>6586</v>
       </c>
@@ -68628,7 +69202,7 @@
         <v>292</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E122" s="30" t="s">
         <v>6592</v>
@@ -68637,10 +69211,13 @@
         <v>6592</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>6724</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>6601</v>
       </c>
@@ -68651,14 +69228,17 @@
         <v>288</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E123" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G123"/>
-    </row>
-    <row r="124" spans="1:7" hidden="1">
+      <c r="G123" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>6586</v>
       </c>
@@ -68672,16 +69252,19 @@
         <v>6585</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
       <c r="F124" t="s">
         <v>6583</v>
       </c>
-      <c r="G124" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="G124" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>6590</v>
       </c>
@@ -68692,14 +69275,17 @@
         <v>696</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="E125" s="30" t="s">
         <v>6599</v>
       </c>
-      <c r="G125"/>
-    </row>
-    <row r="126" spans="1:7" hidden="1">
+      <c r="G125" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H125"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>6586</v>
       </c>
@@ -68710,7 +69296,7 @@
         <v>831</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="E126" s="30" t="s">
         <v>6579</v>
@@ -68719,10 +69305,13 @@
         <v>6579</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>6724</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>6591</v>
       </c>
@@ -68736,11 +69325,14 @@
         <v>6577</v>
       </c>
       <c r="E127" s="30" t="s">
-        <v>6676</v>
-      </c>
-      <c r="G127"/>
-    </row>
-    <row r="128" spans="1:7">
+        <v>6734</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>6586</v>
       </c>
@@ -68756,9 +69348,12 @@
       <c r="E128" s="30" t="s">
         <v>6599</v>
       </c>
-      <c r="G128"/>
-    </row>
-    <row r="129" spans="1:5" customFormat="1">
+      <c r="G128" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H128"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>6601</v>
       </c>
@@ -68774,8 +69369,12 @@
       <c r="E129" s="30" t="s">
         <v>6599</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" customFormat="1">
+      <c r="G129" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H129"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>6582</v>
       </c>
@@ -68791,8 +69390,12 @@
       <c r="E130" s="30" t="s">
         <v>6592</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" customFormat="1">
+      <c r="G130" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H130"/>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>6578</v>
       </c>
@@ -68808,8 +69411,12 @@
       <c r="E131" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" customFormat="1">
+      <c r="G131" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>6578</v>
       </c>
@@ -68825,8 +69432,12 @@
       <c r="E132" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" customFormat="1">
+      <c r="G132" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>6578</v>
       </c>
@@ -68842,8 +69453,12 @@
       <c r="E133" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" customFormat="1">
+      <c r="G133" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>6578</v>
       </c>
@@ -68859,8 +69474,12 @@
       <c r="E134" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" customFormat="1">
+      <c r="G134" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H134"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>6578</v>
       </c>
@@ -68876,8 +69495,12 @@
       <c r="E135" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" customFormat="1">
+      <c r="G135" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H135"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>6578</v>
       </c>
@@ -68893,8 +69516,12 @@
       <c r="E136" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" customFormat="1">
+      <c r="G136" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H136"/>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>6578</v>
       </c>
@@ -68910,8 +69537,12 @@
       <c r="E137" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" customFormat="1">
+      <c r="G137" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H137"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>6578</v>
       </c>
@@ -68927,8 +69558,12 @@
       <c r="E138" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" customFormat="1">
+      <c r="G138" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>6578</v>
       </c>
@@ -68944,8 +69579,12 @@
       <c r="E139" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" customFormat="1">
+      <c r="G139" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>6578</v>
       </c>
@@ -68961,8 +69600,12 @@
       <c r="E140" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" customFormat="1">
+      <c r="G140" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H140"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>6578</v>
       </c>
@@ -68978,8 +69621,12 @@
       <c r="E141" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" customFormat="1">
+      <c r="G141" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H141"/>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>6578</v>
       </c>
@@ -68995,8 +69642,12 @@
       <c r="E142" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" customFormat="1">
+      <c r="G142" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H142"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>6578</v>
       </c>
@@ -69012,8 +69663,12 @@
       <c r="E143" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" customFormat="1">
+      <c r="G143" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H143"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>6578</v>
       </c>
@@ -69029,8 +69684,12 @@
       <c r="E144" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="G144" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H144"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>6582</v>
       </c>
@@ -69046,9 +69705,12 @@
       <c r="E145" s="30" t="s">
         <v>6579</v>
       </c>
-      <c r="G145"/>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="G145" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H145"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>6588</v>
       </c>
@@ -69064,9 +69726,12 @@
       <c r="E146" s="30" t="s">
         <v>6579</v>
       </c>
-      <c r="G146"/>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="G146" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H146"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>6582</v>
       </c>
@@ -69082,9 +69747,12 @@
       <c r="E147" s="30" t="s">
         <v>6579</v>
       </c>
-      <c r="G147"/>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="G147" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H147"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>6582</v>
       </c>
@@ -69100,9 +69768,12 @@
       <c r="E148" s="30" t="s">
         <v>6579</v>
       </c>
-      <c r="G148"/>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="G148" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>6578</v>
       </c>
@@ -69118,9 +69789,12 @@
       <c r="E149" s="30" t="s">
         <v>6660</v>
       </c>
-      <c r="G149"/>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="G149" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H149"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>6578</v>
       </c>
@@ -69136,9 +69810,12 @@
       <c r="E150" s="30" t="s">
         <v>6660</v>
       </c>
-      <c r="G150"/>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="G150" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H150"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>6578</v>
       </c>
@@ -69154,9 +69831,12 @@
       <c r="E151" s="30" t="s">
         <v>6660</v>
       </c>
-      <c r="G151"/>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="G151" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H151"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>6586</v>
       </c>
@@ -69172,9 +69852,12 @@
       <c r="E152" s="30" t="s">
         <v>6672</v>
       </c>
-      <c r="G152"/>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="G152" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>6586</v>
       </c>
@@ -69190,9 +69873,12 @@
       <c r="E153" s="30" t="s">
         <v>6672</v>
       </c>
-      <c r="G153"/>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="G153" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H153"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>6588</v>
       </c>
@@ -69208,9 +69894,12 @@
       <c r="E154" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G154"/>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="G154" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H154"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>6601</v>
       </c>
@@ -69226,9 +69915,12 @@
       <c r="E155" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G155"/>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="G155" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H155"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>6586</v>
       </c>
@@ -69244,9 +69936,12 @@
       <c r="E156" s="30" t="s">
         <v>6592</v>
       </c>
-      <c r="G156"/>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="G156" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H156"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>6590</v>
       </c>
@@ -69262,9 +69957,12 @@
       <c r="E157" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G157"/>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="G157" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H157"/>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>6601</v>
       </c>
@@ -69280,9 +69978,12 @@
       <c r="E158" s="30" t="s">
         <v>6592</v>
       </c>
-      <c r="G158"/>
-    </row>
-    <row r="159" spans="1:7" hidden="1">
+      <c r="G158" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H158"/>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>6591</v>
       </c>
@@ -69301,11 +70002,14 @@
       <c r="F159" t="s">
         <v>6583</v>
       </c>
-      <c r="G159" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="G159" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>6601</v>
       </c>
@@ -69321,9 +70025,12 @@
       <c r="E160" s="30" t="s">
         <v>6611</v>
       </c>
-      <c r="G160"/>
-    </row>
-    <row r="161" spans="1:5" customFormat="1">
+      <c r="G160" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>6586</v>
       </c>
@@ -69339,8 +70046,12 @@
       <c r="E161" s="30" t="s">
         <v>6592</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" customFormat="1">
+      <c r="G161" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H161"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>6586</v>
       </c>
@@ -69356,8 +70067,12 @@
       <c r="E162" s="30" t="s">
         <v>6671</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" customFormat="1">
+      <c r="G162" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H162"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>6578</v>
       </c>
@@ -69373,8 +70088,12 @@
       <c r="E163" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" customFormat="1">
+      <c r="G163" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>6578</v>
       </c>
@@ -69390,8 +70109,12 @@
       <c r="E164" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" customFormat="1">
+      <c r="G164" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H164"/>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>6578</v>
       </c>
@@ -69407,8 +70130,12 @@
       <c r="E165" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" customFormat="1">
+      <c r="G165" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>6578</v>
       </c>
@@ -69424,8 +70151,12 @@
       <c r="E166" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" customFormat="1">
+      <c r="G166" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>6578</v>
       </c>
@@ -69441,8 +70172,12 @@
       <c r="E167" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" customFormat="1">
+      <c r="G167" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H167"/>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>6578</v>
       </c>
@@ -69458,8 +70193,12 @@
       <c r="E168" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" customFormat="1">
+      <c r="G168" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H168"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>6578</v>
       </c>
@@ -69475,8 +70214,12 @@
       <c r="E169" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" customFormat="1">
+      <c r="G169" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>6578</v>
       </c>
@@ -69492,8 +70235,12 @@
       <c r="E170" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" customFormat="1">
+      <c r="G170" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>6578</v>
       </c>
@@ -69509,8 +70256,12 @@
       <c r="E171" s="30" t="s">
         <v>6660</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" customFormat="1">
+      <c r="G171" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>6588</v>
       </c>
@@ -69526,8 +70277,12 @@
       <c r="E172" s="30" t="s">
         <v>6661</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" customFormat="1">
+      <c r="G172" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>6588</v>
       </c>
@@ -69543,8 +70298,12 @@
       <c r="E173" s="30" t="s">
         <v>6661</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" customFormat="1">
+      <c r="G173" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>6578</v>
       </c>
@@ -69560,8 +70319,12 @@
       <c r="E174" s="30" t="s">
         <v>6599</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" customFormat="1">
+      <c r="G174" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H174"/>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>6586</v>
       </c>
@@ -69577,8 +70340,12 @@
       <c r="E175" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" customFormat="1">
+      <c r="G175" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H175"/>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>6586</v>
       </c>
@@ -69594,8 +70361,12 @@
       <c r="E176" s="30" t="s">
         <v>6592</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="G176" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H176"/>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>6582</v>
       </c>
@@ -69611,9 +70382,12 @@
       <c r="E177" s="30" t="s">
         <v>6579</v>
       </c>
-      <c r="G177"/>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="G177" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>6601</v>
       </c>
@@ -69629,9 +70403,12 @@
       <c r="E178" s="30" t="s">
         <v>6599</v>
       </c>
-      <c r="G178"/>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="G178" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>6578</v>
       </c>
@@ -69647,9 +70424,12 @@
       <c r="E179" s="30" t="s">
         <v>6660</v>
       </c>
-      <c r="G179"/>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="G179" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>6578</v>
       </c>
@@ -69665,9 +70445,12 @@
       <c r="E180" s="30" t="s">
         <v>6579</v>
       </c>
-      <c r="G180"/>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="G180" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H180"/>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>6578</v>
       </c>
@@ -69683,9 +70466,12 @@
       <c r="E181" s="30" t="s">
         <v>6579</v>
       </c>
-      <c r="G181"/>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="G181" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>6582</v>
       </c>
@@ -69701,9 +70487,12 @@
       <c r="E182" s="30" t="s">
         <v>6599</v>
       </c>
-      <c r="G182"/>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="G182" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>6586</v>
       </c>
@@ -69719,9 +70508,12 @@
       <c r="E183" s="30" t="s">
         <v>6599</v>
       </c>
-      <c r="G183"/>
-    </row>
-    <row r="184" spans="1:7" hidden="1">
+      <c r="G183" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>6591</v>
       </c>
@@ -69740,11 +70532,14 @@
       <c r="F184" t="s">
         <v>6609</v>
       </c>
-      <c r="G184" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="G184" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>6588</v>
       </c>
@@ -69760,9 +70555,12 @@
       <c r="E185" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G185"/>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="G185" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H185"/>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>6578</v>
       </c>
@@ -69778,9 +70576,12 @@
       <c r="E186" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G186"/>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="G186" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H186"/>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>6578</v>
       </c>
@@ -69796,9 +70597,12 @@
       <c r="E187" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G187"/>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="G187" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H187"/>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>6578</v>
       </c>
@@ -69814,9 +70618,12 @@
       <c r="E188" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G188"/>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="G188" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H188"/>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>6578</v>
       </c>
@@ -69832,9 +70639,12 @@
       <c r="E189" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G189"/>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="G189" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H189"/>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>6578</v>
       </c>
@@ -69850,9 +70660,12 @@
       <c r="E190" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G190"/>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="G190" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H190"/>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>6578</v>
       </c>
@@ -69868,9 +70681,12 @@
       <c r="E191" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G191"/>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="G191" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H191"/>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>6578</v>
       </c>
@@ -69886,9 +70702,12 @@
       <c r="E192" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G192"/>
-    </row>
-    <row r="193" spans="1:5" customFormat="1">
+      <c r="G192" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H192"/>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>6578</v>
       </c>
@@ -69904,8 +70723,12 @@
       <c r="E193" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" customFormat="1">
+      <c r="G193" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H193"/>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>6578</v>
       </c>
@@ -69921,8 +70744,12 @@
       <c r="E194" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" customFormat="1">
+      <c r="G194" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H194"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>6578</v>
       </c>
@@ -69938,8 +70765,12 @@
       <c r="E195" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" customFormat="1">
+      <c r="G195" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H195"/>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>6578</v>
       </c>
@@ -69955,8 +70786,12 @@
       <c r="E196" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" customFormat="1">
+      <c r="G196" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H196"/>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>6578</v>
       </c>
@@ -69972,8 +70807,12 @@
       <c r="E197" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" customFormat="1">
+      <c r="G197" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H197"/>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>6578</v>
       </c>
@@ -69989,8 +70828,12 @@
       <c r="E198" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" customFormat="1">
+      <c r="G198" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H198"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>6578</v>
       </c>
@@ -70006,8 +70849,12 @@
       <c r="E199" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" customFormat="1">
+      <c r="G199" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H199"/>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>6578</v>
       </c>
@@ -70023,8 +70870,12 @@
       <c r="E200" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" customFormat="1">
+      <c r="G200" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H200"/>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>6578</v>
       </c>
@@ -70040,8 +70891,12 @@
       <c r="E201" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" customFormat="1">
+      <c r="G201" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H201"/>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>6578</v>
       </c>
@@ -70057,8 +70912,12 @@
       <c r="E202" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" customFormat="1">
+      <c r="G202" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H202"/>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>6578</v>
       </c>
@@ -70074,8 +70933,12 @@
       <c r="E203" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" customFormat="1">
+      <c r="G203" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H203"/>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>6578</v>
       </c>
@@ -70091,8 +70954,12 @@
       <c r="E204" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" customFormat="1">
+      <c r="G204" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H204"/>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>6578</v>
       </c>
@@ -70108,8 +70975,12 @@
       <c r="E205" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" customFormat="1">
+      <c r="G205" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H205"/>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>6578</v>
       </c>
@@ -70125,8 +70996,12 @@
       <c r="E206" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" customFormat="1">
+      <c r="G206" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H206"/>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>6578</v>
       </c>
@@ -70142,8 +71017,12 @@
       <c r="E207" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" customFormat="1">
+      <c r="G207" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H207"/>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>6578</v>
       </c>
@@ -70159,8 +71038,12 @@
       <c r="E208" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" customFormat="1">
+      <c r="G208" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H208"/>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>6578</v>
       </c>
@@ -70176,8 +71059,12 @@
       <c r="E209" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" customFormat="1">
+      <c r="G209" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H209"/>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>6578</v>
       </c>
@@ -70193,8 +71080,12 @@
       <c r="E210" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" customFormat="1">
+      <c r="G210" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H210"/>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>6578</v>
       </c>
@@ -70210,8 +71101,12 @@
       <c r="E211" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" customFormat="1">
+      <c r="G211" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H211"/>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>6582</v>
       </c>
@@ -70227,8 +71122,12 @@
       <c r="E212" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" customFormat="1">
+      <c r="G212" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H212"/>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>6588</v>
       </c>
@@ -70244,8 +71143,12 @@
       <c r="E213" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" customFormat="1">
+      <c r="G213" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H213"/>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>6588</v>
       </c>
@@ -70261,8 +71164,12 @@
       <c r="E214" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" customFormat="1">
+      <c r="G214" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H214"/>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>6582</v>
       </c>
@@ -70278,8 +71185,12 @@
       <c r="E215" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" customFormat="1">
+      <c r="G215" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H215"/>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>6591</v>
       </c>
@@ -70295,8 +71206,12 @@
       <c r="E216" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" customFormat="1">
+      <c r="G216" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H216"/>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>6590</v>
       </c>
@@ -70312,8 +71227,12 @@
       <c r="E217" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" customFormat="1">
+      <c r="G217" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H217"/>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>6582</v>
       </c>
@@ -70329,8 +71248,12 @@
       <c r="E218" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" customFormat="1">
+      <c r="G218" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H218"/>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>6591</v>
       </c>
@@ -70346,8 +71269,12 @@
       <c r="E219" s="30" t="s">
         <v>6631</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" customFormat="1">
+      <c r="G219" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H219"/>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>6591</v>
       </c>
@@ -70363,8 +71290,12 @@
       <c r="E220" s="30" t="s">
         <v>6631</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" customFormat="1">
+      <c r="G220" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H220"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>6582</v>
       </c>
@@ -70380,8 +71311,12 @@
       <c r="E221" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" customFormat="1">
+      <c r="G221" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H221"/>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>6601</v>
       </c>
@@ -70397,8 +71332,12 @@
       <c r="E222" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" customFormat="1">
+      <c r="G222" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H222"/>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>6590</v>
       </c>
@@ -70414,8 +71353,12 @@
       <c r="E223" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" customFormat="1">
+      <c r="G223" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H223"/>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>6601</v>
       </c>
@@ -70431,8 +71374,12 @@
       <c r="E224" s="30" t="s">
         <v>6587</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="G224" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H224"/>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>6591</v>
       </c>
@@ -70448,9 +71395,12 @@
       <c r="E225" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G225"/>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="G225" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H225"/>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>6588</v>
       </c>
@@ -70466,9 +71416,12 @@
       <c r="E226" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G226"/>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="G226" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H226"/>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>6601</v>
       </c>
@@ -70484,9 +71437,12 @@
       <c r="E227" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G227"/>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="G227" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H227"/>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>6591</v>
       </c>
@@ -70502,9 +71458,12 @@
       <c r="E228" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G228"/>
-    </row>
-    <row r="229" spans="1:7" hidden="1">
+      <c r="G228" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H228"/>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>6582</v>
       </c>
@@ -70523,11 +71482,14 @@
       <c r="F229" t="s">
         <v>6595</v>
       </c>
-      <c r="G229" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="G229" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>6578</v>
       </c>
@@ -70543,9 +71505,12 @@
       <c r="E230" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G230"/>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="G230" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H230"/>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>6578</v>
       </c>
@@ -70561,9 +71526,12 @@
       <c r="E231" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G231"/>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="G231" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H231"/>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>6578</v>
       </c>
@@ -70579,9 +71547,12 @@
       <c r="E232" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G232"/>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="G232" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H232"/>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>6578</v>
       </c>
@@ -70597,9 +71568,12 @@
       <c r="E233" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G233"/>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="G233" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H233"/>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>6578</v>
       </c>
@@ -70615,9 +71589,12 @@
       <c r="E234" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G234"/>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="G234" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H234"/>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>6578</v>
       </c>
@@ -70633,9 +71610,12 @@
       <c r="E235" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G235"/>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="G235" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H235"/>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>6601</v>
       </c>
@@ -70651,9 +71631,12 @@
       <c r="E236" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G236"/>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="G236" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H236"/>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>6586</v>
       </c>
@@ -70669,9 +71652,12 @@
       <c r="E237" s="30" t="s">
         <v>6592</v>
       </c>
-      <c r="G237"/>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="G237" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H237"/>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>6578</v>
       </c>
@@ -70687,9 +71673,12 @@
       <c r="E238" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G238"/>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="G238" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H238"/>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>6590</v>
       </c>
@@ -70705,9 +71694,12 @@
       <c r="E239" s="30" t="s">
         <v>6623</v>
       </c>
-      <c r="G239"/>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="G239" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H239"/>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>6578</v>
       </c>
@@ -70723,9 +71715,12 @@
       <c r="E240" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G240"/>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="G240" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H240"/>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>6578</v>
       </c>
@@ -70741,9 +71736,12 @@
       <c r="E241" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G241"/>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="G241" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H241"/>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>6578</v>
       </c>
@@ -70759,9 +71757,12 @@
       <c r="E242" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G242"/>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="G242" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H242"/>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>6578</v>
       </c>
@@ -70777,9 +71778,12 @@
       <c r="E243" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G243"/>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="G243" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H243"/>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>6578</v>
       </c>
@@ -70795,9 +71799,12 @@
       <c r="E244" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G244"/>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="G244" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H244"/>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>6590</v>
       </c>
@@ -70813,9 +71820,12 @@
       <c r="E245" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G245"/>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="G245" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H245"/>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>6591</v>
       </c>
@@ -70831,9 +71841,12 @@
       <c r="E246" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G246"/>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="G246" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H246"/>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>6601</v>
       </c>
@@ -70849,9 +71862,12 @@
       <c r="E247" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G247"/>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="G247" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H247"/>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>6578</v>
       </c>
@@ -70867,9 +71883,12 @@
       <c r="E248" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G248"/>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="G248" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H248"/>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>6578</v>
       </c>
@@ -70885,9 +71904,12 @@
       <c r="E249" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G249"/>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="G249" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H249"/>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>6588</v>
       </c>
@@ -70903,9 +71925,12 @@
       <c r="E250" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G250"/>
-    </row>
-    <row r="251" spans="1:7" hidden="1">
+      <c r="G250" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H250"/>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>6591</v>
       </c>
@@ -70924,11 +71949,14 @@
       <c r="F251" t="s">
         <v>6583</v>
       </c>
-      <c r="G251" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="G251" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>6582</v>
       </c>
@@ -70944,9 +71972,12 @@
       <c r="E252" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G252"/>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="G252" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H252"/>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>6578</v>
       </c>
@@ -70962,9 +71993,12 @@
       <c r="E253" s="30" t="s">
         <v>6576</v>
       </c>
-      <c r="G253"/>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="G253" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H253"/>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>6588</v>
       </c>
@@ -70980,9 +72014,12 @@
       <c r="E254" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G254"/>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="G254" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H254"/>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>6578</v>
       </c>
@@ -70998,9 +72035,12 @@
       <c r="E255" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G255"/>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="G255" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H255"/>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>6586</v>
       </c>
@@ -71016,9 +72056,12 @@
       <c r="E256" s="30" t="s">
         <v>6618</v>
       </c>
-      <c r="G256"/>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="G256" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H256"/>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>6582</v>
       </c>
@@ -71034,9 +72077,12 @@
       <c r="E257" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G257"/>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="G257" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H257"/>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>6582</v>
       </c>
@@ -71052,9 +72098,12 @@
       <c r="E258" s="30" t="s">
         <v>6617</v>
       </c>
-      <c r="G258"/>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="G258" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H258"/>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>6601</v>
       </c>
@@ -71070,9 +72119,12 @@
       <c r="E259" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G259"/>
-    </row>
-    <row r="260" spans="1:7" hidden="1">
+      <c r="G259" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H259"/>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>6582</v>
       </c>
@@ -71091,11 +72143,14 @@
       <c r="F260" t="s">
         <v>6595</v>
       </c>
-      <c r="G260" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" hidden="1">
+      <c r="G260" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H260" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>6601</v>
       </c>
@@ -71114,11 +72169,14 @@
       <c r="F261" t="s">
         <v>6583</v>
       </c>
-      <c r="G261" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" hidden="1">
+      <c r="G261" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H261" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>6586</v>
       </c>
@@ -71137,11 +72195,14 @@
       <c r="F262" t="s">
         <v>6583</v>
       </c>
-      <c r="G262" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" hidden="1">
+      <c r="G262" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H262" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>6586</v>
       </c>
@@ -71160,11 +72221,14 @@
       <c r="F263" t="s">
         <v>6583</v>
       </c>
-      <c r="G263" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" hidden="1">
+      <c r="G263" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>6582</v>
       </c>
@@ -71183,11 +72247,14 @@
       <c r="F264" t="s">
         <v>6595</v>
       </c>
-      <c r="G264" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" hidden="1">
+      <c r="G264" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H264" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>6582</v>
       </c>
@@ -71206,11 +72273,14 @@
       <c r="F265" t="s">
         <v>6583</v>
       </c>
-      <c r="G265" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" hidden="1">
+      <c r="G265" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>6586</v>
       </c>
@@ -71229,11 +72299,14 @@
       <c r="F266" t="s">
         <v>6583</v>
       </c>
-      <c r="G266" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" hidden="1">
+      <c r="G266" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H266" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>6582</v>
       </c>
@@ -71252,11 +72325,14 @@
       <c r="F267" t="s">
         <v>6583</v>
       </c>
-      <c r="G267" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" hidden="1">
+      <c r="G267" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H267" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>6586</v>
       </c>
@@ -71275,11 +72351,14 @@
       <c r="F268" t="s">
         <v>6583</v>
       </c>
-      <c r="G268" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" hidden="1">
+      <c r="G268" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H268" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>6586</v>
       </c>
@@ -71298,11 +72377,14 @@
       <c r="F269" t="s">
         <v>6583</v>
       </c>
-      <c r="G269" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="G269" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>6582</v>
       </c>
@@ -71318,9 +72400,12 @@
       <c r="E270" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G270"/>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="G270" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H270"/>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>6586</v>
       </c>
@@ -71336,9 +72421,12 @@
       <c r="E271" s="30" t="s">
         <v>6611</v>
       </c>
-      <c r="G271"/>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="G271" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H271"/>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>6601</v>
       </c>
@@ -71354,9 +72442,12 @@
       <c r="E272" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G272"/>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="G272" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H272"/>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>6586</v>
       </c>
@@ -71372,9 +72463,12 @@
       <c r="E273" s="30" t="s">
         <v>6592</v>
       </c>
-      <c r="G273"/>
-    </row>
-    <row r="274" spans="1:7" hidden="1">
+      <c r="G273" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H273"/>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>6582</v>
       </c>
@@ -71393,11 +72487,14 @@
       <c r="F274" t="s">
         <v>6609</v>
       </c>
-      <c r="G274" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" hidden="1">
+      <c r="G274" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H274" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>6588</v>
       </c>
@@ -71416,11 +72513,14 @@
       <c r="F275" t="s">
         <v>6595</v>
       </c>
-      <c r="G275" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="G275" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H275" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>6601</v>
       </c>
@@ -71436,9 +72536,12 @@
       <c r="E276" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G276"/>
-    </row>
-    <row r="277" spans="1:7" hidden="1">
+      <c r="G276" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H276"/>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>6586</v>
       </c>
@@ -71457,11 +72560,14 @@
       <c r="F277" t="s">
         <v>6583</v>
       </c>
-      <c r="G277" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="G277" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H277" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>6582</v>
       </c>
@@ -71477,9 +72583,12 @@
       <c r="E278" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G278"/>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="G278" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H278"/>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>6582</v>
       </c>
@@ -71495,9 +72604,12 @@
       <c r="E279" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G279"/>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="G279" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H279"/>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>6586</v>
       </c>
@@ -71513,9 +72625,12 @@
       <c r="E280" s="30" t="s">
         <v>6592</v>
       </c>
-      <c r="G280"/>
-    </row>
-    <row r="281" spans="1:7" hidden="1">
+      <c r="G280" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H280"/>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>6588</v>
       </c>
@@ -71534,11 +72649,14 @@
       <c r="F281" t="s">
         <v>6595</v>
       </c>
-      <c r="G281" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="G281" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>6601</v>
       </c>
@@ -71554,9 +72672,12 @@
       <c r="E282" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G282"/>
-    </row>
-    <row r="283" spans="1:7" hidden="1">
+      <c r="G282" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H282"/>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>6582</v>
       </c>
@@ -71575,11 +72696,14 @@
       <c r="F283" t="s">
         <v>6583</v>
       </c>
-      <c r="G283" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" hidden="1">
+      <c r="G283" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>6601</v>
       </c>
@@ -71598,11 +72722,14 @@
       <c r="F284" t="s">
         <v>6583</v>
       </c>
-      <c r="G284" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" hidden="1">
+      <c r="G284" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H284" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>6582</v>
       </c>
@@ -71621,11 +72748,14 @@
       <c r="F285" t="s">
         <v>6583</v>
       </c>
-      <c r="G285" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="G285" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>6601</v>
       </c>
@@ -71641,9 +72771,12 @@
       <c r="E286" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G286"/>
-    </row>
-    <row r="287" spans="1:7" hidden="1">
+      <c r="G286" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H286"/>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>6586</v>
       </c>
@@ -71662,11 +72795,14 @@
       <c r="F287" t="s">
         <v>6583</v>
       </c>
-      <c r="G287" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="G287" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>6582</v>
       </c>
@@ -71682,9 +72818,12 @@
       <c r="E288" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G288"/>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="G288" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H288"/>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>6601</v>
       </c>
@@ -71700,9 +72839,12 @@
       <c r="E289" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G289"/>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="G289" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H289"/>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>6601</v>
       </c>
@@ -71718,9 +72860,12 @@
       <c r="E290" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G290"/>
-    </row>
-    <row r="291" spans="1:7" hidden="1">
+      <c r="G290" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H290"/>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>6588</v>
       </c>
@@ -71739,11 +72884,14 @@
       <c r="F291" t="s">
         <v>6595</v>
       </c>
-      <c r="G291" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" hidden="1">
+      <c r="G291" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H291" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>6601</v>
       </c>
@@ -71762,11 +72910,14 @@
       <c r="F292" t="s">
         <v>6583</v>
       </c>
-      <c r="G292" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="G292" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H292" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>6591</v>
       </c>
@@ -71782,9 +72933,12 @@
       <c r="E293" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G293"/>
-    </row>
-    <row r="294" spans="1:7" hidden="1">
+      <c r="G293" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H293"/>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>6586</v>
       </c>
@@ -71803,11 +72957,14 @@
       <c r="F294" t="s">
         <v>6583</v>
       </c>
-      <c r="G294" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="G294" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H294" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>6582</v>
       </c>
@@ -71823,9 +72980,12 @@
       <c r="E295" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G295"/>
-    </row>
-    <row r="296" spans="1:7" hidden="1">
+      <c r="G295" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H295"/>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>6586</v>
       </c>
@@ -71844,11 +73004,14 @@
       <c r="F296" t="s">
         <v>6583</v>
       </c>
-      <c r="G296" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" hidden="1">
+      <c r="G296" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H296" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>6586</v>
       </c>
@@ -71867,11 +73030,14 @@
       <c r="F297" t="s">
         <v>6583</v>
       </c>
-      <c r="G297" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="G297" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>6591</v>
       </c>
@@ -71887,9 +73053,12 @@
       <c r="E298" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G298"/>
-    </row>
-    <row r="299" spans="1:7" hidden="1">
+      <c r="G298" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H298"/>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>6582</v>
       </c>
@@ -71908,11 +73077,14 @@
       <c r="F299" t="s">
         <v>6583</v>
       </c>
-      <c r="G299" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="G299" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>6588</v>
       </c>
@@ -71928,9 +73100,12 @@
       <c r="E300" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G300"/>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="G300" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H300"/>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>6591</v>
       </c>
@@ -71946,9 +73121,12 @@
       <c r="E301" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G301"/>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="G301" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H301"/>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>6591</v>
       </c>
@@ -71964,9 +73142,12 @@
       <c r="E302" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G302"/>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="G302" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H302"/>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>6590</v>
       </c>
@@ -71982,9 +73163,12 @@
       <c r="E303" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G303"/>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="G303" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H303"/>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>6590</v>
       </c>
@@ -72000,9 +73184,12 @@
       <c r="E304" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G304"/>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="G304" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H304"/>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>6588</v>
       </c>
@@ -72018,9 +73205,12 @@
       <c r="E305" s="30" t="s">
         <v>6592</v>
       </c>
-      <c r="G305"/>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="G305" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H305"/>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>6601</v>
       </c>
@@ -72036,9 +73226,12 @@
       <c r="E306" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G306"/>
-    </row>
-    <row r="307" spans="1:7" hidden="1">
+      <c r="G306" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H306"/>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>6586</v>
       </c>
@@ -72057,11 +73250,14 @@
       <c r="F307" t="s">
         <v>6583</v>
       </c>
-      <c r="G307" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" hidden="1">
+      <c r="G307" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H307" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>6582</v>
       </c>
@@ -72080,11 +73276,14 @@
       <c r="F308" t="s">
         <v>6595</v>
       </c>
-      <c r="G308" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="G308" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H308" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>6590</v>
       </c>
@@ -72100,9 +73299,12 @@
       <c r="E309" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G309"/>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="G309" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H309"/>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>6590</v>
       </c>
@@ -72118,9 +73320,12 @@
       <c r="E310" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G310"/>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="G310" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H310"/>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>6591</v>
       </c>
@@ -72132,9 +73337,12 @@
       </c>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
-      <c r="G311"/>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="G311" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H311"/>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>6601</v>
       </c>
@@ -72150,9 +73358,12 @@
       <c r="E312" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G312"/>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="G312" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H312"/>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>6601</v>
       </c>
@@ -72168,9 +73379,12 @@
       <c r="E313" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G313"/>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="G313" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H313"/>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>6601</v>
       </c>
@@ -72186,9 +73400,12 @@
       <c r="E314" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G314"/>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="G314" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H314"/>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>6590</v>
       </c>
@@ -72204,9 +73421,12 @@
       <c r="E315" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G315"/>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="G315" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H315"/>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>6586</v>
       </c>
@@ -72222,9 +73442,12 @@
       <c r="E316" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G316"/>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="G316" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H316"/>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>6591</v>
       </c>
@@ -72240,9 +73463,12 @@
       <c r="E317" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G317"/>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="G317" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H317"/>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>6591</v>
       </c>
@@ -72258,9 +73484,12 @@
       <c r="E318" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G318"/>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="G318" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H318"/>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>6591</v>
       </c>
@@ -72276,9 +73505,12 @@
       <c r="E319" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G319"/>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="G319" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H319"/>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>6582</v>
       </c>
@@ -72294,9 +73526,12 @@
       <c r="E320" s="30" t="s">
         <v>6587</v>
       </c>
-      <c r="G320"/>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="G320" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H320"/>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>6601</v>
       </c>
@@ -72312,9 +73547,12 @@
       <c r="E321" s="30" t="s">
         <v>6589</v>
       </c>
-      <c r="G321"/>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="G321" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H321"/>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>6590</v>
       </c>
@@ -72330,9 +73568,12 @@
       <c r="E322" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G322"/>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="G322" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H322"/>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>6588</v>
       </c>
@@ -72346,9 +73587,12 @@
         <v>6577</v>
       </c>
       <c r="E323" s="8"/>
-      <c r="G323"/>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="G323" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H323"/>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>6591</v>
       </c>
@@ -72360,9 +73604,12 @@
       </c>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
-      <c r="G324"/>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="G324" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H324"/>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>6588</v>
       </c>
@@ -72378,9 +73625,12 @@
       <c r="E325" s="8" t="s">
         <v>6592</v>
       </c>
-      <c r="G325"/>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="G325" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H325"/>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>6601</v>
       </c>
@@ -72396,9 +73646,12 @@
       <c r="E326" s="8" t="s">
         <v>6599</v>
       </c>
-      <c r="G326"/>
-    </row>
-    <row r="327" spans="1:7" hidden="1">
+      <c r="G326" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H326"/>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>6582</v>
       </c>
@@ -72417,11 +73670,14 @@
       <c r="F327" t="s">
         <v>6583</v>
       </c>
-      <c r="G327" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="G327" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>6582</v>
       </c>
@@ -72433,9 +73689,12 @@
       </c>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
-      <c r="G328"/>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="G328" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H328"/>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>6582</v>
       </c>
@@ -72451,9 +73710,12 @@
       <c r="E329" s="8" t="s">
         <v>6598</v>
       </c>
-      <c r="G329"/>
-    </row>
-    <row r="330" spans="1:7" hidden="1">
+      <c r="G329" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H329"/>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>6582</v>
       </c>
@@ -72472,11 +73734,14 @@
       <c r="F330" t="s">
         <v>6583</v>
       </c>
-      <c r="G330" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="G330" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H330" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>6582</v>
       </c>
@@ -72492,9 +73757,12 @@
       <c r="E331" s="8" t="s">
         <v>6597</v>
       </c>
-      <c r="G331"/>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="G331" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H331"/>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>6590</v>
       </c>
@@ -72510,9 +73778,12 @@
       <c r="E332" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G332"/>
-    </row>
-    <row r="333" spans="1:7" hidden="1">
+      <c r="G332" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H332"/>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>6588</v>
       </c>
@@ -72531,11 +73802,14 @@
       <c r="F333" t="s">
         <v>6595</v>
       </c>
-      <c r="G333" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="G333" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H333" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>6590</v>
       </c>
@@ -72551,9 +73825,12 @@
       <c r="E334" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G334"/>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="G334" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H334"/>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>6590</v>
       </c>
@@ -72569,9 +73846,12 @@
       <c r="E335" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G335"/>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="G335" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H335"/>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>6590</v>
       </c>
@@ -72587,9 +73867,12 @@
       <c r="E336" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G336"/>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="G336" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H336"/>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>6590</v>
       </c>
@@ -72605,9 +73888,12 @@
       <c r="E337" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G337"/>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="G337" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H337"/>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>6590</v>
       </c>
@@ -72623,9 +73909,12 @@
       <c r="E338" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G338"/>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="G338" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H338"/>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>6590</v>
       </c>
@@ -72641,9 +73930,12 @@
       <c r="E339" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G339"/>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="G339" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H339"/>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>6582</v>
       </c>
@@ -72659,9 +73951,12 @@
       <c r="E340" s="8" t="s">
         <v>6594</v>
       </c>
-      <c r="G340"/>
-    </row>
-    <row r="341" spans="1:7" hidden="1">
+      <c r="G340" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H340"/>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>6582</v>
       </c>
@@ -72680,11 +73975,14 @@
       <c r="F341" t="s">
         <v>6583</v>
       </c>
-      <c r="G341" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="G341" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H341" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>6590</v>
       </c>
@@ -72700,9 +73998,12 @@
       <c r="E342" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G342"/>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="G342" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H342"/>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>6590</v>
       </c>
@@ -72718,9 +74019,12 @@
       <c r="E343" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G343"/>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="G343" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H343"/>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>6588</v>
       </c>
@@ -72736,9 +74040,12 @@
       <c r="E344" s="8" t="s">
         <v>6592</v>
       </c>
-      <c r="G344"/>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="G344" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H344"/>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>6590</v>
       </c>
@@ -72754,9 +74061,12 @@
       <c r="E345" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G345"/>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="G345" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H345"/>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>6591</v>
       </c>
@@ -72772,9 +74082,12 @@
       <c r="E346" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G346"/>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="G346" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H346"/>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>6588</v>
       </c>
@@ -72790,9 +74103,12 @@
       <c r="E347" s="8" t="s">
         <v>6587</v>
       </c>
-      <c r="G347"/>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="G347" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H347"/>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>6590</v>
       </c>
@@ -72808,9 +74124,12 @@
       <c r="E348" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G348"/>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="G348" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H348"/>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>6588</v>
       </c>
@@ -72826,9 +74145,12 @@
       <c r="E349" s="8" t="s">
         <v>6587</v>
       </c>
-      <c r="G349"/>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="G349" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H349"/>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>6590</v>
       </c>
@@ -72844,9 +74166,12 @@
       <c r="E350" s="8" t="s">
         <v>6589</v>
       </c>
-      <c r="G350"/>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="G350" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H350"/>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>6588</v>
       </c>
@@ -72862,9 +74187,12 @@
       <c r="E351" s="8" t="s">
         <v>6587</v>
       </c>
-      <c r="G351"/>
-    </row>
-    <row r="352" spans="1:7" hidden="1">
+      <c r="G351" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H351"/>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>6586</v>
       </c>
@@ -72883,11 +74211,14 @@
       <c r="F352" t="s">
         <v>6583</v>
       </c>
-      <c r="G352" s="8" t="s">
-        <v>6725</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" customFormat="1">
+      <c r="G352" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H352" s="8" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>6582</v>
       </c>
@@ -72903,8 +74234,12 @@
       <c r="E353" s="8" t="s">
         <v>6580</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" customFormat="1">
+      <c r="G353" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H353"/>
+    </row>
+    <row r="354" spans="1:8">
       <c r="B354">
         <v>11898</v>
       </c>
@@ -72917,8 +74252,12 @@
       <c r="E354" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" customFormat="1">
+      <c r="G354" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H354"/>
+    </row>
+    <row r="355" spans="1:8">
       <c r="B355">
         <v>11595</v>
       </c>
@@ -72931,8 +74270,12 @@
       <c r="E355" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" customFormat="1">
+      <c r="G355" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H355"/>
+    </row>
+    <row r="356" spans="1:8">
       <c r="B356">
         <v>11946</v>
       </c>
@@ -72945,8 +74288,12 @@
       <c r="E356" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" customFormat="1">
+      <c r="G356" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H356"/>
+    </row>
+    <row r="357" spans="1:8">
       <c r="B357">
         <v>11896</v>
       </c>
@@ -72959,8 +74306,12 @@
       <c r="E357" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" customFormat="1">
+      <c r="G357" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H357"/>
+    </row>
+    <row r="358" spans="1:8">
       <c r="B358">
         <v>11895</v>
       </c>
@@ -72973,8 +74324,12 @@
       <c r="E358" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" customFormat="1">
+      <c r="G358" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H358"/>
+    </row>
+    <row r="359" spans="1:8">
       <c r="B359">
         <v>11898</v>
       </c>
@@ -72987,8 +74342,12 @@
       <c r="E359" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" customFormat="1">
+      <c r="G359" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H359"/>
+    </row>
+    <row r="360" spans="1:8">
       <c r="B360">
         <v>11851</v>
       </c>
@@ -73001,8 +74360,12 @@
       <c r="E360" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" customFormat="1">
+      <c r="G360" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H360"/>
+    </row>
+    <row r="361" spans="1:8">
       <c r="B361">
         <v>11899</v>
       </c>
@@ -73015,8 +74378,12 @@
       <c r="E361" s="30" t="s">
         <v>6579</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" customFormat="1">
+      <c r="G361" s="8" t="s">
+        <v>6724</v>
+      </c>
+      <c r="H361"/>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>6578</v>
       </c>
@@ -73032,8 +74399,12 @@
       <c r="E362" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" customFormat="1">
+      <c r="G362" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H362"/>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>6578</v>
       </c>
@@ -73049,8 +74420,12 @@
       <c r="E363" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" customFormat="1">
+      <c r="G363" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H363"/>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>6578</v>
       </c>
@@ -73066,8 +74441,12 @@
       <c r="E364" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" customFormat="1">
+      <c r="G364" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H364"/>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>6578</v>
       </c>
@@ -73083,8 +74462,12 @@
       <c r="E365" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" customFormat="1">
+      <c r="G365" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H365"/>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>6578</v>
       </c>
@@ -73100,8 +74483,12 @@
       <c r="E366" s="30" t="s">
         <v>6576</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" customFormat="1">
+      <c r="G366" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H366"/>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>6578</v>
       </c>
@@ -73117,18 +74504,13 @@
       <c r="E367" s="30" t="s">
         <v>6576</v>
       </c>
+      <c r="G367" s="30" t="s">
+        <v>6727</v>
+      </c>
+      <c r="H367"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G367" xr:uid="{A21761DE-D20C-4731-A2F1-25317F434EA2}">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="MANHA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G367" xr:uid="{A21761DE-D20C-4731-A2F1-25317F434EA2}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -73139,7 +74521,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DbCoordenadas.xlsx
+++ b/DbCoordenadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CACAU\Desktop\Mapa Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17DD258-494C-49AF-81B2-9ED224AB957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98555F-6591-4307-B39A-BAA3A4BEDF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
   <sheets>
     <sheet name="COORDENADAS" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Planilha1" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dbcaminhoes!$A$1:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dbcaminhoes!$A$1:$L$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">horarios!$A$1:$G$367</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pesoCaminhao!$A$1:$G$52</definedName>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">COORDENADAS!$A$1:$K$1088</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13323" uniqueCount="6742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13383" uniqueCount="6747">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -20722,6 +20722,21 @@
   </si>
   <si>
     <t>-38.50257130</t>
+  </si>
+  <si>
+    <t>REDE UNIFORCA - CD</t>
+  </si>
+  <si>
+    <t>-3.77192310</t>
+  </si>
+  <si>
+    <t>-38.57808470</t>
+  </si>
+  <si>
+    <t>-3.96526816</t>
+  </si>
+  <si>
+    <t>-38.51777873</t>
   </si>
 </sst>
 </file>
@@ -20956,7 +20971,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -21046,18 +21061,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -25786,10 +25799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BFD8A-3599-407A-9626-08449CFF72EA}">
-  <dimension ref="A1:K1097"/>
+  <dimension ref="A1:L1097"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1089" sqref="K1089"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1095" sqref="K1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63886,7 +63899,7 @@
         <v>6731</v>
       </c>
     </row>
-    <row r="1089" spans="1:11" s="2" customFormat="1">
+    <row r="1089" spans="1:12" s="2" customFormat="1">
       <c r="A1089" s="6">
         <v>11047</v>
       </c>
@@ -63903,7 +63916,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="1090" spans="1:11">
+    <row r="1090" spans="1:12">
       <c r="A1090" s="3">
         <v>11032</v>
       </c>
@@ -63917,7 +63930,7 @@
         <v>6447</v>
       </c>
     </row>
-    <row r="1091" spans="1:11">
+    <row r="1091" spans="1:12">
       <c r="B1091" t="s">
         <v>6570</v>
       </c>
@@ -63928,7 +63941,7 @@
         <v>6572</v>
       </c>
     </row>
-    <row r="1092" spans="1:11">
+    <row r="1092" spans="1:12">
       <c r="A1092" s="28">
         <v>11038</v>
       </c>
@@ -63942,11 +63955,36 @@
         <v>6575</v>
       </c>
     </row>
-    <row r="1094" spans="1:11">
-      <c r="J1094" s="1"/>
-      <c r="K1094" s="1"/>
-    </row>
-    <row r="1097" spans="1:11">
+    <row r="1093" spans="1:12">
+      <c r="A1093">
+        <v>10753</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1093" s="1" t="s">
+        <v>6743</v>
+      </c>
+      <c r="K1093" s="1" t="s">
+        <v>6744</v>
+      </c>
+      <c r="L1093" s="1"/>
+    </row>
+    <row r="1094" spans="1:12">
+      <c r="A1094">
+        <v>12013</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>6742</v>
+      </c>
+      <c r="J1094" s="1" t="s">
+        <v>6745</v>
+      </c>
+      <c r="K1094" s="1" t="s">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:12">
       <c r="J1097" s="1"/>
     </row>
   </sheetData>
@@ -65191,10 +65229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65203,7 +65241,7 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -65226,7 +65264,7 @@
       <c r="D1" t="s">
         <v>6442</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>6441</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -65252,31 +65290,31 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>6434</v>
-      </c>
-      <c r="C2" s="37">
-        <v>455</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="40">
-        <v>1210</v>
-      </c>
-      <c r="F2" s="43">
-        <v>71</v>
+      <c r="A2" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C2" s="8">
+        <v>172</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="38">
+        <v>990.56</v>
+      </c>
+      <c r="F2" s="41">
+        <v>43.8</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.762106</v>
+        <v>-3.8003218</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5819394</v>
+        <v>-38.5880765</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6571</v>
@@ -65290,35 +65328,35 @@
       </c>
       <c r="L2" t="str">
         <f>VLOOKUP(C2,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>6516</v>
-      </c>
-      <c r="C3" s="39">
-        <v>972</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="42">
-        <v>1495.6</v>
-      </c>
-      <c r="F3" s="44">
-        <v>57.6</v>
+      <c r="A3" s="36">
+        <v>45764</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C3" s="37">
+        <v>182</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="40">
+        <v>4232.3599999999997</v>
+      </c>
+      <c r="F3" s="42">
+        <v>170.5</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7424091</v>
+        <v>-3.7429477</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4867581</v>
+        <v>-38.5599157</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6571</v>
@@ -65328,7 +65366,7 @@
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP(B3,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L3" t="str">
         <f>VLOOKUP(C3,horarios!B:G,6,0)</f>
@@ -65336,31 +65374,31 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6431</v>
       </c>
-      <c r="C4" s="37">
-        <v>9295</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="E4" s="40">
-        <v>506</v>
-      </c>
-      <c r="F4" s="43">
-        <v>33.1</v>
+      <c r="C4" s="8">
+        <v>193</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1122</v>
+      </c>
+      <c r="F4" s="41">
+        <v>78.400000000000006</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.67554656</v>
+        <v>-3.7211932</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.66738313</v>
+        <v>-38.5583364</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6571</v>
@@ -65374,35 +65412,35 @@
       </c>
       <c r="L4" t="str">
         <f>VLOOKUP(C4,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C5" s="39">
-        <v>9300</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>702</v>
-      </c>
-      <c r="E5" s="42">
-        <v>171.6</v>
-      </c>
-      <c r="F5" s="44">
-        <v>13.2</v>
+      <c r="A5" s="36">
+        <v>45764</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C5" s="37">
+        <v>212</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1647.62</v>
+      </c>
+      <c r="F5" s="42">
+        <v>92</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7416968</v>
+        <v>-3.8185168</v>
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6364728</v>
+        <v>-38.4971878</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6571</v>
@@ -65416,35 +65454,35 @@
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(C5,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C6" s="37">
-        <v>9586</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>791</v>
-      </c>
-      <c r="E6" s="40">
-        <v>1365.64</v>
-      </c>
-      <c r="F6" s="43">
-        <v>119.2</v>
+      <c r="A6" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C6" s="8">
+        <v>284</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="38">
+        <v>630.6</v>
+      </c>
+      <c r="F6" s="41">
+        <v>56.5</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7807157</v>
+        <v>-3.7966519</v>
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6223482</v>
+        <v>-38.6007377</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6571</v>
@@ -65458,35 +65496,35 @@
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(C6,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C7" s="39">
-        <v>10934</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>836</v>
-      </c>
-      <c r="E7" s="42">
-        <v>242.4</v>
-      </c>
-      <c r="F7" s="44">
-        <v>8.4</v>
+      <c r="A7" s="36">
+        <v>45764</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C7" s="37">
+        <v>378</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="40">
+        <v>649.9</v>
+      </c>
+      <c r="F7" s="42">
+        <v>61.6</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7744146</v>
+        <v>-3.8227322</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6152931</v>
+        <v>-38.5091962</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6571</v>
@@ -65504,31 +65542,31 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>6434</v>
-      </c>
-      <c r="C8" s="37">
-        <v>10955</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>846</v>
-      </c>
-      <c r="E8" s="40">
-        <v>202.5</v>
-      </c>
-      <c r="F8" s="43">
-        <v>10</v>
+      <c r="A8" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C8" s="8">
+        <v>663</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="38">
+        <v>2098.7199999999998</v>
+      </c>
+      <c r="F8" s="41">
+        <v>105.2</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7403699</v>
+        <v>-3.77289</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5339275</v>
+        <v>-38.5882422</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6571</v>
@@ -65542,35 +65580,35 @@
       </c>
       <c r="L8" t="str">
         <f>VLOOKUP(C8,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>6516</v>
-      </c>
-      <c r="C9" s="39">
-        <v>11032</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>6433</v>
-      </c>
-      <c r="E9" s="42">
-        <v>660</v>
-      </c>
-      <c r="F9" s="44">
-        <v>15</v>
+      <c r="A9" s="36">
+        <v>45764</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C9" s="37">
+        <v>815</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="40">
+        <v>726.2</v>
+      </c>
+      <c r="F9" s="42">
+        <v>22.2</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7395448378000700</v>
+        <v>-3.8575733</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.505843788754900</v>
+        <v>-38.645753</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6571</v>
@@ -65580,7 +65618,7 @@
       </c>
       <c r="K9" s="7">
         <f>VLOOKUP(B9,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L9" t="str">
         <f>VLOOKUP(C9,horarios!B:G,6,0)</f>
@@ -65588,31 +65626,31 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>6516</v>
-      </c>
-      <c r="C10" s="37">
-        <v>11047</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>6740</v>
-      </c>
-      <c r="E10" s="40">
-        <v>587</v>
-      </c>
-      <c r="F10" s="43">
-        <v>12.4</v>
+      <c r="A10" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C10" s="8">
+        <v>862</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1649.56</v>
+      </c>
+      <c r="F10" s="41">
+        <v>143.69999999999999</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.73140298</v>
+        <v>-3.7566112</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.49667067</v>
+        <v>-38.6024185</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6571</v>
@@ -65622,39 +65660,39 @@
       </c>
       <c r="K10" s="7">
         <f>VLOOKUP(B10,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(C10,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="36">
+        <v>45764</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>6431</v>
       </c>
-      <c r="C11" s="39">
-        <v>11242</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>906</v>
-      </c>
-      <c r="E11" s="42">
-        <v>137.69999999999999</v>
-      </c>
-      <c r="F11" s="44">
-        <v>6.8</v>
+      <c r="C11" s="37">
+        <v>898</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="40">
+        <v>730.14</v>
+      </c>
+      <c r="F11" s="42">
+        <v>111.1</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.74502352</v>
+        <v>-3.7249377</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6651701</v>
+        <v>-38.5890115</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6571</v>
@@ -65668,35 +65706,35 @@
       </c>
       <c r="L11" t="str">
         <f>VLOOKUP(C11,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>6434</v>
-      </c>
-      <c r="C12" s="37">
-        <v>11455</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>941</v>
-      </c>
-      <c r="E12" s="40">
-        <v>900</v>
-      </c>
-      <c r="F12" s="43">
-        <v>48</v>
+      <c r="A12" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1873</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="38">
+        <v>175.6</v>
+      </c>
+      <c r="F12" s="41">
+        <v>8.1</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7451759</v>
+        <v>-3.8219527</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5402234</v>
+        <v>-38.6279053</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6571</v>
@@ -65714,31 +65752,31 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>6434</v>
-      </c>
-      <c r="C13" s="39">
-        <v>11595</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>958</v>
-      </c>
-      <c r="E13" s="42">
-        <v>876.64</v>
-      </c>
-      <c r="F13" s="44">
-        <v>75.2</v>
+      <c r="A13" s="36">
+        <v>45764</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1967</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="40">
+        <v>669</v>
+      </c>
+      <c r="F13" s="42">
+        <v>88.6</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.77778933</v>
+        <v>-3.7865804</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.59964399</v>
+        <v>-38.5979579</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6571</v>
@@ -65752,35 +65790,35 @@
       </c>
       <c r="L13" t="str">
         <f>VLOOKUP(C13,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C14" s="37">
-        <v>11802</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E14" s="40">
-        <v>1240</v>
-      </c>
-      <c r="F14" s="43">
-        <v>89.6</v>
+      <c r="A14" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1980</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="38">
+        <v>742.2</v>
+      </c>
+      <c r="F14" s="41">
+        <v>46.6</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.81862096</v>
+        <v>-3.8958534</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.52271133</v>
+        <v>-38.6839187</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6571</v>
@@ -65798,31 +65836,31 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C15" s="39">
-        <v>11803</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E15" s="42">
-        <v>2608</v>
-      </c>
-      <c r="F15" s="44">
-        <v>144.80000000000001</v>
+      <c r="A15" s="36">
+        <v>45764</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C15" s="37">
+        <v>1998</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="40">
+        <v>4057.2</v>
+      </c>
+      <c r="F15" s="42">
+        <v>180.7</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.83641402</v>
+        <v>-3.8775392</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.52142461</v>
+        <v>-38.6087159</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6571</v>
@@ -65836,35 +65874,35 @@
       </c>
       <c r="L15" t="str">
         <f>VLOOKUP(C15,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="36">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>6436</v>
+        <v>6431</v>
       </c>
       <c r="C16" s="37">
-        <v>11804</v>
+        <v>3021</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>1008</v>
+        <v>396</v>
       </c>
       <c r="E16" s="40">
-        <v>1232.8</v>
-      </c>
-      <c r="F16" s="43">
-        <v>40.4</v>
+        <v>323</v>
+      </c>
+      <c r="F16" s="42">
+        <v>21.2</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.81623338</v>
+        <v>-3.7572362</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.53127553</v>
+        <v>-38.5939325</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6571</v>
@@ -65882,31 +65920,31 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C17" s="39">
-        <v>11851</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E17" s="42">
-        <v>1601.36</v>
-      </c>
-      <c r="F17" s="44">
-        <v>100</v>
+      <c r="A17" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>6516</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3166</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1280.54</v>
+      </c>
+      <c r="F17" s="41">
+        <v>102</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.82637289</v>
+        <v>-3.8071766</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.47433135</v>
+        <v>-38.555096</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>6571</v>
@@ -65916,7 +65954,7 @@
       </c>
       <c r="K17" s="7">
         <f>VLOOKUP(B17,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L17" t="str">
         <f>VLOOKUP(C17,horarios!B:G,6,0)</f>
@@ -65925,30 +65963,30 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="36">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>6435</v>
+        <v>6432</v>
       </c>
       <c r="C18" s="37">
-        <v>11895</v>
+        <v>3486</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>1022</v>
+        <v>456</v>
       </c>
       <c r="E18" s="40">
-        <v>3770.84</v>
-      </c>
-      <c r="F18" s="43">
-        <v>223.6</v>
+        <v>2411.2600000000002</v>
+      </c>
+      <c r="F18" s="42">
+        <v>118.4</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.89368547</v>
+        <v>-3.830081</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.51477265</v>
+        <v>-38.509759</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6571</v>
@@ -65966,31 +66004,31 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C19" s="39">
-        <v>11896</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E19" s="42">
-        <v>939.28</v>
-      </c>
-      <c r="F19" s="44">
-        <v>35</v>
+      <c r="A19" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3508</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="38">
+        <v>798</v>
+      </c>
+      <c r="F19" s="41">
+        <v>18</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.90694584</v>
+        <v>-3.748629</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.50743777</v>
+        <v>-38.5229264</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>6571</v>
@@ -66009,30 +66047,30 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="36">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>6436</v>
+        <v>6431</v>
       </c>
       <c r="C20" s="37">
-        <v>11898</v>
+        <v>3584</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>1024</v>
+        <v>472</v>
       </c>
       <c r="E20" s="40">
-        <v>3318.92</v>
-      </c>
-      <c r="F20" s="43">
-        <v>152.5</v>
+        <v>638.94000000000005</v>
+      </c>
+      <c r="F20" s="42">
+        <v>64.7</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8489518</v>
+        <v>-3.726481</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.51200331</v>
+        <v>-38.5888279</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6571</v>
@@ -66046,35 +66084,35 @@
       </c>
       <c r="L20" t="str">
         <f>VLOOKUP(C20,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="38">
-        <v>45763</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C21" s="39">
-        <v>11899</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E21" s="42">
-        <v>1600.7</v>
-      </c>
-      <c r="F21" s="44">
-        <v>92.3</v>
+      <c r="A21" s="35">
+        <v>45764</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3705</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" s="38">
+        <v>827.2</v>
+      </c>
+      <c r="F21" s="41">
+        <v>28.1</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.82635425</v>
+        <v>-3.8754221</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.47426069</v>
+        <v>-38.5915102</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>6571</v>
@@ -66088,35 +66126,35 @@
       </c>
       <c r="L21" t="str">
         <f>VLOOKUP(C21,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="36">
-        <v>45763</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B22" t="s">
         <v>6435</v>
       </c>
-      <c r="C22" s="37">
-        <v>11946</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E22" s="40">
-        <v>1261.4000000000001</v>
-      </c>
-      <c r="F22" s="43">
-        <v>75.900000000000006</v>
+      <c r="C22">
+        <v>3765</v>
+      </c>
+      <c r="D22" t="s">
+        <v>497</v>
+      </c>
+      <c r="E22" s="39">
+        <v>463.7</v>
+      </c>
+      <c r="F22" s="7">
+        <v>52.2</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8573702</v>
+        <v>-3.8548937</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.50257130</v>
+        <v>-38.5789869</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6571</v>
@@ -66134,137 +66172,611 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
+      <c r="A23" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C23">
+        <v>3784</v>
+      </c>
+      <c r="D23" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="39">
+        <v>1305.8399999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(C23,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7555418</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP(C23,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.5303956</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K23" s="7">
+        <f>VLOOKUP(B23,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L23" t="str">
+        <f>VLOOKUP(C23,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
+      <c r="A24" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C24">
+        <v>4221</v>
+      </c>
+      <c r="D24" t="s">
+        <v>573</v>
+      </c>
+      <c r="E24" s="39">
+        <v>1955.4</v>
+      </c>
+      <c r="F24" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(C24,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7335995</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP(C24,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.5586262</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K24" s="7">
+        <f>VLOOKUP(B24,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L24" t="str">
+        <f>VLOOKUP(C24,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
+      <c r="A25" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C25">
+        <v>4271</v>
+      </c>
+      <c r="D25" t="s">
+        <v>584</v>
+      </c>
+      <c r="E25" s="39">
+        <v>86.4</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(C25,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7430401</v>
+      </c>
+      <c r="H25" t="str">
+        <f>VLOOKUP(C25,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.4859163</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K25" s="7">
+        <f>VLOOKUP(B25,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L25" t="str">
+        <f>VLOOKUP(C25,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="2"/>
+      <c r="A26" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C26">
+        <v>4284</v>
+      </c>
+      <c r="D26" t="s">
+        <v>588</v>
+      </c>
+      <c r="E26" s="39">
+        <v>1810.08</v>
+      </c>
+      <c r="F26" s="7">
+        <v>63</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(C26,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.772043</v>
+      </c>
+      <c r="H26" t="str">
+        <f>VLOOKUP(C26,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.4828363</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K26" s="7">
+        <f>VLOOKUP(B26,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L26" t="str">
+        <f>VLOOKUP(C26,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
+      <c r="A27" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C27">
+        <v>9318</v>
+      </c>
+      <c r="D27" t="s">
+        <v>709</v>
+      </c>
+      <c r="E27" s="39">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="F27" s="7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(C27,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7881221</v>
+      </c>
+      <c r="H27" t="str">
+        <f>VLOOKUP(C27,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.6107546</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K27" s="7">
+        <f>VLOOKUP(B27,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L27" t="str">
+        <f>VLOOKUP(C27,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="2"/>
+      <c r="A28" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C28">
+        <v>9597</v>
+      </c>
+      <c r="D28" t="s">
+        <v>796</v>
+      </c>
+      <c r="E28" s="39">
+        <v>466.2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(C28,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7603291</v>
+      </c>
+      <c r="H28" t="str">
+        <f>VLOOKUP(C28,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.5423981</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K28" s="7">
+        <f>VLOOKUP(B28,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L28" t="str">
+        <f>VLOOKUP(C28,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="2"/>
+      <c r="A29" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C29">
+        <v>10753</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="39">
+        <v>201.6</v>
+      </c>
+      <c r="F29" s="7">
+        <v>21</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(C29,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.77192310</v>
+      </c>
+      <c r="H29" t="str">
+        <f>VLOOKUP(C29,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.57808470</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K29" s="7">
+        <f>VLOOKUP(B29,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L29" t="s">
+        <v>6727</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="2"/>
+      <c r="A30" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6516</v>
+      </c>
+      <c r="C30">
+        <v>10977</v>
+      </c>
+      <c r="D30" t="s">
+        <v>858</v>
+      </c>
+      <c r="E30" s="39">
+        <v>1327.64</v>
+      </c>
+      <c r="F30" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(C30,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.80290818</v>
+      </c>
+      <c r="H30" t="str">
+        <f>VLOOKUP(C30,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.49478307</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K30" s="7">
+        <f>VLOOKUP(B30,pesoCaminhao!C:G,5,0)</f>
+        <v>900</v>
+      </c>
+      <c r="L30" t="str">
+        <f>VLOOKUP(C30,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="2"/>
+      <c r="A31" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C31">
+        <v>11455</v>
+      </c>
+      <c r="D31" t="s">
+        <v>941</v>
+      </c>
+      <c r="E31" s="39">
+        <v>628.79999999999995</v>
+      </c>
+      <c r="F31" s="7">
+        <v>37</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(C31,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7451759</v>
+      </c>
+      <c r="H31" t="str">
+        <f>VLOOKUP(C31,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.5402234</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K31" s="7">
+        <f>VLOOKUP(B31,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L31" t="str">
+        <f>VLOOKUP(C31,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="4"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="4"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="4"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="4"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="A32" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6516</v>
+      </c>
+      <c r="C32">
+        <v>11895</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E32" s="39">
+        <v>4103.68</v>
+      </c>
+      <c r="F32" s="7">
+        <v>287.10000000000002</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(C32,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.89368547</v>
+      </c>
+      <c r="H32" t="str">
+        <f>VLOOKUP(C32,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.51477265</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K32" s="7">
+        <f>VLOOKUP(B32,pesoCaminhao!C:G,5,0)</f>
+        <v>900</v>
+      </c>
+      <c r="L32" t="str">
+        <f>VLOOKUP(C32,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C33">
+        <v>11994</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E33" s="39">
+        <v>276.45</v>
+      </c>
+      <c r="F33" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(C33,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.76835763</v>
+      </c>
+      <c r="H33" t="str">
+        <f>VLOOKUP(C33,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.54941322</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K33" s="7">
+        <f>VLOOKUP(B33,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L33" t="str">
+        <f>VLOOKUP(C33,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C34">
+        <v>12000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E34" s="39">
+        <v>456.48</v>
+      </c>
+      <c r="F34" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(C34,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.76752651</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP(C34,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.55298701</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K34" s="7">
+        <f>VLOOKUP(B34,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L34" t="str">
+        <f>VLOOKUP(C34,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6489</v>
+      </c>
+      <c r="C35">
+        <v>12013</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6742</v>
+      </c>
+      <c r="E35" s="39">
+        <v>54000</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2400</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(C35,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.96526816</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(C35,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.51777873</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K35" s="7">
+        <f>VLOOKUP(B35,pesoCaminhao!C:G,5,0)</f>
+        <v>10000</v>
+      </c>
+      <c r="L35" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:12">
       <c r="A37" s="4"/>
       <c r="I37" s="3"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:12">
       <c r="A38" s="4"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:12">
       <c r="A39" s="4"/>
       <c r="I39" s="3"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:12">
       <c r="A40" s="4"/>
       <c r="I40" s="3"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:12">
       <c r="A41" s="4"/>
       <c r="I41" s="3"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:12">
       <c r="A42" s="4"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:12">
       <c r="A43" s="4"/>
       <c r="I43" s="3"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:12">
       <c r="A44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:12">
       <c r="A45" s="4"/>
       <c r="I45" s="3"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:12">
       <c r="A46" s="4"/>
       <c r="I46" s="3"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:12">
       <c r="A47" s="4"/>
       <c r="I47" s="3"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L18" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}"/>
+  <autoFilter ref="A1:L17" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -66274,7 +66786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21761DE-D20C-4731-A2F1-25317F434EA2}">
   <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
@@ -74545,10 +75057,10 @@
       <c r="H367"/>
     </row>
     <row r="368" spans="1:8">
-      <c r="B368" s="39">
+      <c r="B368" s="37">
         <v>11032</v>
       </c>
-      <c r="C368" s="39" t="s">
+      <c r="C368" s="37" t="s">
         <v>6433</v>
       </c>
       <c r="G368" s="29" t="s">
@@ -74556,10 +75068,10 @@
       </c>
     </row>
     <row r="369" spans="2:7">
-      <c r="B369" s="37">
+      <c r="B369" s="8">
         <v>11047</v>
       </c>
-      <c r="C369" s="37" t="s">
+      <c r="C369" s="8" t="s">
         <v>6740</v>
       </c>
       <c r="G369" s="29" t="s">
@@ -74578,7 +75090,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -74606,22 +75118,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" t="s">
         <v>6735</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s">
         <v>6736</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" t="s">
         <v>6737</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" t="s">
         <v>6738</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" t="s">
         <v>6739</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" t="s">
         <v>6448</v>
       </c>
     </row>
@@ -74629,19 +75141,19 @@
       <c r="A2" s="4">
         <v>45763</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" t="s">
         <v>6434</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2">
         <v>455</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2">
         <v>1210</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2">
         <v>71</v>
       </c>
     </row>
@@ -74649,19 +75161,19 @@
       <c r="A3" s="4">
         <v>45763</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" t="s">
         <v>6516</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3">
         <v>972</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3">
         <v>1495.6</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3">
         <v>57.6</v>
       </c>
     </row>
@@ -74669,19 +75181,19 @@
       <c r="A4" s="4">
         <v>45763</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" t="s">
         <v>6431</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4">
         <v>9295</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" t="s">
         <v>700</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4">
         <v>506</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4">
         <v>33.1</v>
       </c>
     </row>
@@ -74689,19 +75201,19 @@
       <c r="A5" s="4">
         <v>45763</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" t="s">
         <v>6431</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5">
         <v>9300</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" t="s">
         <v>702</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5">
         <v>171.6</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5">
         <v>13.2</v>
       </c>
     </row>
@@ -74709,19 +75221,19 @@
       <c r="A6" s="4">
         <v>45763</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" t="s">
         <v>6431</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6">
         <v>9586</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" t="s">
         <v>791</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6">
         <v>1365.64</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6">
         <v>119.2</v>
       </c>
     </row>
@@ -74729,19 +75241,19 @@
       <c r="A7" s="4">
         <v>45763</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" t="s">
         <v>6431</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7">
         <v>10934</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" t="s">
         <v>836</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7">
         <v>242.4</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7">
         <v>8.4</v>
       </c>
     </row>
@@ -74749,19 +75261,19 @@
       <c r="A8" s="4">
         <v>45763</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" t="s">
         <v>6434</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8">
         <v>10955</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" t="s">
         <v>846</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8">
         <v>202.5</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8">
         <v>10</v>
       </c>
     </row>
@@ -74769,19 +75281,19 @@
       <c r="A9" s="4">
         <v>45763</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" t="s">
         <v>6516</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9">
         <v>11032</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" t="s">
         <v>6433</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9">
         <v>660</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9">
         <v>15</v>
       </c>
     </row>
@@ -74789,19 +75301,19 @@
       <c r="A10" s="4">
         <v>45763</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" t="s">
         <v>6516</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10">
         <v>11047</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" t="s">
         <v>6740</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10">
         <v>587</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10">
         <v>12.4</v>
       </c>
     </row>
@@ -74809,19 +75321,19 @@
       <c r="A11" s="4">
         <v>45763</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" t="s">
         <v>6431</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11">
         <v>11242</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" t="s">
         <v>906</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11">
         <v>137.69999999999999</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11">
         <v>6.8</v>
       </c>
     </row>
@@ -74829,19 +75341,19 @@
       <c r="A12" s="4">
         <v>45763</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" t="s">
         <v>6434</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12">
         <v>11455</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" t="s">
         <v>941</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12">
         <v>900</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12">
         <v>48</v>
       </c>
     </row>
@@ -74849,19 +75361,19 @@
       <c r="A13" s="4">
         <v>45763</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" t="s">
         <v>6434</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13">
         <v>11595</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" t="s">
         <v>958</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13">
         <v>876.64</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13">
         <v>75.2</v>
       </c>
     </row>
@@ -74869,19 +75381,19 @@
       <c r="A14" s="4">
         <v>45763</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" t="s">
         <v>6436</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14">
         <v>11802</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" t="s">
         <v>1006</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14">
         <v>1240</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14">
         <v>89.6</v>
       </c>
     </row>
@@ -74889,19 +75401,19 @@
       <c r="A15" s="4">
         <v>45763</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" t="s">
         <v>6436</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15">
         <v>11803</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" t="s">
         <v>1007</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15">
         <v>2608</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15">
         <v>144.80000000000001</v>
       </c>
     </row>
@@ -74909,19 +75421,19 @@
       <c r="A16" s="4">
         <v>45763</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" t="s">
         <v>6436</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16">
         <v>11804</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" t="s">
         <v>1008</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16">
         <v>1232.8</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16">
         <v>40.4</v>
       </c>
     </row>
@@ -74929,19 +75441,19 @@
       <c r="A17" s="4">
         <v>45763</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" t="s">
         <v>6436</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17">
         <v>11851</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" t="s">
         <v>1016</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17">
         <v>1601.36</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17">
         <v>100</v>
       </c>
     </row>
@@ -74949,19 +75461,19 @@
       <c r="A18" s="4">
         <v>45763</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" t="s">
         <v>6435</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18">
         <v>11895</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" t="s">
         <v>1022</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18">
         <v>3770.84</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18">
         <v>223.6</v>
       </c>
     </row>
@@ -74969,19 +75481,19 @@
       <c r="A19" s="4">
         <v>45763</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" t="s">
         <v>6435</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19">
         <v>11896</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" t="s">
         <v>1023</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19">
         <v>939.28</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19">
         <v>35</v>
       </c>
     </row>
@@ -74989,19 +75501,19 @@
       <c r="A20" s="4">
         <v>45763</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" t="s">
         <v>6436</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20">
         <v>11898</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" t="s">
         <v>1024</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20">
         <v>3318.92</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20">
         <v>152.5</v>
       </c>
     </row>
@@ -75009,19 +75521,19 @@
       <c r="A21" s="4">
         <v>45763</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" t="s">
         <v>6436</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21">
         <v>11899</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" t="s">
         <v>1025</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21">
         <v>1600.7</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21">
         <v>92.3</v>
       </c>
     </row>
@@ -75029,19 +75541,19 @@
       <c r="A22" s="4">
         <v>45763</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" t="s">
         <v>6435</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22">
         <v>11946</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" t="s">
         <v>1051</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22">
         <v>1261.4000000000001</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22">
         <v>75.900000000000006</v>
       </c>
     </row>

--- a/DbCoordenadas.xlsx
+++ b/DbCoordenadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CACAU\Desktop\Mapa Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98555F-6591-4307-B39A-BAA3A4BEDF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{864571A9-44DC-41D2-BB31-DA3D137B62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13383" uniqueCount="6747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13400" uniqueCount="6747">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -65231,8 +65231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65294,7 +65294,7 @@
         <v>45764</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6432</v>
+        <v>6516</v>
       </c>
       <c r="C2" s="8">
         <v>172</v>
@@ -65306,7 +65306,7 @@
         <v>990.56</v>
       </c>
       <c r="F2" s="41">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:J,10,FALSE)</f>
@@ -65324,7 +65324,7 @@
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP(B2,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L2" t="str">
         <f>VLOOKUP(C2,horarios!B:G,6,0)</f>
@@ -65348,7 +65348,7 @@
         <v>4232.3599999999997</v>
       </c>
       <c r="F3" s="42">
-        <v>170.5</v>
+        <v>170.2</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:J,10,FALSE)</f>
@@ -65432,7 +65432,7 @@
         <v>1647.62</v>
       </c>
       <c r="F5" s="42">
-        <v>92</v>
+        <v>89.7</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:J,10,FALSE)</f>
@@ -65516,7 +65516,7 @@
         <v>649.9</v>
       </c>
       <c r="F7" s="42">
-        <v>61.6</v>
+        <v>61.4</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:J,10,FALSE)</f>
@@ -65558,7 +65558,7 @@
         <v>2098.7199999999998</v>
       </c>
       <c r="F8" s="41">
-        <v>105.2</v>
+        <v>103.9</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:J,10,FALSE)</f>
@@ -65600,7 +65600,7 @@
         <v>726.2</v>
       </c>
       <c r="F9" s="42">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:J,10,FALSE)</f>
@@ -65642,7 +65642,7 @@
         <v>1649.56</v>
       </c>
       <c r="F10" s="41">
-        <v>143.69999999999999</v>
+        <v>142.6</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:J,10,FALSE)</f>
@@ -65717,24 +65717,24 @@
         <v>6435</v>
       </c>
       <c r="C12" s="8">
-        <v>1873</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="E12" s="38">
-        <v>175.6</v>
+        <v>1791.07</v>
       </c>
       <c r="F12" s="41">
-        <v>8.1</v>
+        <v>94.9</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8219527</v>
+        <v>-3.8819005</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6279053</v>
+        <v>-38.62523</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6571</v>
@@ -65756,27 +65756,27 @@
         <v>45764</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>6436</v>
+        <v>6516</v>
       </c>
       <c r="C13" s="37">
-        <v>1967</v>
+        <v>1025</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>288</v>
+        <v>164</v>
       </c>
       <c r="E13" s="40">
-        <v>669</v>
+        <v>2651.32</v>
       </c>
       <c r="F13" s="42">
-        <v>88.6</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7865804</v>
+        <v>-3.7960364</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5979579</v>
+        <v>-38.4990562</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6571</v>
@@ -65786,7 +65786,7 @@
       </c>
       <c r="K13" s="7">
         <f>VLOOKUP(B13,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L13" t="str">
         <f>VLOOKUP(C13,horarios!B:G,6,0)</f>
@@ -65801,24 +65801,24 @@
         <v>6435</v>
       </c>
       <c r="C14" s="8">
-        <v>1980</v>
+        <v>1873</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E14" s="38">
-        <v>742.2</v>
+        <v>175.6</v>
       </c>
       <c r="F14" s="41">
-        <v>46.6</v>
+        <v>8.1</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8958534</v>
+        <v>-3.8219527</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6839187</v>
+        <v>-38.6279053</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6571</v>
@@ -65840,27 +65840,27 @@
         <v>45764</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>6435</v>
+        <v>6436</v>
       </c>
       <c r="C15" s="37">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E15" s="40">
-        <v>4057.2</v>
+        <v>669</v>
       </c>
       <c r="F15" s="42">
-        <v>180.7</v>
+        <v>88.6</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8775392</v>
+        <v>-3.7865804</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6087159</v>
+        <v>-38.5979579</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6571</v>
@@ -65874,7 +65874,7 @@
       </c>
       <c r="L15" t="str">
         <f>VLOOKUP(C15,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -65882,27 +65882,27 @@
         <v>45764</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C16" s="37">
-        <v>3021</v>
+        <v>1980</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
       <c r="E16" s="40">
-        <v>323</v>
+        <v>734.72</v>
       </c>
       <c r="F16" s="42">
-        <v>21.2</v>
+        <v>46.4</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7572362</v>
+        <v>-3.8958534</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5939325</v>
+        <v>-38.6839187</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6571</v>
@@ -65924,27 +65924,27 @@
         <v>45764</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>6516</v>
+        <v>6435</v>
       </c>
       <c r="C17" s="8">
-        <v>3166</v>
+        <v>1998</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>409</v>
+        <v>292</v>
       </c>
       <c r="E17" s="38">
-        <v>1280.54</v>
+        <v>4057.2</v>
       </c>
       <c r="F17" s="41">
-        <v>102</v>
+        <v>180.7</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8071766</v>
+        <v>-3.8775392</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.555096</v>
+        <v>-38.6087159</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>6571</v>
@@ -65954,7 +65954,7 @@
       </c>
       <c r="K17" s="7">
         <f>VLOOKUP(B17,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L17" t="str">
         <f>VLOOKUP(C17,horarios!B:G,6,0)</f>
@@ -65966,27 +65966,27 @@
         <v>45764</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>6432</v>
+        <v>6500</v>
       </c>
       <c r="C18" s="37">
-        <v>3486</v>
+        <v>2909</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="E18" s="40">
-        <v>2411.2600000000002</v>
+        <v>14174.19</v>
       </c>
       <c r="F18" s="42">
-        <v>118.4</v>
+        <v>982</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.830081</v>
+        <v>-3.8546626</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.509759</v>
+        <v>-38.6021541</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6571</v>
@@ -65996,11 +65996,11 @@
       </c>
       <c r="K18" s="7">
         <f>VLOOKUP(B18,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>5200</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(C18,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -66008,27 +66008,27 @@
         <v>45764</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>6434</v>
+        <v>6431</v>
       </c>
       <c r="C19" s="8">
-        <v>3508</v>
+        <v>3021</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="E19" s="38">
-        <v>798</v>
+        <v>323</v>
       </c>
       <c r="F19" s="41">
-        <v>18</v>
+        <v>21.2</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.748629</v>
+        <v>-3.7572362</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5229264</v>
+        <v>-38.5939325</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>6571</v>
@@ -66042,7 +66042,7 @@
       </c>
       <c r="L19" t="str">
         <f>VLOOKUP(C19,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -66050,27 +66050,27 @@
         <v>45764</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>6431</v>
+        <v>6516</v>
       </c>
       <c r="C20" s="37">
-        <v>3584</v>
+        <v>3166</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>472</v>
+        <v>409</v>
       </c>
       <c r="E20" s="40">
-        <v>638.94000000000005</v>
+        <v>1280.54</v>
       </c>
       <c r="F20" s="42">
-        <v>64.7</v>
+        <v>101.3</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.726481</v>
+        <v>-3.8071766</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5888279</v>
+        <v>-38.555096</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6571</v>
@@ -66080,11 +66080,11 @@
       </c>
       <c r="K20" s="7">
         <f>VLOOKUP(B20,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L20" t="str">
         <f>VLOOKUP(C20,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -66092,27 +66092,27 @@
         <v>45764</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>6435</v>
+        <v>6432</v>
       </c>
       <c r="C21" s="8">
-        <v>3705</v>
+        <v>3486</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="E21" s="38">
-        <v>827.2</v>
+        <v>2411.2600000000002</v>
       </c>
       <c r="F21" s="41">
-        <v>28.1</v>
+        <v>116.3</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8754221</v>
+        <v>-3.830081</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5915102</v>
+        <v>-38.509759</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>6571</v>
@@ -66126,7 +66126,7 @@
       </c>
       <c r="L21" t="str">
         <f>VLOOKUP(C21,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -66134,27 +66134,27 @@
         <v>45764</v>
       </c>
       <c r="B22" t="s">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="C22">
-        <v>3765</v>
+        <v>3508</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="E22" s="39">
-        <v>463.7</v>
+        <v>798</v>
       </c>
       <c r="F22" s="7">
-        <v>52.2</v>
+        <v>18</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8548937</v>
+        <v>-3.748629</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5789869</v>
+        <v>-38.5229264</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6571</v>
@@ -66176,27 +66176,27 @@
         <v>45764</v>
       </c>
       <c r="B23" t="s">
-        <v>6434</v>
+        <v>6431</v>
       </c>
       <c r="C23">
-        <v>3784</v>
+        <v>3584</v>
       </c>
       <c r="D23" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="E23" s="39">
-        <v>1305.8399999999999</v>
+        <v>638.94000000000005</v>
       </c>
       <c r="F23" s="7">
-        <v>65.400000000000006</v>
+        <v>64.7</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7555418</v>
+        <v>-3.726481</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5303956</v>
+        <v>-38.5888279</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>6571</v>
@@ -66210,7 +66210,7 @@
       </c>
       <c r="L23" t="str">
         <f>VLOOKUP(C23,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -66218,27 +66218,27 @@
         <v>45764</v>
       </c>
       <c r="B24" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C24">
-        <v>4221</v>
+        <v>3705</v>
       </c>
       <c r="D24" t="s">
-        <v>573</v>
+        <v>488</v>
       </c>
       <c r="E24" s="39">
-        <v>1955.4</v>
+        <v>794.2</v>
       </c>
       <c r="F24" s="7">
-        <v>55.8</v>
+        <v>27.1</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7335995</v>
+        <v>-3.8754221</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5586262</v>
+        <v>-38.5915102</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>6571</v>
@@ -66252,7 +66252,7 @@
       </c>
       <c r="L24" t="str">
         <f>VLOOKUP(C24,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -66260,27 +66260,27 @@
         <v>45764</v>
       </c>
       <c r="B25" t="s">
-        <v>6434</v>
+        <v>6435</v>
       </c>
       <c r="C25">
-        <v>4271</v>
+        <v>3765</v>
       </c>
       <c r="D25" t="s">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="E25" s="39">
-        <v>86.4</v>
+        <v>463.7</v>
       </c>
       <c r="F25" s="7">
-        <v>2.4</v>
+        <v>52.2</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7430401</v>
+        <v>-3.8548937</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4859163</v>
+        <v>-38.5789869</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>6571</v>
@@ -66305,24 +66305,24 @@
         <v>6434</v>
       </c>
       <c r="C26">
-        <v>4284</v>
+        <v>3784</v>
       </c>
       <c r="D26" t="s">
-        <v>588</v>
+        <v>503</v>
       </c>
       <c r="E26" s="39">
-        <v>1810.08</v>
+        <v>1293.6600000000001</v>
       </c>
       <c r="F26" s="7">
-        <v>63</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.772043</v>
+        <v>-3.7555418</v>
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4828363</v>
+        <v>-38.5303956</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>6571</v>
@@ -66344,27 +66344,27 @@
         <v>45764</v>
       </c>
       <c r="B27" t="s">
-        <v>6436</v>
+        <v>6431</v>
       </c>
       <c r="C27">
-        <v>9318</v>
+        <v>4221</v>
       </c>
       <c r="D27" t="s">
-        <v>709</v>
+        <v>573</v>
       </c>
       <c r="E27" s="39">
-        <v>586.20000000000005</v>
+        <v>1955.4</v>
       </c>
       <c r="F27" s="7">
-        <v>72.599999999999994</v>
+        <v>55.2</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7881221</v>
+        <v>-3.7335995</v>
       </c>
       <c r="H27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6107546</v>
+        <v>-38.5586262</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>6571</v>
@@ -66378,7 +66378,7 @@
       </c>
       <c r="L27" t="str">
         <f>VLOOKUP(C27,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -66386,27 +66386,27 @@
         <v>45764</v>
       </c>
       <c r="B28" t="s">
-        <v>6432</v>
+        <v>6434</v>
       </c>
       <c r="C28">
-        <v>9597</v>
+        <v>4271</v>
       </c>
       <c r="D28" t="s">
-        <v>796</v>
+        <v>584</v>
       </c>
       <c r="E28" s="39">
-        <v>466.2</v>
+        <v>1224.67</v>
       </c>
       <c r="F28" s="7">
-        <v>27.9</v>
+        <v>34.9</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7603291</v>
+        <v>-3.7430401</v>
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5423981</v>
+        <v>-38.4859163</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>6571</v>
@@ -66420,7 +66420,7 @@
       </c>
       <c r="L28" t="str">
         <f>VLOOKUP(C28,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -66431,24 +66431,24 @@
         <v>6434</v>
       </c>
       <c r="C29">
-        <v>10753</v>
+        <v>4284</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>588</v>
       </c>
       <c r="E29" s="39">
-        <v>201.6</v>
+        <v>1778.86</v>
       </c>
       <c r="F29" s="7">
-        <v>21</v>
+        <v>62.1</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.77192310</v>
+        <v>-3.772043</v>
       </c>
       <c r="H29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.57808470</v>
+        <v>-38.4828363</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>6571</v>
@@ -66469,27 +66469,27 @@
         <v>45764</v>
       </c>
       <c r="B30" t="s">
-        <v>6516</v>
+        <v>6436</v>
       </c>
       <c r="C30">
-        <v>10977</v>
+        <v>9318</v>
       </c>
       <c r="D30" t="s">
-        <v>858</v>
+        <v>709</v>
       </c>
       <c r="E30" s="39">
-        <v>1327.64</v>
+        <v>586.20000000000005</v>
       </c>
       <c r="F30" s="7">
-        <v>46.5</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.80290818</v>
+        <v>-3.7881221</v>
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.49478307</v>
+        <v>-38.6107546</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>6571</v>
@@ -66499,11 +66499,11 @@
       </c>
       <c r="K30" s="7">
         <f>VLOOKUP(B30,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L30" t="str">
         <f>VLOOKUP(C30,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -66511,27 +66511,27 @@
         <v>45764</v>
       </c>
       <c r="B31" t="s">
-        <v>6434</v>
+        <v>6516</v>
       </c>
       <c r="C31">
-        <v>11455</v>
+        <v>9345</v>
       </c>
       <c r="D31" t="s">
-        <v>941</v>
+        <v>723</v>
       </c>
       <c r="E31" s="39">
-        <v>628.79999999999995</v>
+        <v>3329.82</v>
       </c>
       <c r="F31" s="7">
-        <v>37</v>
+        <v>180.1</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7451759</v>
+        <v>-3.79182527</v>
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5402234</v>
+        <v>-38.5671401</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>6571</v>
@@ -66541,7 +66541,7 @@
       </c>
       <c r="K31" s="7">
         <f>VLOOKUP(B31,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L31" t="str">
         <f>VLOOKUP(C31,horarios!B:G,6,0)</f>
@@ -66553,27 +66553,27 @@
         <v>45764</v>
       </c>
       <c r="B32" t="s">
-        <v>6516</v>
+        <v>6434</v>
       </c>
       <c r="C32">
-        <v>11895</v>
+        <v>9597</v>
       </c>
       <c r="D32" t="s">
-        <v>1022</v>
+        <v>796</v>
       </c>
       <c r="E32" s="39">
-        <v>4103.68</v>
+        <v>460.6</v>
       </c>
       <c r="F32" s="7">
-        <v>287.10000000000002</v>
+        <v>27.7</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.89368547</v>
+        <v>-3.7603291</v>
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.51477265</v>
+        <v>-38.5423981</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6571</v>
@@ -66583,11 +66583,11 @@
       </c>
       <c r="K32" s="7">
         <f>VLOOKUP(B32,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L32" t="str">
         <f>VLOOKUP(C32,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -66598,24 +66598,24 @@
         <v>6434</v>
       </c>
       <c r="C33">
-        <v>11994</v>
+        <v>10753</v>
       </c>
       <c r="D33" t="s">
-        <v>1067</v>
+        <v>27</v>
       </c>
       <c r="E33" s="39">
-        <v>276.45</v>
+        <v>201.6</v>
       </c>
       <c r="F33" s="7">
-        <v>32.299999999999997</v>
+        <v>21</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(C33,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76835763</v>
+        <v>-3.77192310</v>
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP(C33,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.54941322</v>
+        <v>-38.57808470</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>6571</v>
@@ -66627,9 +66627,8 @@
         <f>VLOOKUP(B33,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
-      <c r="L33" t="str">
-        <f>VLOOKUP(C33,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+      <c r="L33" t="s">
+        <v>6727</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -66637,27 +66636,27 @@
         <v>45764</v>
       </c>
       <c r="B34" t="s">
-        <v>6434</v>
+        <v>6432</v>
       </c>
       <c r="C34">
-        <v>12000</v>
+        <v>10977</v>
       </c>
       <c r="D34" t="s">
-        <v>1070</v>
+        <v>858</v>
       </c>
       <c r="E34" s="39">
-        <v>456.48</v>
+        <v>1327.64</v>
       </c>
       <c r="F34" s="7">
-        <v>19.2</v>
+        <v>46.3</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(C34,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76752651</v>
+        <v>-3.80290818</v>
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP(C34,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.55298701</v>
+        <v>-38.49478307</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6571</v>
@@ -66671,7 +66670,7 @@
       </c>
       <c r="L34" t="str">
         <f>VLOOKUP(C34,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -66679,27 +66678,27 @@
         <v>45764</v>
       </c>
       <c r="B35" t="s">
-        <v>6489</v>
+        <v>6434</v>
       </c>
       <c r="C35">
-        <v>12013</v>
+        <v>11455</v>
       </c>
       <c r="D35" t="s">
-        <v>6742</v>
+        <v>941</v>
       </c>
       <c r="E35" s="39">
-        <v>54000</v>
+        <v>628.79999999999995</v>
       </c>
       <c r="F35" s="7">
-        <v>2400</v>
+        <v>37</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(C35,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.96526816</v>
+        <v>-3.7451759</v>
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP(C35,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.51777873</v>
+        <v>-38.5402234</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>6571</v>
@@ -66709,31 +66708,147 @@
       </c>
       <c r="K35" s="7">
         <f>VLOOKUP(B35,pesoCaminhao!C:G,5,0)</f>
-        <v>10000</v>
+        <v>1590</v>
       </c>
       <c r="L35" t="s">
         <v>6727</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="4"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="2"/>
+      <c r="A36" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6516</v>
+      </c>
+      <c r="C36">
+        <v>11895</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E36" s="39">
+        <v>4103.68</v>
+      </c>
+      <c r="F36" s="7">
+        <v>286.2</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(C36,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.89368547</v>
+      </c>
+      <c r="H36" t="str">
+        <f>VLOOKUP(C36,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.51477265</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>6572</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="2"/>
+      <c r="A37" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C37">
+        <v>11994</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E37" s="39">
+        <v>276.45</v>
+      </c>
+      <c r="F37" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(C37,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.76835763</v>
+      </c>
+      <c r="H37" t="str">
+        <f>VLOOKUP(C37,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.54941322</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>6572</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="2"/>
+      <c r="A38" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C38">
+        <v>12000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E38" s="39">
+        <v>456.48</v>
+      </c>
+      <c r="F38" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(C38,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.76752651</v>
+      </c>
+      <c r="H38" t="str">
+        <f>VLOOKUP(C38,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.55298701</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>6572</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="4"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="2"/>
+      <c r="A39" s="4">
+        <v>45764</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6489</v>
+      </c>
+      <c r="C39">
+        <v>12013</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6742</v>
+      </c>
+      <c r="E39" s="39">
+        <v>54000</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2400</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(C39,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.96526816</v>
+      </c>
+      <c r="H39" t="str">
+        <f>VLOOKUP(C39,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.51777873</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>6572</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4"/>

--- a/DbCoordenadas.xlsx
+++ b/DbCoordenadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CACAU\Desktop\Mapa Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{864571A9-44DC-41D2-BB31-DA3D137B62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D0AE62-3C56-4165-8E02-34815B2FE0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dbcaminhoes!$A$1:$L$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">horarios!$A$1:$G$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">horarios!$A$1:$G$369</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pesoCaminhao!$A$1:$G$52</definedName>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">COORDENADAS!$A$1:$K$1088</definedName>
     <definedName name="DadosExternos_1" localSheetId="5" hidden="1">Planilha1!$A$1:$F$22</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13400" uniqueCount="6747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13399" uniqueCount="6747">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -65232,7 +65232,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66460,8 +66460,9 @@
         <f>VLOOKUP(B29,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
-      <c r="L29" t="s">
-        <v>6727</v>
+      <c r="L29" t="str">
+        <f>VLOOKUP(C29,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -66710,8 +66711,9 @@
         <f>VLOOKUP(B35,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
-      <c r="L35" t="s">
-        <v>6727</v>
+      <c r="L35" t="str">
+        <f>VLOOKUP(C35,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -66747,6 +66749,14 @@
       <c r="J36" s="1" t="s">
         <v>6572</v>
       </c>
+      <c r="K36" s="7">
+        <f>VLOOKUP(B36,pesoCaminhao!C:G,5,0)</f>
+        <v>900</v>
+      </c>
+      <c r="L36" t="str">
+        <f>VLOOKUP(C36,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4">
@@ -66781,6 +66791,14 @@
       <c r="J37" s="1" t="s">
         <v>6572</v>
       </c>
+      <c r="K37" s="7">
+        <f>VLOOKUP(B37,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L37" t="str">
+        <f>VLOOKUP(C37,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4">
@@ -66815,6 +66833,14 @@
       <c r="J38" s="1" t="s">
         <v>6572</v>
       </c>
+      <c r="K38" s="7">
+        <f>VLOOKUP(B38,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L38" t="str">
+        <f>VLOOKUP(C38,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4">
@@ -66848,6 +66874,13 @@
       </c>
       <c r="J39" s="1" t="s">
         <v>6572</v>
+      </c>
+      <c r="K39" s="7">
+        <f>VLOOKUP(B39,pesoCaminhao!C:G,5,0)</f>
+        <v>10000</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6727</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -66899,10 +66932,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21761DE-D20C-4731-A2F1-25317F434EA2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66943,7 +66977,7 @@
         <v>6725</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" t="s">
         <v>6588</v>
       </c>
@@ -66964,7 +66998,7 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
         <v>6588</v>
       </c>
@@ -66985,7 +67019,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>6588</v>
       </c>
@@ -67006,7 +67040,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
         <v>6591</v>
       </c>
@@ -67027,7 +67061,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
         <v>6582</v>
       </c>
@@ -67053,7 +67087,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
         <v>6582</v>
       </c>
@@ -67079,7 +67113,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
         <v>6582</v>
       </c>
@@ -67105,7 +67139,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
         <v>6591</v>
       </c>
@@ -67126,7 +67160,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
         <v>6582</v>
       </c>
@@ -67152,7 +67186,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" t="s">
         <v>6591</v>
       </c>
@@ -67173,7 +67207,7 @@
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" t="s">
         <v>6588</v>
       </c>
@@ -67199,7 +67233,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
         <v>6601</v>
       </c>
@@ -67225,7 +67259,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" t="s">
         <v>6588</v>
       </c>
@@ -67251,7 +67285,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" t="s">
         <v>6588</v>
       </c>
@@ -67277,7 +67311,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" t="s">
         <v>6582</v>
       </c>
@@ -67303,7 +67337,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" t="s">
         <v>6582</v>
       </c>
@@ -67324,7 +67358,7 @@
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" t="s">
         <v>6591</v>
       </c>
@@ -67345,7 +67379,7 @@
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" t="s">
         <v>6582</v>
       </c>
@@ -67366,7 +67400,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" t="s">
         <v>6582</v>
       </c>
@@ -67392,7 +67426,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" t="s">
         <v>6601</v>
       </c>
@@ -67413,7 +67447,7 @@
       </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" t="s">
         <v>6582</v>
       </c>
@@ -67439,7 +67473,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" t="s">
         <v>6588</v>
       </c>
@@ -67460,7 +67494,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" t="s">
         <v>6582</v>
       </c>
@@ -67486,7 +67520,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" t="s">
         <v>6588</v>
       </c>
@@ -67507,7 +67541,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" t="s">
         <v>6601</v>
       </c>
@@ -67528,7 +67562,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" t="s">
         <v>6588</v>
       </c>
@@ -67549,7 +67583,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" t="s">
         <v>6582</v>
       </c>
@@ -67575,7 +67609,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" t="s">
         <v>6601</v>
       </c>
@@ -67596,7 +67630,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" t="s">
         <v>6588</v>
       </c>
@@ -67622,7 +67656,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" t="s">
         <v>6582</v>
       </c>
@@ -67643,7 +67677,7 @@
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" t="s">
         <v>6582</v>
       </c>
@@ -67664,7 +67698,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" t="s">
         <v>6582</v>
       </c>
@@ -67690,7 +67724,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" t="s">
         <v>6582</v>
       </c>
@@ -67716,7 +67750,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" t="s">
         <v>6601</v>
       </c>
@@ -67742,7 +67776,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" t="s">
         <v>6601</v>
       </c>
@@ -67763,7 +67797,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" t="s">
         <v>6591</v>
       </c>
@@ -67789,7 +67823,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" t="s">
         <v>6591</v>
       </c>
@@ -67815,7 +67849,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" t="s">
         <v>6591</v>
       </c>
@@ -67836,7 +67870,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" t="s">
         <v>6590</v>
       </c>
@@ -67857,7 +67891,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" t="s">
         <v>6582</v>
       </c>
@@ -67883,7 +67917,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" t="s">
         <v>6586</v>
       </c>
@@ -67904,7 +67938,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" t="s">
         <v>6586</v>
       </c>
@@ -67925,7 +67959,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" t="s">
         <v>6601</v>
       </c>
@@ -67951,7 +67985,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" t="s">
         <v>6591</v>
       </c>
@@ -67972,7 +68006,7 @@
       </c>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" t="s">
         <v>6582</v>
       </c>
@@ -67998,7 +68032,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" t="s">
         <v>6582</v>
       </c>
@@ -68019,7 +68053,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" t="s">
         <v>6601</v>
       </c>
@@ -68040,7 +68074,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" t="s">
         <v>6582</v>
       </c>
@@ -68066,7 +68100,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" t="s">
         <v>6582</v>
       </c>
@@ -68092,7 +68126,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" t="s">
         <v>6601</v>
       </c>
@@ -68113,7 +68147,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" t="s">
         <v>6601</v>
       </c>
@@ -68139,7 +68173,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" t="s">
         <v>6601</v>
       </c>
@@ -68165,7 +68199,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" t="s">
         <v>6591</v>
       </c>
@@ -68186,7 +68220,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" t="s">
         <v>6586</v>
       </c>
@@ -68212,7 +68246,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" t="s">
         <v>6582</v>
       </c>
@@ -68238,7 +68272,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" t="s">
         <v>6588</v>
       </c>
@@ -68259,7 +68293,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" t="s">
         <v>6582</v>
       </c>
@@ -68285,7 +68319,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" t="s">
         <v>6582</v>
       </c>
@@ -68306,7 +68340,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
         <v>6582</v>
       </c>
@@ -68332,7 +68366,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
         <v>6601</v>
       </c>
@@ -68358,7 +68392,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
         <v>6582</v>
       </c>
@@ -68379,7 +68413,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
         <v>6582</v>
       </c>
@@ -68405,7 +68439,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" t="s">
         <v>6586</v>
       </c>
@@ -68431,7 +68465,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" t="s">
         <v>6582</v>
       </c>
@@ -68457,7 +68491,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" t="s">
         <v>6582</v>
       </c>
@@ -68483,7 +68517,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" t="s">
         <v>6582</v>
       </c>
@@ -68509,7 +68543,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" t="s">
         <v>6582</v>
       </c>
@@ -68535,7 +68569,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" t="s">
         <v>6590</v>
       </c>
@@ -68561,7 +68595,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" t="s">
         <v>6582</v>
       </c>
@@ -68582,7 +68616,7 @@
       </c>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" t="s">
         <v>6582</v>
       </c>
@@ -68608,7 +68642,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" t="s">
         <v>6582</v>
       </c>
@@ -68634,7 +68668,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" t="s">
         <v>6588</v>
       </c>
@@ -68655,7 +68689,7 @@
       </c>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" t="s">
         <v>6588</v>
       </c>
@@ -68676,7 +68710,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" t="s">
         <v>6586</v>
       </c>
@@ -68702,7 +68736,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" t="s">
         <v>6582</v>
       </c>
@@ -68728,7 +68762,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" t="s">
         <v>6586</v>
       </c>
@@ -68754,7 +68788,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" t="s">
         <v>6586</v>
       </c>
@@ -68780,7 +68814,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
         <v>6591</v>
       </c>
@@ -68806,7 +68840,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" t="s">
         <v>6588</v>
       </c>
@@ -68832,7 +68866,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" t="s">
         <v>6582</v>
       </c>
@@ -68858,7 +68892,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" t="s">
         <v>6582</v>
       </c>
@@ -68879,7 +68913,7 @@
       </c>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" t="s">
         <v>6601</v>
       </c>
@@ -68900,7 +68934,7 @@
       </c>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" t="s">
         <v>6586</v>
       </c>
@@ -68926,7 +68960,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" t="s">
         <v>6582</v>
       </c>
@@ -68947,7 +68981,7 @@
       </c>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" t="s">
         <v>6601</v>
       </c>
@@ -68973,7 +69007,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" t="s">
         <v>6582</v>
       </c>
@@ -68999,7 +69033,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" t="s">
         <v>6601</v>
       </c>
@@ -69020,7 +69054,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" t="s">
         <v>6601</v>
       </c>
@@ -69046,7 +69080,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" t="s">
         <v>6601</v>
       </c>
@@ -69072,7 +69106,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" t="s">
         <v>6582</v>
       </c>
@@ -69098,7 +69132,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" t="s">
         <v>6590</v>
       </c>
@@ -69124,7 +69158,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" t="s">
         <v>6588</v>
       </c>
@@ -69150,7 +69184,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" t="s">
         <v>6582</v>
       </c>
@@ -69176,7 +69210,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" t="s">
         <v>6582</v>
       </c>
@@ -69202,7 +69236,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" t="s">
         <v>6582</v>
       </c>
@@ -69228,7 +69262,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" t="s">
         <v>6588</v>
       </c>
@@ -69254,7 +69288,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" t="s">
         <v>6588</v>
       </c>
@@ -69280,7 +69314,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" t="s">
         <v>6601</v>
       </c>
@@ -69306,7 +69340,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" t="s">
         <v>6601</v>
       </c>
@@ -69332,7 +69366,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" t="s">
         <v>6582</v>
       </c>
@@ -69358,7 +69392,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" t="s">
         <v>6588</v>
       </c>
@@ -69384,7 +69418,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" t="s">
         <v>6590</v>
       </c>
@@ -69410,7 +69444,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" t="s">
         <v>6590</v>
       </c>
@@ -69436,7 +69470,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" t="s">
         <v>6601</v>
       </c>
@@ -69457,7 +69491,7 @@
       </c>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" t="s">
         <v>6588</v>
       </c>
@@ -69483,7 +69517,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" t="s">
         <v>6588</v>
       </c>
@@ -69509,7 +69543,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" t="s">
         <v>6591</v>
       </c>
@@ -69535,7 +69569,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" t="s">
         <v>6586</v>
       </c>
@@ -69561,7 +69595,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" t="s">
         <v>6586</v>
       </c>
@@ -69587,7 +69621,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" t="s">
         <v>6582</v>
       </c>
@@ -69613,7 +69647,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" t="s">
         <v>6582</v>
       </c>
@@ -69634,7 +69668,7 @@
       </c>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" t="s">
         <v>6582</v>
       </c>
@@ -69660,7 +69694,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" t="s">
         <v>6582</v>
       </c>
@@ -69686,7 +69720,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" t="s">
         <v>6582</v>
       </c>
@@ -69712,7 +69746,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" t="s">
         <v>6588</v>
       </c>
@@ -69738,7 +69772,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" t="s">
         <v>6601</v>
       </c>
@@ -69759,7 +69793,7 @@
       </c>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" t="s">
         <v>6601</v>
       </c>
@@ -69780,7 +69814,7 @@
       </c>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" t="s">
         <v>6586</v>
       </c>
@@ -69806,7 +69840,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" t="s">
         <v>6601</v>
       </c>
@@ -69827,7 +69861,7 @@
       </c>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" t="s">
         <v>6578</v>
       </c>
@@ -69853,7 +69887,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" t="s">
         <v>6586</v>
       </c>
@@ -69879,7 +69913,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" t="s">
         <v>6601</v>
       </c>
@@ -69900,7 +69934,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" t="s">
         <v>6586</v>
       </c>
@@ -69926,7 +69960,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" t="s">
         <v>6590</v>
       </c>
@@ -69947,7 +69981,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" t="s">
         <v>6586</v>
       </c>
@@ -69973,7 +70007,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" t="s">
         <v>6591</v>
       </c>
@@ -69994,7 +70028,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" t="s">
         <v>6586</v>
       </c>
@@ -70015,7 +70049,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" t="s">
         <v>6601</v>
       </c>
@@ -70036,7 +70070,7 @@
       </c>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" t="s">
         <v>6582</v>
       </c>
@@ -70057,7 +70091,7 @@
       </c>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" t="s">
         <v>6578</v>
       </c>
@@ -70078,7 +70112,7 @@
       </c>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" t="s">
         <v>6578</v>
       </c>
@@ -70099,7 +70133,7 @@
       </c>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" t="s">
         <v>6578</v>
       </c>
@@ -70120,7 +70154,7 @@
       </c>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" t="s">
         <v>6578</v>
       </c>
@@ -70141,7 +70175,7 @@
       </c>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" t="s">
         <v>6578</v>
       </c>
@@ -70162,7 +70196,7 @@
       </c>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" t="s">
         <v>6578</v>
       </c>
@@ -70183,7 +70217,7 @@
       </c>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" t="s">
         <v>6578</v>
       </c>
@@ -70204,7 +70238,7 @@
       </c>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" t="s">
         <v>6578</v>
       </c>
@@ -70225,7 +70259,7 @@
       </c>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" t="s">
         <v>6578</v>
       </c>
@@ -70246,7 +70280,7 @@
       </c>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" t="s">
         <v>6578</v>
       </c>
@@ -70267,7 +70301,7 @@
       </c>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" t="s">
         <v>6578</v>
       </c>
@@ -70288,7 +70322,7 @@
       </c>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" t="s">
         <v>6578</v>
       </c>
@@ -70309,7 +70343,7 @@
       </c>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" t="s">
         <v>6578</v>
       </c>
@@ -70330,7 +70364,7 @@
       </c>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" t="s">
         <v>6578</v>
       </c>
@@ -70351,7 +70385,7 @@
       </c>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145" t="s">
         <v>6582</v>
       </c>
@@ -70372,7 +70406,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" t="s">
         <v>6588</v>
       </c>
@@ -70393,7 +70427,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147" t="s">
         <v>6582</v>
       </c>
@@ -70414,7 +70448,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" t="s">
         <v>6582</v>
       </c>
@@ -70477,7 +70511,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" t="s">
         <v>6578</v>
       </c>
@@ -70498,7 +70532,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" t="s">
         <v>6586</v>
       </c>
@@ -70519,7 +70553,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" t="s">
         <v>6586</v>
       </c>
@@ -70540,7 +70574,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" t="s">
         <v>6588</v>
       </c>
@@ -70561,7 +70595,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" t="s">
         <v>6601</v>
       </c>
@@ -70582,7 +70616,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" t="s">
         <v>6586</v>
       </c>
@@ -70603,7 +70637,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" t="s">
         <v>6590</v>
       </c>
@@ -70624,7 +70658,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158" t="s">
         <v>6601</v>
       </c>
@@ -70645,7 +70679,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" t="s">
         <v>6591</v>
       </c>
@@ -70671,7 +70705,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" hidden="1">
       <c r="A160" t="s">
         <v>6601</v>
       </c>
@@ -70692,7 +70726,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" hidden="1">
       <c r="A161" t="s">
         <v>6586</v>
       </c>
@@ -70713,7 +70747,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" hidden="1">
       <c r="A162" t="s">
         <v>6586</v>
       </c>
@@ -70923,7 +70957,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" hidden="1">
       <c r="A172" t="s">
         <v>6588</v>
       </c>
@@ -70944,7 +70978,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" t="s">
         <v>6588</v>
       </c>
@@ -70965,7 +70999,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" t="s">
         <v>6578</v>
       </c>
@@ -70986,7 +71020,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" t="s">
         <v>6586</v>
       </c>
@@ -71007,7 +71041,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176" t="s">
         <v>6586</v>
       </c>
@@ -71028,7 +71062,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" t="s">
         <v>6582</v>
       </c>
@@ -71049,7 +71083,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" hidden="1">
       <c r="A178" t="s">
         <v>6601</v>
       </c>
@@ -71070,7 +71104,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" hidden="1">
       <c r="A179" t="s">
         <v>6578</v>
       </c>
@@ -71091,7 +71125,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" t="s">
         <v>6578</v>
       </c>
@@ -71112,7 +71146,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" hidden="1">
       <c r="A181" t="s">
         <v>6578</v>
       </c>
@@ -71133,7 +71167,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" t="s">
         <v>6582</v>
       </c>
@@ -71154,7 +71188,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" hidden="1">
       <c r="A183" t="s">
         <v>6586</v>
       </c>
@@ -71175,7 +71209,7 @@
       </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" hidden="1">
       <c r="A184" t="s">
         <v>6591</v>
       </c>
@@ -71201,7 +71235,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" hidden="1">
       <c r="A185" t="s">
         <v>6588</v>
       </c>
@@ -71222,7 +71256,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" hidden="1">
       <c r="A186" t="s">
         <v>6578</v>
       </c>
@@ -71243,7 +71277,7 @@
       </c>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" hidden="1">
       <c r="A187" t="s">
         <v>6578</v>
       </c>
@@ -71264,7 +71298,7 @@
       </c>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" hidden="1">
       <c r="A188" t="s">
         <v>6578</v>
       </c>
@@ -71285,7 +71319,7 @@
       </c>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" hidden="1">
       <c r="A189" t="s">
         <v>6578</v>
       </c>
@@ -71306,7 +71340,7 @@
       </c>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" hidden="1">
       <c r="A190" t="s">
         <v>6578</v>
       </c>
@@ -71327,7 +71361,7 @@
       </c>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" hidden="1">
       <c r="A191" t="s">
         <v>6578</v>
       </c>
@@ -71348,7 +71382,7 @@
       </c>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" hidden="1">
       <c r="A192" t="s">
         <v>6578</v>
       </c>
@@ -71369,7 +71403,7 @@
       </c>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" t="s">
         <v>6578</v>
       </c>
@@ -71390,7 +71424,7 @@
       </c>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" t="s">
         <v>6578</v>
       </c>
@@ -71411,7 +71445,7 @@
       </c>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" t="s">
         <v>6578</v>
       </c>
@@ -71432,7 +71466,7 @@
       </c>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" t="s">
         <v>6578</v>
       </c>
@@ -71453,7 +71487,7 @@
       </c>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" t="s">
         <v>6578</v>
       </c>
@@ -71474,7 +71508,7 @@
       </c>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" t="s">
         <v>6578</v>
       </c>
@@ -71495,7 +71529,7 @@
       </c>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" t="s">
         <v>6578</v>
       </c>
@@ -71516,7 +71550,7 @@
       </c>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" hidden="1">
       <c r="A200" t="s">
         <v>6578</v>
       </c>
@@ -71537,7 +71571,7 @@
       </c>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" hidden="1">
       <c r="A201" t="s">
         <v>6578</v>
       </c>
@@ -71558,7 +71592,7 @@
       </c>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" t="s">
         <v>6578</v>
       </c>
@@ -71579,7 +71613,7 @@
       </c>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" t="s">
         <v>6578</v>
       </c>
@@ -71600,7 +71634,7 @@
       </c>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" t="s">
         <v>6578</v>
       </c>
@@ -71621,7 +71655,7 @@
       </c>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" t="s">
         <v>6578</v>
       </c>
@@ -71642,7 +71676,7 @@
       </c>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" t="s">
         <v>6578</v>
       </c>
@@ -71663,7 +71697,7 @@
       </c>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" t="s">
         <v>6578</v>
       </c>
@@ -71684,7 +71718,7 @@
       </c>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" t="s">
         <v>6578</v>
       </c>
@@ -71705,7 +71739,7 @@
       </c>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" hidden="1">
       <c r="A209" t="s">
         <v>6578</v>
       </c>
@@ -71726,7 +71760,7 @@
       </c>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" hidden="1">
       <c r="A210" t="s">
         <v>6578</v>
       </c>
@@ -71747,7 +71781,7 @@
       </c>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" t="s">
         <v>6578</v>
       </c>
@@ -71768,7 +71802,7 @@
       </c>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" hidden="1">
       <c r="A212" t="s">
         <v>6582</v>
       </c>
@@ -71789,7 +71823,7 @@
       </c>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" t="s">
         <v>6588</v>
       </c>
@@ -71810,7 +71844,7 @@
       </c>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" t="s">
         <v>6588</v>
       </c>
@@ -71831,7 +71865,7 @@
       </c>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" hidden="1">
       <c r="A215" t="s">
         <v>6582</v>
       </c>
@@ -71852,7 +71886,7 @@
       </c>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" t="s">
         <v>6591</v>
       </c>
@@ -71873,7 +71907,7 @@
       </c>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" t="s">
         <v>6590</v>
       </c>
@@ -71894,7 +71928,7 @@
       </c>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" t="s">
         <v>6582</v>
       </c>
@@ -71915,7 +71949,7 @@
       </c>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" t="s">
         <v>6591</v>
       </c>
@@ -71936,7 +71970,7 @@
       </c>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" t="s">
         <v>6591</v>
       </c>
@@ -71957,7 +71991,7 @@
       </c>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" hidden="1">
       <c r="A221" t="s">
         <v>6582</v>
       </c>
@@ -71978,7 +72012,7 @@
       </c>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" hidden="1">
       <c r="A222" t="s">
         <v>6601</v>
       </c>
@@ -71999,7 +72033,7 @@
       </c>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" t="s">
         <v>6590</v>
       </c>
@@ -72020,7 +72054,7 @@
       </c>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" t="s">
         <v>6601</v>
       </c>
@@ -72041,7 +72075,7 @@
       </c>
       <c r="H224"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" hidden="1">
       <c r="A225" t="s">
         <v>6591</v>
       </c>
@@ -72062,7 +72096,7 @@
       </c>
       <c r="H225"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" hidden="1">
       <c r="A226" t="s">
         <v>6588</v>
       </c>
@@ -72083,7 +72117,7 @@
       </c>
       <c r="H226"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" hidden="1">
       <c r="A227" t="s">
         <v>6601</v>
       </c>
@@ -72104,7 +72138,7 @@
       </c>
       <c r="H227"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" t="s">
         <v>6591</v>
       </c>
@@ -72125,7 +72159,7 @@
       </c>
       <c r="H228"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" t="s">
         <v>6582</v>
       </c>
@@ -72151,7 +72185,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" hidden="1">
       <c r="A230" t="s">
         <v>6578</v>
       </c>
@@ -72172,7 +72206,7 @@
       </c>
       <c r="H230"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" hidden="1">
       <c r="A231" t="s">
         <v>6578</v>
       </c>
@@ -72193,7 +72227,7 @@
       </c>
       <c r="H231"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" hidden="1">
       <c r="A232" t="s">
         <v>6578</v>
       </c>
@@ -72214,7 +72248,7 @@
       </c>
       <c r="H232"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" hidden="1">
       <c r="A233" t="s">
         <v>6578</v>
       </c>
@@ -72235,7 +72269,7 @@
       </c>
       <c r="H233"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" hidden="1">
       <c r="A234" t="s">
         <v>6578</v>
       </c>
@@ -72256,7 +72290,7 @@
       </c>
       <c r="H234"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1">
       <c r="A235" t="s">
         <v>6578</v>
       </c>
@@ -72277,7 +72311,7 @@
       </c>
       <c r="H235"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" hidden="1">
       <c r="A236" t="s">
         <v>6601</v>
       </c>
@@ -72298,7 +72332,7 @@
       </c>
       <c r="H236"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1">
       <c r="A237" t="s">
         <v>6586</v>
       </c>
@@ -72319,7 +72353,7 @@
       </c>
       <c r="H237"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" hidden="1">
       <c r="A238" t="s">
         <v>6578</v>
       </c>
@@ -72340,7 +72374,7 @@
       </c>
       <c r="H238"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" t="s">
         <v>6590</v>
       </c>
@@ -72361,7 +72395,7 @@
       </c>
       <c r="H239"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" hidden="1">
       <c r="A240" t="s">
         <v>6578</v>
       </c>
@@ -72382,7 +72416,7 @@
       </c>
       <c r="H240"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" hidden="1">
       <c r="A241" t="s">
         <v>6578</v>
       </c>
@@ -72403,7 +72437,7 @@
       </c>
       <c r="H241"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" hidden="1">
       <c r="A242" t="s">
         <v>6578</v>
       </c>
@@ -72424,7 +72458,7 @@
       </c>
       <c r="H242"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" hidden="1">
       <c r="A243" t="s">
         <v>6578</v>
       </c>
@@ -72445,7 +72479,7 @@
       </c>
       <c r="H243"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" hidden="1">
       <c r="A244" t="s">
         <v>6578</v>
       </c>
@@ -72466,7 +72500,7 @@
       </c>
       <c r="H244"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" hidden="1">
       <c r="A245" t="s">
         <v>6590</v>
       </c>
@@ -72487,7 +72521,7 @@
       </c>
       <c r="H245"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" hidden="1">
       <c r="A246" t="s">
         <v>6591</v>
       </c>
@@ -72508,7 +72542,7 @@
       </c>
       <c r="H246"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" hidden="1">
       <c r="A247" t="s">
         <v>6601</v>
       </c>
@@ -72529,7 +72563,7 @@
       </c>
       <c r="H247"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" hidden="1">
       <c r="A248" t="s">
         <v>6578</v>
       </c>
@@ -72550,7 +72584,7 @@
       </c>
       <c r="H248"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" hidden="1">
       <c r="A249" t="s">
         <v>6578</v>
       </c>
@@ -72571,7 +72605,7 @@
       </c>
       <c r="H249"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" hidden="1">
       <c r="A250" t="s">
         <v>6588</v>
       </c>
@@ -72592,7 +72626,7 @@
       </c>
       <c r="H250"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" hidden="1">
       <c r="A251" t="s">
         <v>6591</v>
       </c>
@@ -72618,7 +72652,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" hidden="1">
       <c r="A252" t="s">
         <v>6582</v>
       </c>
@@ -72639,7 +72673,7 @@
       </c>
       <c r="H252"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" hidden="1">
       <c r="A253" t="s">
         <v>6578</v>
       </c>
@@ -72660,7 +72694,7 @@
       </c>
       <c r="H253"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" hidden="1">
       <c r="A254" t="s">
         <v>6588</v>
       </c>
@@ -72681,7 +72715,7 @@
       </c>
       <c r="H254"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" hidden="1">
       <c r="A255" t="s">
         <v>6578</v>
       </c>
@@ -72702,7 +72736,7 @@
       </c>
       <c r="H255"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" hidden="1">
       <c r="A256" t="s">
         <v>6586</v>
       </c>
@@ -72723,7 +72757,7 @@
       </c>
       <c r="H256"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" hidden="1">
       <c r="A257" t="s">
         <v>6582</v>
       </c>
@@ -72744,7 +72778,7 @@
       </c>
       <c r="H257"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" hidden="1">
       <c r="A258" t="s">
         <v>6582</v>
       </c>
@@ -72765,7 +72799,7 @@
       </c>
       <c r="H258"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" hidden="1">
       <c r="A259" t="s">
         <v>6601</v>
       </c>
@@ -72786,7 +72820,7 @@
       </c>
       <c r="H259"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" hidden="1">
       <c r="A260" t="s">
         <v>6582</v>
       </c>
@@ -72812,7 +72846,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" hidden="1">
       <c r="A261" t="s">
         <v>6601</v>
       </c>
@@ -72838,7 +72872,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" hidden="1">
       <c r="A262" t="s">
         <v>6586</v>
       </c>
@@ -72864,7 +72898,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" hidden="1">
       <c r="A263" t="s">
         <v>6586</v>
       </c>
@@ -72890,7 +72924,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" hidden="1">
       <c r="A264" t="s">
         <v>6582</v>
       </c>
@@ -72916,7 +72950,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" hidden="1">
       <c r="A265" t="s">
         <v>6582</v>
       </c>
@@ -72942,7 +72976,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" hidden="1">
       <c r="A266" t="s">
         <v>6586</v>
       </c>
@@ -72968,7 +73002,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" hidden="1">
       <c r="A267" t="s">
         <v>6582</v>
       </c>
@@ -72994,7 +73028,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" hidden="1">
       <c r="A268" t="s">
         <v>6586</v>
       </c>
@@ -73020,7 +73054,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" hidden="1">
       <c r="A269" t="s">
         <v>6586</v>
       </c>
@@ -73046,7 +73080,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" hidden="1">
       <c r="A270" t="s">
         <v>6582</v>
       </c>
@@ -73067,7 +73101,7 @@
       </c>
       <c r="H270"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" hidden="1">
       <c r="A271" t="s">
         <v>6586</v>
       </c>
@@ -73088,7 +73122,7 @@
       </c>
       <c r="H271"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" hidden="1">
       <c r="A272" t="s">
         <v>6601</v>
       </c>
@@ -73109,7 +73143,7 @@
       </c>
       <c r="H272"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" hidden="1">
       <c r="A273" t="s">
         <v>6586</v>
       </c>
@@ -73130,7 +73164,7 @@
       </c>
       <c r="H273"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" hidden="1">
       <c r="A274" t="s">
         <v>6582</v>
       </c>
@@ -73156,7 +73190,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" hidden="1">
       <c r="A275" t="s">
         <v>6588</v>
       </c>
@@ -73182,7 +73216,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" hidden="1">
       <c r="A276" t="s">
         <v>6601</v>
       </c>
@@ -73203,7 +73237,7 @@
       </c>
       <c r="H276"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" hidden="1">
       <c r="A277" t="s">
         <v>6586</v>
       </c>
@@ -73229,7 +73263,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" hidden="1">
       <c r="A278" t="s">
         <v>6582</v>
       </c>
@@ -73250,7 +73284,7 @@
       </c>
       <c r="H278"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" hidden="1">
       <c r="A279" t="s">
         <v>6582</v>
       </c>
@@ -73271,7 +73305,7 @@
       </c>
       <c r="H279"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" hidden="1">
       <c r="A280" t="s">
         <v>6586</v>
       </c>
@@ -73292,7 +73326,7 @@
       </c>
       <c r="H280"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" hidden="1">
       <c r="A281" t="s">
         <v>6588</v>
       </c>
@@ -73318,7 +73352,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" hidden="1">
       <c r="A282" t="s">
         <v>6601</v>
       </c>
@@ -73339,7 +73373,7 @@
       </c>
       <c r="H282"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" hidden="1">
       <c r="A283" t="s">
         <v>6582</v>
       </c>
@@ -73365,7 +73399,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" hidden="1">
       <c r="A284" t="s">
         <v>6601</v>
       </c>
@@ -73391,7 +73425,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" hidden="1">
       <c r="A285" t="s">
         <v>6582</v>
       </c>
@@ -73417,7 +73451,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" hidden="1">
       <c r="A286" t="s">
         <v>6601</v>
       </c>
@@ -73438,7 +73472,7 @@
       </c>
       <c r="H286"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" hidden="1">
       <c r="A287" t="s">
         <v>6586</v>
       </c>
@@ -73464,7 +73498,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" hidden="1">
       <c r="A288" t="s">
         <v>6582</v>
       </c>
@@ -73485,7 +73519,7 @@
       </c>
       <c r="H288"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" hidden="1">
       <c r="A289" t="s">
         <v>6601</v>
       </c>
@@ -73506,7 +73540,7 @@
       </c>
       <c r="H289"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" hidden="1">
       <c r="A290" t="s">
         <v>6601</v>
       </c>
@@ -73527,7 +73561,7 @@
       </c>
       <c r="H290"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" hidden="1">
       <c r="A291" t="s">
         <v>6588</v>
       </c>
@@ -73553,7 +73587,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" hidden="1">
       <c r="A292" t="s">
         <v>6601</v>
       </c>
@@ -73579,7 +73613,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" hidden="1">
       <c r="A293" t="s">
         <v>6591</v>
       </c>
@@ -73600,7 +73634,7 @@
       </c>
       <c r="H293"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" hidden="1">
       <c r="A294" t="s">
         <v>6586</v>
       </c>
@@ -73626,7 +73660,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" hidden="1">
       <c r="A295" t="s">
         <v>6582</v>
       </c>
@@ -73647,7 +73681,7 @@
       </c>
       <c r="H295"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" hidden="1">
       <c r="A296" t="s">
         <v>6586</v>
       </c>
@@ -73673,7 +73707,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" hidden="1">
       <c r="A297" t="s">
         <v>6586</v>
       </c>
@@ -73699,7 +73733,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" hidden="1">
       <c r="A298" t="s">
         <v>6591</v>
       </c>
@@ -73720,7 +73754,7 @@
       </c>
       <c r="H298"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" hidden="1">
       <c r="A299" t="s">
         <v>6582</v>
       </c>
@@ -73746,7 +73780,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" hidden="1">
       <c r="A300" t="s">
         <v>6588</v>
       </c>
@@ -73767,7 +73801,7 @@
       </c>
       <c r="H300"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" hidden="1">
       <c r="A301" t="s">
         <v>6591</v>
       </c>
@@ -73788,7 +73822,7 @@
       </c>
       <c r="H301"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" hidden="1">
       <c r="A302" t="s">
         <v>6591</v>
       </c>
@@ -73809,7 +73843,7 @@
       </c>
       <c r="H302"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" hidden="1">
       <c r="A303" t="s">
         <v>6590</v>
       </c>
@@ -73830,7 +73864,7 @@
       </c>
       <c r="H303"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" hidden="1">
       <c r="A304" t="s">
         <v>6590</v>
       </c>
@@ -73851,7 +73885,7 @@
       </c>
       <c r="H304"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" hidden="1">
       <c r="A305" t="s">
         <v>6588</v>
       </c>
@@ -73872,7 +73906,7 @@
       </c>
       <c r="H305"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" hidden="1">
       <c r="A306" t="s">
         <v>6601</v>
       </c>
@@ -73893,7 +73927,7 @@
       </c>
       <c r="H306"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" hidden="1">
       <c r="A307" t="s">
         <v>6586</v>
       </c>
@@ -73919,7 +73953,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" t="s">
         <v>6582</v>
       </c>
@@ -73945,7 +73979,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" hidden="1">
       <c r="A309" t="s">
         <v>6590</v>
       </c>
@@ -73966,7 +74000,7 @@
       </c>
       <c r="H309"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" hidden="1">
       <c r="A310" t="s">
         <v>6590</v>
       </c>
@@ -73987,7 +74021,7 @@
       </c>
       <c r="H310"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" hidden="1">
       <c r="A311" t="s">
         <v>6591</v>
       </c>
@@ -74004,7 +74038,7 @@
       </c>
       <c r="H311"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" hidden="1">
       <c r="A312" t="s">
         <v>6601</v>
       </c>
@@ -74025,7 +74059,7 @@
       </c>
       <c r="H312"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" hidden="1">
       <c r="A313" t="s">
         <v>6601</v>
       </c>
@@ -74046,7 +74080,7 @@
       </c>
       <c r="H313"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" hidden="1">
       <c r="A314" t="s">
         <v>6601</v>
       </c>
@@ -74067,7 +74101,7 @@
       </c>
       <c r="H314"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" hidden="1">
       <c r="A315" t="s">
         <v>6590</v>
       </c>
@@ -74088,7 +74122,7 @@
       </c>
       <c r="H315"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" hidden="1">
       <c r="A316" t="s">
         <v>6586</v>
       </c>
@@ -74109,7 +74143,7 @@
       </c>
       <c r="H316"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" hidden="1">
       <c r="A317" t="s">
         <v>6591</v>
       </c>
@@ -74130,7 +74164,7 @@
       </c>
       <c r="H317"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" hidden="1">
       <c r="A318" t="s">
         <v>6591</v>
       </c>
@@ -74151,7 +74185,7 @@
       </c>
       <c r="H318"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" hidden="1">
       <c r="A319" t="s">
         <v>6591</v>
       </c>
@@ -74172,7 +74206,7 @@
       </c>
       <c r="H319"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" hidden="1">
       <c r="A320" t="s">
         <v>6582</v>
       </c>
@@ -74193,7 +74227,7 @@
       </c>
       <c r="H320"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" hidden="1">
       <c r="A321" t="s">
         <v>6601</v>
       </c>
@@ -74214,7 +74248,7 @@
       </c>
       <c r="H321"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" hidden="1">
       <c r="A322" t="s">
         <v>6590</v>
       </c>
@@ -74235,7 +74269,7 @@
       </c>
       <c r="H322"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" hidden="1">
       <c r="A323" t="s">
         <v>6588</v>
       </c>
@@ -74254,7 +74288,7 @@
       </c>
       <c r="H323"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" hidden="1">
       <c r="A324" t="s">
         <v>6591</v>
       </c>
@@ -74271,7 +74305,7 @@
       </c>
       <c r="H324"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" hidden="1">
       <c r="A325" t="s">
         <v>6588</v>
       </c>
@@ -74292,7 +74326,7 @@
       </c>
       <c r="H325"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" hidden="1">
       <c r="A326" t="s">
         <v>6601</v>
       </c>
@@ -74313,7 +74347,7 @@
       </c>
       <c r="H326"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" hidden="1">
       <c r="A327" t="s">
         <v>6582</v>
       </c>
@@ -74339,7 +74373,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" hidden="1">
       <c r="A328" t="s">
         <v>6582</v>
       </c>
@@ -74356,7 +74390,7 @@
       </c>
       <c r="H328"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" hidden="1">
       <c r="A329" t="s">
         <v>6582</v>
       </c>
@@ -74377,7 +74411,7 @@
       </c>
       <c r="H329"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" hidden="1">
       <c r="A330" t="s">
         <v>6582</v>
       </c>
@@ -74403,7 +74437,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" hidden="1">
       <c r="A331" t="s">
         <v>6582</v>
       </c>
@@ -74424,7 +74458,7 @@
       </c>
       <c r="H331"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" hidden="1">
       <c r="A332" t="s">
         <v>6590</v>
       </c>
@@ -74445,7 +74479,7 @@
       </c>
       <c r="H332"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" hidden="1">
       <c r="A333" t="s">
         <v>6588</v>
       </c>
@@ -74471,7 +74505,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" hidden="1">
       <c r="A334" t="s">
         <v>6590</v>
       </c>
@@ -74492,7 +74526,7 @@
       </c>
       <c r="H334"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" hidden="1">
       <c r="A335" t="s">
         <v>6590</v>
       </c>
@@ -74513,7 +74547,7 @@
       </c>
       <c r="H335"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" hidden="1">
       <c r="A336" t="s">
         <v>6590</v>
       </c>
@@ -74534,7 +74568,7 @@
       </c>
       <c r="H336"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" hidden="1">
       <c r="A337" t="s">
         <v>6590</v>
       </c>
@@ -74555,7 +74589,7 @@
       </c>
       <c r="H337"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" hidden="1">
       <c r="A338" t="s">
         <v>6590</v>
       </c>
@@ -74576,7 +74610,7 @@
       </c>
       <c r="H338"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" hidden="1">
       <c r="A339" t="s">
         <v>6590</v>
       </c>
@@ -74597,7 +74631,7 @@
       </c>
       <c r="H339"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" hidden="1">
       <c r="A340" t="s">
         <v>6582</v>
       </c>
@@ -74618,7 +74652,7 @@
       </c>
       <c r="H340"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" hidden="1">
       <c r="A341" t="s">
         <v>6582</v>
       </c>
@@ -74644,7 +74678,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" hidden="1">
       <c r="A342" t="s">
         <v>6590</v>
       </c>
@@ -74665,7 +74699,7 @@
       </c>
       <c r="H342"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" hidden="1">
       <c r="A343" t="s">
         <v>6590</v>
       </c>
@@ -74686,7 +74720,7 @@
       </c>
       <c r="H343"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" hidden="1">
       <c r="A344" t="s">
         <v>6588</v>
       </c>
@@ -74707,7 +74741,7 @@
       </c>
       <c r="H344"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" hidden="1">
       <c r="A345" t="s">
         <v>6590</v>
       </c>
@@ -74728,7 +74762,7 @@
       </c>
       <c r="H345"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" hidden="1">
       <c r="A346" t="s">
         <v>6591</v>
       </c>
@@ -74749,7 +74783,7 @@
       </c>
       <c r="H346"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" hidden="1">
       <c r="A347" t="s">
         <v>6588</v>
       </c>
@@ -74770,7 +74804,7 @@
       </c>
       <c r="H347"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" hidden="1">
       <c r="A348" t="s">
         <v>6590</v>
       </c>
@@ -74791,7 +74825,7 @@
       </c>
       <c r="H348"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" hidden="1">
       <c r="A349" t="s">
         <v>6588</v>
       </c>
@@ -74812,7 +74846,7 @@
       </c>
       <c r="H349"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" hidden="1">
       <c r="A350" t="s">
         <v>6590</v>
       </c>
@@ -74833,7 +74867,7 @@
       </c>
       <c r="H350"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" hidden="1">
       <c r="A351" t="s">
         <v>6588</v>
       </c>
@@ -74854,7 +74888,7 @@
       </c>
       <c r="H351"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" hidden="1">
       <c r="A352" t="s">
         <v>6586</v>
       </c>
@@ -74880,7 +74914,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" hidden="1">
       <c r="A353" t="s">
         <v>6582</v>
       </c>
@@ -74901,7 +74935,7 @@
       </c>
       <c r="H353"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" hidden="1">
       <c r="B354">
         <v>11898</v>
       </c>
@@ -74919,7 +74953,7 @@
       </c>
       <c r="H354"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" hidden="1">
       <c r="B355">
         <v>11595</v>
       </c>
@@ -74937,7 +74971,7 @@
       </c>
       <c r="H355"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" hidden="1">
       <c r="B356">
         <v>11946</v>
       </c>
@@ -74955,7 +74989,7 @@
       </c>
       <c r="H356"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" hidden="1">
       <c r="B357">
         <v>11896</v>
       </c>
@@ -74973,7 +75007,7 @@
       </c>
       <c r="H357"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" hidden="1">
       <c r="B358">
         <v>11895</v>
       </c>
@@ -74991,7 +75025,7 @@
       </c>
       <c r="H358"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" hidden="1">
       <c r="B359">
         <v>11898</v>
       </c>
@@ -75009,7 +75043,7 @@
       </c>
       <c r="H359"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" hidden="1">
       <c r="B360">
         <v>11851</v>
       </c>
@@ -75027,7 +75061,7 @@
       </c>
       <c r="H360"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" hidden="1">
       <c r="B361">
         <v>11899</v>
       </c>
@@ -75045,7 +75079,7 @@
       </c>
       <c r="H361"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" hidden="1">
       <c r="A362" t="s">
         <v>6578</v>
       </c>
@@ -75066,7 +75100,7 @@
       </c>
       <c r="H362"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" hidden="1">
       <c r="A363" t="s">
         <v>6578</v>
       </c>
@@ -75087,7 +75121,7 @@
       </c>
       <c r="H363"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" hidden="1">
       <c r="A364" t="s">
         <v>6578</v>
       </c>
@@ -75108,7 +75142,7 @@
       </c>
       <c r="H364"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" hidden="1">
       <c r="A365" t="s">
         <v>6578</v>
       </c>
@@ -75129,7 +75163,7 @@
       </c>
       <c r="H365"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" hidden="1">
       <c r="A366" t="s">
         <v>6578</v>
       </c>
@@ -75150,7 +75184,7 @@
       </c>
       <c r="H366"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" hidden="1">
       <c r="A367" t="s">
         <v>6578</v>
       </c>
@@ -75171,7 +75205,7 @@
       </c>
       <c r="H367"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" hidden="1">
       <c r="B368" s="37">
         <v>11032</v>
       </c>
@@ -75182,7 +75216,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="369" spans="2:7">
+    <row r="369" spans="2:7" hidden="1">
       <c r="B369" s="8">
         <v>11047</v>
       </c>
@@ -75194,7 +75228,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G367" xr:uid="{A21761DE-D20C-4731-A2F1-25317F434EA2}"/>
+  <autoFilter ref="A1:G369" xr:uid="{A21761DE-D20C-4731-A2F1-25317F434EA2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PAO DE ACUCAR - AGUANAMBI"/>
+        <filter val="PAO DE ACUCAR - BEZERRA DE MENEZES"/>
+        <filter val="PAO DE ACUCAR - CENTER UM"/>
+        <filter val="PAO DE ACUCAR - COCO"/>
+        <filter val="PAO DE ACUCAR - FATIMA"/>
+        <filter val="PAO DE ACUCAR - IGUATEMI"/>
+        <filter val="PAO DE ACUCAR - JULIO VENTURA"/>
+        <filter val="PAO DE ACUCAR - LUCIANO CAVALCANTE"/>
+        <filter val="PAO DE ACUCAR - MUCURIPE"/>
+        <filter val="PAO DE ACUCAR - NAUTICO"/>
+        <filter val="PAO DE ACUCAR - SANTOS DUMONT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DbCoordenadas.xlsx
+++ b/DbCoordenadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CACAU\Desktop\Mapa Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D0AE62-3C56-4165-8E02-34815B2FE0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728CCA2A-EF6F-4C32-82A3-2D11279B0897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13399" uniqueCount="6747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13429" uniqueCount="6747">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -20743,7 +20743,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="14">
@@ -20876,7 +20877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -20938,32 +20939,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -20971,7 +20946,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -21061,18 +21036,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="3" builtinId="4"/>
@@ -65231,8 +65197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65241,7 +65207,7 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -65264,7 +65230,7 @@
       <c r="D1" t="s">
         <v>6442</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>6441</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -65290,31 +65256,31 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6516</v>
-      </c>
-      <c r="C2" s="8">
-        <v>172</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="38">
-        <v>990.56</v>
-      </c>
-      <c r="F2" s="41">
-        <v>43.6</v>
+      <c r="A2" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C2">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="37">
+        <v>1822.51</v>
+      </c>
+      <c r="F2">
+        <v>74.400000000000006</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8003218</v>
+        <v>-3.7392121</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5880765</v>
+        <v>-38.5924565</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6571</v>
@@ -65324,39 +65290,39 @@
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP(B2,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L2" t="str">
         <f>VLOOKUP(C2,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C3" s="37">
-        <v>182</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="40">
-        <v>4232.3599999999997</v>
-      </c>
-      <c r="F3" s="42">
-        <v>170.2</v>
+      <c r="A3" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C3">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="37">
+        <v>327.3</v>
+      </c>
+      <c r="F3">
+        <v>9.6</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7429477</v>
+        <v>-3.7807845</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5599157</v>
+        <v>-38.5966783</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6571</v>
@@ -65370,35 +65336,35 @@
       </c>
       <c r="L3" t="str">
         <f>VLOOKUP(C3,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C4" s="8">
-        <v>193</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1122</v>
-      </c>
-      <c r="F4" s="41">
-        <v>78.400000000000006</v>
+      <c r="A4" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6494</v>
+      </c>
+      <c r="C4">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="37">
+        <v>13916.86</v>
+      </c>
+      <c r="F4">
+        <v>639.5</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7211932</v>
+        <v>-3.81528198</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5583364</v>
+        <v>-38.55661271</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6571</v>
@@ -65408,39 +65374,39 @@
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP(B4,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>9000</v>
       </c>
       <c r="L4" t="str">
         <f>VLOOKUP(C4,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>6432</v>
-      </c>
-      <c r="C5" s="37">
-        <v>212</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="40">
-        <v>1647.62</v>
-      </c>
-      <c r="F5" s="42">
-        <v>89.7</v>
+      <c r="A5" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C5">
+        <v>317</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1266</v>
+      </c>
+      <c r="F5">
+        <v>60.4</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8185168</v>
+        <v>-3.7688869</v>
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4971878</v>
+        <v>-38.6231497</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6571</v>
@@ -65458,31 +65424,31 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B6" t="s">
         <v>6436</v>
       </c>
-      <c r="C6" s="8">
-        <v>284</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="38">
-        <v>630.6</v>
-      </c>
-      <c r="F6" s="41">
-        <v>56.5</v>
+      <c r="C6">
+        <v>348</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="37">
+        <v>926</v>
+      </c>
+      <c r="F6">
+        <v>39.799999999999997</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7966519</v>
+        <v>-3.730491</v>
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6007377</v>
+        <v>-38.5771848</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6571</v>
@@ -65500,31 +65466,31 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>6432</v>
-      </c>
-      <c r="C7" s="37">
-        <v>378</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="40">
-        <v>649.9</v>
-      </c>
-      <c r="F7" s="42">
-        <v>61.4</v>
+      <c r="A7" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C7">
+        <v>611</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="37">
+        <v>293</v>
+      </c>
+      <c r="F7">
+        <v>8.5</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8227322</v>
+        <v>-3.7842908</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5091962</v>
+        <v>-38.5691114</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6571</v>
@@ -65542,31 +65508,31 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C8" s="8">
-        <v>663</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="38">
-        <v>2098.7199999999998</v>
-      </c>
-      <c r="F8" s="41">
-        <v>103.9</v>
+      <c r="A8" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C8">
+        <v>620</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="37">
+        <v>647.79999999999995</v>
+      </c>
+      <c r="F8">
+        <v>18.899999999999999</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.77289</v>
+        <v>-3.7802372</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5882422</v>
+        <v>-38.5784333</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6571</v>
@@ -65580,35 +65546,35 @@
       </c>
       <c r="L8" t="str">
         <f>VLOOKUP(C8,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C9" s="37">
-        <v>815</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="40">
-        <v>726.2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>21.7</v>
+      <c r="A9" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C9">
+        <v>709</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="37">
+        <v>825.32</v>
+      </c>
+      <c r="F9">
+        <v>46.8</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8575733</v>
+        <v>-3.83265451</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.645753</v>
+        <v>-38.58103395</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6571</v>
@@ -65626,31 +65592,31 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C10" s="8">
-        <v>862</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="38">
-        <v>1649.56</v>
-      </c>
-      <c r="F10" s="41">
-        <v>142.6</v>
+      <c r="A10" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C10">
+        <v>715</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="37">
+        <v>542</v>
+      </c>
+      <c r="F10">
+        <v>14.5</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7566112</v>
+        <v>-3.767533</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6024185</v>
+        <v>-38.6248232</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6571</v>
@@ -65668,31 +65634,31 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B11" t="s">
         <v>6431</v>
       </c>
-      <c r="C11" s="37">
-        <v>898</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="40">
-        <v>730.14</v>
-      </c>
-      <c r="F11" s="42">
-        <v>111.1</v>
+      <c r="C11">
+        <v>718</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1307.2</v>
+      </c>
+      <c r="F11">
+        <v>105.5</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7249377</v>
+        <v>-3.77334061</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5890115</v>
+        <v>-38.62707738</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6571</v>
@@ -65706,35 +65672,35 @@
       </c>
       <c r="L11" t="str">
         <f>VLOOKUP(C11,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1011</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="38">
-        <v>1791.07</v>
-      </c>
-      <c r="F12" s="41">
-        <v>94.9</v>
+      <c r="A12" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C12">
+        <v>719</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1393.46</v>
+      </c>
+      <c r="F12">
+        <v>87.4</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8819005</v>
+        <v>-3.7594355</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.62523</v>
+        <v>-38.6163545</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6571</v>
@@ -65748,35 +65714,35 @@
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(C12,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>6516</v>
-      </c>
-      <c r="C13" s="37">
-        <v>1025</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="40">
-        <v>2651.32</v>
-      </c>
-      <c r="F13" s="42">
-        <v>133.80000000000001</v>
+      <c r="A13" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C13">
+        <v>874</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2635.74</v>
+      </c>
+      <c r="F13">
+        <v>155.6</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7960364</v>
+        <v>-3.782635</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4990562</v>
+        <v>-38.5538401</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6571</v>
@@ -65786,7 +65752,7 @@
       </c>
       <c r="K13" s="7">
         <f>VLOOKUP(B13,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>4900</v>
       </c>
       <c r="L13" t="str">
         <f>VLOOKUP(C13,horarios!B:G,6,0)</f>
@@ -65794,31 +65760,31 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B14" t="s">
         <v>6435</v>
       </c>
-      <c r="C14" s="8">
-        <v>1873</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="38">
-        <v>175.6</v>
-      </c>
-      <c r="F14" s="41">
-        <v>8.1</v>
+      <c r="C14">
+        <v>884</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="37">
+        <v>2101</v>
+      </c>
+      <c r="F14">
+        <v>60.9</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8219527</v>
+        <v>-3.7899059</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6279053</v>
+        <v>-38.495258</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6571</v>
@@ -65836,31 +65802,31 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C15" s="37">
-        <v>1967</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="40">
-        <v>669</v>
-      </c>
-      <c r="F15" s="42">
-        <v>88.6</v>
+      <c r="A15" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C15">
+        <v>954</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="37">
+        <v>3788.99</v>
+      </c>
+      <c r="F15">
+        <v>204.6</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7865804</v>
+        <v>-3.8301305</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5979579</v>
+        <v>-38.4875383</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6571</v>
@@ -65870,7 +65836,7 @@
       </c>
       <c r="K15" s="7">
         <f>VLOOKUP(B15,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>4900</v>
       </c>
       <c r="L15" t="str">
         <f>VLOOKUP(C15,horarios!B:G,6,0)</f>
@@ -65878,31 +65844,31 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C16" s="37">
-        <v>1980</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="40">
-        <v>734.72</v>
-      </c>
-      <c r="F16" s="42">
-        <v>46.4</v>
+      <c r="A16" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6732</v>
+      </c>
+      <c r="C16">
+        <v>967</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="37">
+        <v>3142.99</v>
+      </c>
+      <c r="F16">
+        <v>160.1</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8958534</v>
+        <v>-3.7374817</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6839187</v>
+        <v>-38.5204755</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6571</v>
@@ -65920,31 +65886,31 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1998</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="38">
-        <v>4057.2</v>
-      </c>
-      <c r="F17" s="41">
-        <v>180.7</v>
+      <c r="A17" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C17">
+        <v>989</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="37">
+        <v>4674.0600000000004</v>
+      </c>
+      <c r="F17">
+        <v>254.7</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8775392</v>
+        <v>-3.7049139</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6087159</v>
+        <v>-38.5780082</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>6571</v>
@@ -65958,35 +65924,35 @@
       </c>
       <c r="L17" t="str">
         <f>VLOOKUP(C17,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>6500</v>
-      </c>
-      <c r="C18" s="37">
-        <v>2909</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="E18" s="40">
-        <v>14174.19</v>
-      </c>
-      <c r="F18" s="42">
-        <v>982</v>
+      <c r="A18" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C18">
+        <v>1049</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="37">
+        <v>1588.5</v>
+      </c>
+      <c r="F18">
+        <v>64.599999999999994</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8546626</v>
+        <v>-3.7955137</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6021541</v>
+        <v>-38.4901664</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6571</v>
@@ -65996,7 +65962,7 @@
       </c>
       <c r="K18" s="7">
         <f>VLOOKUP(B18,pesoCaminhao!C:G,5,0)</f>
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(C18,horarios!B:G,6,0)</f>
@@ -66004,31 +65970,31 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C19" s="8">
-        <v>3021</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E19" s="38">
-        <v>323</v>
-      </c>
-      <c r="F19" s="41">
-        <v>21.2</v>
+      <c r="A19" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C19">
+        <v>1226</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="37">
+        <v>918.48</v>
+      </c>
+      <c r="F19">
+        <v>52.6</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7572362</v>
+        <v>-3.7123457</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5939325</v>
+        <v>-38.5589927</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>6571</v>
@@ -66046,31 +66012,31 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="36">
-        <v>45764</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>6516</v>
-      </c>
-      <c r="C20" s="37">
-        <v>3166</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1280.54</v>
-      </c>
-      <c r="F20" s="42">
-        <v>101.3</v>
+      <c r="A20" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C20">
+        <v>2279</v>
+      </c>
+      <c r="D20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="37">
+        <v>846</v>
+      </c>
+      <c r="F20">
+        <v>37.6</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8071766</v>
+        <v>-3.758694</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.555096</v>
+        <v>-38.625415</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6571</v>
@@ -66080,7 +66046,7 @@
       </c>
       <c r="K20" s="7">
         <f>VLOOKUP(B20,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L20" t="str">
         <f>VLOOKUP(C20,horarios!B:G,6,0)</f>
@@ -66088,31 +66054,31 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="35">
-        <v>45764</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>6432</v>
-      </c>
-      <c r="C21" s="8">
-        <v>3486</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E21" s="38">
-        <v>2411.2600000000002</v>
-      </c>
-      <c r="F21" s="41">
-        <v>116.3</v>
+      <c r="A21" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C21">
+        <v>2309</v>
+      </c>
+      <c r="D21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="37">
+        <v>2578.2600000000002</v>
+      </c>
+      <c r="F21">
+        <v>112</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.830081</v>
+        <v>-3.7495749</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.509759</v>
+        <v>-38.5285489</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>6571</v>
@@ -66122,39 +66088,39 @@
       </c>
       <c r="K21" s="7">
         <f>VLOOKUP(B21,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>4900</v>
       </c>
       <c r="L21" t="str">
         <f>VLOOKUP(C21,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B22" t="s">
-        <v>6434</v>
+        <v>6435</v>
       </c>
       <c r="C22">
-        <v>3508</v>
+        <v>2726</v>
       </c>
       <c r="D22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E22" s="39">
-        <v>798</v>
-      </c>
-      <c r="F22" s="7">
-        <v>18</v>
+        <v>362</v>
+      </c>
+      <c r="E22" s="37">
+        <v>609.28</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.748629</v>
+        <v>-3.8143736</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5229264</v>
+        <v>-38.6120921</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6571</v>
@@ -66173,30 +66139,30 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B23" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C23">
-        <v>3584</v>
+        <v>2734</v>
       </c>
       <c r="D23" t="s">
-        <v>472</v>
-      </c>
-      <c r="E23" s="39">
-        <v>638.94000000000005</v>
-      </c>
-      <c r="F23" s="7">
-        <v>64.7</v>
+        <v>364</v>
+      </c>
+      <c r="E23" s="37">
+        <v>3122.08</v>
+      </c>
+      <c r="F23">
+        <v>106.3</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.726481</v>
+        <v>-3.817788</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5888279</v>
+        <v>-38.589921</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>6571</v>
@@ -66210,35 +66176,35 @@
       </c>
       <c r="L23" t="str">
         <f>VLOOKUP(C23,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B24" t="s">
         <v>6435</v>
       </c>
       <c r="C24">
-        <v>3705</v>
+        <v>2807</v>
       </c>
       <c r="D24" t="s">
-        <v>488</v>
-      </c>
-      <c r="E24" s="39">
-        <v>794.2</v>
-      </c>
-      <c r="F24" s="7">
-        <v>27.1</v>
+        <v>373</v>
+      </c>
+      <c r="E24" s="37">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="F24">
+        <v>15.7</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8754221</v>
+        <v>-3.7872948</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5915102</v>
+        <v>-38.5439698</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>6571</v>
@@ -66257,30 +66223,30 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B25" t="s">
         <v>6435</v>
       </c>
       <c r="C25">
-        <v>3765</v>
+        <v>2990</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
-      </c>
-      <c r="E25" s="39">
-        <v>463.7</v>
-      </c>
-      <c r="F25" s="7">
-        <v>52.2</v>
+        <v>394</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1710</v>
+      </c>
+      <c r="F25">
+        <v>59</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8548937</v>
+        <v>-3.7086442</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5789869</v>
+        <v>-38.563186</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>6571</v>
@@ -66299,30 +66265,30 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B26" t="s">
-        <v>6434</v>
+        <v>6516</v>
       </c>
       <c r="C26">
-        <v>3784</v>
+        <v>3059</v>
       </c>
       <c r="D26" t="s">
-        <v>503</v>
-      </c>
-      <c r="E26" s="39">
-        <v>1293.6600000000001</v>
-      </c>
-      <c r="F26" s="7">
-        <v>65.099999999999994</v>
+        <v>399</v>
+      </c>
+      <c r="E26" s="37">
+        <v>8465.44</v>
+      </c>
+      <c r="F26">
+        <v>539.20000000000005</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7555418</v>
+        <v>-3.7929966</v>
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5303956</v>
+        <v>-38.5335303</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>6571</v>
@@ -66332,7 +66298,7 @@
       </c>
       <c r="K26" s="7">
         <f>VLOOKUP(B26,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L26" t="str">
         <f>VLOOKUP(C26,horarios!B:G,6,0)</f>
@@ -66341,30 +66307,30 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B27" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C27">
-        <v>4221</v>
+        <v>3141</v>
       </c>
       <c r="D27" t="s">
-        <v>573</v>
-      </c>
-      <c r="E27" s="39">
-        <v>1955.4</v>
-      </c>
-      <c r="F27" s="7">
-        <v>55.2</v>
+        <v>405</v>
+      </c>
+      <c r="E27" s="37">
+        <v>165.6</v>
+      </c>
+      <c r="F27">
+        <v>4.8</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7335995</v>
+        <v>-3.7881406</v>
       </c>
       <c r="H27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5586262</v>
+        <v>-38.4676257</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>6571</v>
@@ -66378,35 +66344,35 @@
       </c>
       <c r="L27" t="str">
         <f>VLOOKUP(C27,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B28" t="s">
-        <v>6434</v>
+        <v>6732</v>
       </c>
       <c r="C28">
-        <v>4271</v>
+        <v>3968</v>
       </c>
       <c r="D28" t="s">
-        <v>584</v>
-      </c>
-      <c r="E28" s="39">
-        <v>1224.67</v>
-      </c>
-      <c r="F28" s="7">
-        <v>34.9</v>
+        <v>531</v>
+      </c>
+      <c r="E28" s="37">
+        <v>812.8</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7430401</v>
+        <v>-3.7309369</v>
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4859163</v>
+        <v>-38.5376384</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>6571</v>
@@ -66420,35 +66386,35 @@
       </c>
       <c r="L28" t="str">
         <f>VLOOKUP(C28,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B29" t="s">
-        <v>6434</v>
+        <v>6431</v>
       </c>
       <c r="C29">
-        <v>4284</v>
+        <v>4089</v>
       </c>
       <c r="D29" t="s">
-        <v>588</v>
-      </c>
-      <c r="E29" s="39">
-        <v>1778.86</v>
-      </c>
-      <c r="F29" s="7">
-        <v>62.1</v>
+        <v>549</v>
+      </c>
+      <c r="E29" s="37">
+        <v>733.6</v>
+      </c>
+      <c r="F29">
+        <v>51.2</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.772043</v>
+        <v>-3.7666193</v>
       </c>
       <c r="H29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4828363</v>
+        <v>-38.6538536</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>6571</v>
@@ -66462,35 +66428,35 @@
       </c>
       <c r="L29" t="str">
         <f>VLOOKUP(C29,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B30" t="s">
         <v>6436</v>
       </c>
       <c r="C30">
-        <v>9318</v>
+        <v>4803</v>
       </c>
       <c r="D30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E30" s="39">
-        <v>586.20000000000005</v>
-      </c>
-      <c r="F30" s="7">
-        <v>72.599999999999994</v>
+        <v>660</v>
+      </c>
+      <c r="E30" s="37">
+        <v>3067.02</v>
+      </c>
+      <c r="F30">
+        <v>124.7</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7881221</v>
+        <v>-3.7403104</v>
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6107546</v>
+        <v>-38.5603054</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>6571</v>
@@ -66509,30 +66475,30 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B31" t="s">
-        <v>6516</v>
+        <v>6435</v>
       </c>
       <c r="C31">
-        <v>9345</v>
+        <v>9319</v>
       </c>
       <c r="D31" t="s">
-        <v>723</v>
-      </c>
-      <c r="E31" s="39">
-        <v>3329.82</v>
-      </c>
-      <c r="F31" s="7">
-        <v>180.1</v>
+        <v>710</v>
+      </c>
+      <c r="E31" s="37">
+        <v>448.8</v>
+      </c>
+      <c r="F31">
+        <v>14.6</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.79182527</v>
+        <v>-3.777836</v>
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5671401</v>
+        <v>-38.597821</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>6571</v>
@@ -66542,7 +66508,7 @@
       </c>
       <c r="K31" s="7">
         <f>VLOOKUP(B31,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>1590</v>
       </c>
       <c r="L31" t="str">
         <f>VLOOKUP(C31,horarios!B:G,6,0)</f>
@@ -66551,30 +66517,30 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B32" t="s">
-        <v>6434</v>
+        <v>6435</v>
       </c>
       <c r="C32">
-        <v>9597</v>
+        <v>9326</v>
       </c>
       <c r="D32" t="s">
-        <v>796</v>
-      </c>
-      <c r="E32" s="39">
-        <v>460.6</v>
-      </c>
-      <c r="F32" s="7">
-        <v>27.7</v>
+        <v>714</v>
+      </c>
+      <c r="E32" s="37">
+        <v>1226.78</v>
+      </c>
+      <c r="F32">
+        <v>44.3</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7603291</v>
+        <v>-3.86330658</v>
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5423981</v>
+        <v>-38.58178138</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6571</v>
@@ -66588,35 +66554,35 @@
       </c>
       <c r="L32" t="str">
         <f>VLOOKUP(C32,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B33" t="s">
-        <v>6434</v>
+        <v>6506</v>
       </c>
       <c r="C33">
-        <v>10753</v>
+        <v>9341</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="39">
-        <v>201.6</v>
-      </c>
-      <c r="F33" s="7">
-        <v>21</v>
+        <v>722</v>
+      </c>
+      <c r="E33" s="37">
+        <v>1731.54</v>
+      </c>
+      <c r="F33">
+        <v>77</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(C33,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.77192310</v>
+        <v>-3.7532492</v>
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP(C33,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.57808470</v>
+        <v>-38.5276962</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>6571</v>
@@ -66626,7 +66592,7 @@
       </c>
       <c r="K33" s="7">
         <f>VLOOKUP(B33,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>4900</v>
       </c>
       <c r="L33" t="s">
         <v>6727</v>
@@ -66634,30 +66600,30 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B34" t="s">
-        <v>6432</v>
+        <v>6506</v>
       </c>
       <c r="C34">
-        <v>10977</v>
+        <v>9346</v>
       </c>
       <c r="D34" t="s">
-        <v>858</v>
-      </c>
-      <c r="E34" s="39">
-        <v>1327.64</v>
-      </c>
-      <c r="F34" s="7">
-        <v>46.3</v>
+        <v>724</v>
+      </c>
+      <c r="E34" s="37">
+        <v>2476.87</v>
+      </c>
+      <c r="F34">
+        <v>124.9</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(C34,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.80290818</v>
+        <v>-3.7888981</v>
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP(C34,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.49478307</v>
+        <v>-38.4759777</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6571</v>
@@ -66667,39 +66633,39 @@
       </c>
       <c r="K34" s="7">
         <f>VLOOKUP(B34,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>4900</v>
       </c>
       <c r="L34" t="str">
         <f>VLOOKUP(C34,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B35" t="s">
-        <v>6434</v>
+        <v>6506</v>
       </c>
       <c r="C35">
-        <v>11455</v>
+        <v>9347</v>
       </c>
       <c r="D35" t="s">
-        <v>941</v>
-      </c>
-      <c r="E35" s="39">
-        <v>628.79999999999995</v>
-      </c>
-      <c r="F35" s="7">
-        <v>37</v>
+        <v>725</v>
+      </c>
+      <c r="E35" s="37">
+        <v>3568.69</v>
+      </c>
+      <c r="F35">
+        <v>182</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(C35,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7451759</v>
+        <v>-3.8795207</v>
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP(C35,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5402234</v>
+        <v>-38.4613795</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>6571</v>
@@ -66709,7 +66675,7 @@
       </c>
       <c r="K35" s="7">
         <f>VLOOKUP(B35,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>4900</v>
       </c>
       <c r="L35" t="str">
         <f>VLOOKUP(C35,horarios!B:G,6,0)</f>
@@ -66718,30 +66684,30 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B36" t="s">
-        <v>6516</v>
+        <v>6506</v>
       </c>
       <c r="C36">
-        <v>11895</v>
+        <v>9622</v>
       </c>
       <c r="D36" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E36" s="39">
-        <v>4103.68</v>
-      </c>
-      <c r="F36" s="7">
-        <v>286.2</v>
+        <v>809</v>
+      </c>
+      <c r="E36" s="37">
+        <v>3381.5</v>
+      </c>
+      <c r="F36">
+        <v>168.7</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(C36,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.89368547</v>
+        <v>-3.7570117</v>
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP(C36,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.51477265</v>
+        <v>-38.5530651</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>6571</v>
@@ -66751,39 +66717,39 @@
       </c>
       <c r="K36" s="7">
         <f>VLOOKUP(B36,pesoCaminhao!C:G,5,0)</f>
-        <v>900</v>
+        <v>4900</v>
       </c>
       <c r="L36" t="str">
         <f>VLOOKUP(C36,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B37" t="s">
-        <v>6434</v>
+        <v>6732</v>
       </c>
       <c r="C37">
-        <v>11994</v>
+        <v>10946</v>
       </c>
       <c r="D37" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E37" s="39">
-        <v>276.45</v>
-      </c>
-      <c r="F37" s="7">
-        <v>32.299999999999997</v>
+        <v>841</v>
+      </c>
+      <c r="E37" s="37">
+        <v>2294.64</v>
+      </c>
+      <c r="F37">
+        <v>123.1</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(C37,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76835763</v>
+        <v>-3.7216531</v>
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP(C37,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.54941322</v>
+        <v>-38.540229</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>6571</v>
@@ -66802,30 +66768,30 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B38" t="s">
-        <v>6434</v>
+        <v>6506</v>
       </c>
       <c r="C38">
-        <v>12000</v>
+        <v>10947</v>
       </c>
       <c r="D38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E38" s="39">
-        <v>456.48</v>
-      </c>
-      <c r="F38" s="7">
-        <v>19.2</v>
+        <v>842</v>
+      </c>
+      <c r="E38" s="37">
+        <v>2117.1799999999998</v>
+      </c>
+      <c r="F38">
+        <v>134.69999999999999</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(C38,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76752651</v>
+        <v>-3.8194224</v>
       </c>
       <c r="H38" t="str">
         <f>VLOOKUP(C38,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.55298701</v>
+        <v>-38.4817816</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>6571</v>
@@ -66835,7 +66801,7 @@
       </c>
       <c r="K38" s="7">
         <f>VLOOKUP(B38,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>4900</v>
       </c>
       <c r="L38" t="str">
         <f>VLOOKUP(C38,horarios!B:G,6,0)</f>
@@ -66844,30 +66810,30 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4">
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="B39" t="s">
-        <v>6489</v>
+        <v>6732</v>
       </c>
       <c r="C39">
-        <v>12013</v>
+        <v>10961</v>
       </c>
       <c r="D39" t="s">
-        <v>6742</v>
-      </c>
-      <c r="E39" s="39">
-        <v>54000</v>
-      </c>
-      <c r="F39" s="7">
-        <v>2400</v>
+        <v>848</v>
+      </c>
+      <c r="E39" s="37">
+        <v>170.4</v>
+      </c>
+      <c r="F39">
+        <v>37.200000000000003</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(C39,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.96526816</v>
+        <v>-3.7779625</v>
       </c>
       <c r="H39" t="str">
         <f>VLOOKUP(C39,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.51777873</v>
+        <v>-38.5519438</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>6571</v>
@@ -66877,41 +66843,257 @@
       </c>
       <c r="K39" s="7">
         <f>VLOOKUP(B39,pesoCaminhao!C:G,5,0)</f>
-        <v>10000</v>
+        <v>1590</v>
       </c>
       <c r="L39" t="s">
         <v>6727</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="4"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="2"/>
+      <c r="A40" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C40">
+        <v>11163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>889</v>
+      </c>
+      <c r="E40" s="37">
+        <v>1887.8</v>
+      </c>
+      <c r="F40">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(C40,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.67322246</v>
+      </c>
+      <c r="H40" t="str">
+        <f>VLOOKUP(C40,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.67026304</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K40" s="7">
+        <f>VLOOKUP(B40,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6727</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="4"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="2"/>
+      <c r="A41" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C41">
+        <v>11743</v>
+      </c>
+      <c r="D41" t="s">
+        <v>988</v>
+      </c>
+      <c r="E41" s="37">
+        <v>2885.8</v>
+      </c>
+      <c r="F41">
+        <v>78.8</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(C41,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.79508034</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP(C41,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.47443215</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K41" s="7">
+        <f>VLOOKUP(B41,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6727</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="4"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="2"/>
+      <c r="A42" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6732</v>
+      </c>
+      <c r="C42">
+        <v>11775</v>
+      </c>
+      <c r="D42" t="s">
+        <v>994</v>
+      </c>
+      <c r="E42" s="37">
+        <v>3133.59</v>
+      </c>
+      <c r="F42">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(C42,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.73996838</v>
+      </c>
+      <c r="H42" t="str">
+        <f>VLOOKUP(C42,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.53237147</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K42" s="7">
+        <f>VLOOKUP(B42,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6727</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="2"/>
+      <c r="A43" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C43">
+        <v>11844</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E43" s="37">
+        <v>1367</v>
+      </c>
+      <c r="F43">
+        <v>97.7</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(C43,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.76944093</v>
+      </c>
+      <c r="H43" t="str">
+        <f>VLOOKUP(C43,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.65433696</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K43" s="7">
+        <f>VLOOKUP(B43,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6727</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="4"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="2"/>
+      <c r="A44" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6732</v>
+      </c>
+      <c r="C44">
+        <v>11912</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E44" s="37">
+        <v>483.8</v>
+      </c>
+      <c r="F44">
+        <v>22.3</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(C44,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.73839532</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP(C44,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.53222215</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K44" s="7">
+        <f>VLOOKUP(B44,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L44" t="s">
+        <v>6727</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="4"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="2"/>
+      <c r="A45" s="4">
+        <v>45770</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C45">
+        <v>11929</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E45" s="37">
+        <v>226.8</v>
+      </c>
+      <c r="F45">
+        <v>22.9</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(C45,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7967961</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP(C45,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.46483618</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="K45" s="7">
+        <f>VLOOKUP(B45,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6727</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="4"/>
@@ -75206,10 +75388,10 @@
       <c r="H367"/>
     </row>
     <row r="368" spans="1:8" hidden="1">
-      <c r="B368" s="37">
+      <c r="B368" s="35">
         <v>11032</v>
       </c>
-      <c r="C368" s="37" t="s">
+      <c r="C368" s="35" t="s">
         <v>6433</v>
       </c>
       <c r="G368" s="29" t="s">

--- a/DbCoordenadas.xlsx
+++ b/DbCoordenadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CACAU\Desktop\Mapa Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728CCA2A-EF6F-4C32-82A3-2D11279B0897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB2E17-3668-431B-8DC6-F55E2E3E1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13429" uniqueCount="6747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13390" uniqueCount="6747">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -65198,7 +65198,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65257,30 +65257,30 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B2" t="s">
-        <v>6436</v>
+        <v>6516</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="37">
-        <v>1822.51</v>
+        <v>703.54</v>
       </c>
       <c r="F2">
-        <v>74.400000000000006</v>
+        <v>51.8</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7392121</v>
+        <v>-3.8003218</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(C2,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5924565</v>
+        <v>-38.5880765</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6571</v>
@@ -65290,39 +65290,39 @@
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP(B2,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L2" t="str">
         <f>VLOOKUP(C2,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B3" t="s">
         <v>6434</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>368</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E3" s="37">
-        <v>327.3</v>
+        <v>3567.6</v>
       </c>
       <c r="F3">
-        <v>9.6</v>
+        <v>99.2</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7807845</v>
+        <v>-3.7560405</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(C3,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5966783</v>
+        <v>-38.5114051</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6571</v>
@@ -65341,30 +65341,30 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B4" t="s">
-        <v>6494</v>
+        <v>6436</v>
       </c>
       <c r="C4">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E4" s="37">
-        <v>13916.86</v>
+        <v>1998</v>
       </c>
       <c r="F4">
-        <v>639.5</v>
+        <v>108.7</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.81528198</v>
+        <v>-3.7135362</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(C4,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.55661271</v>
+        <v>-38.5885703</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6571</v>
@@ -65374,39 +65374,39 @@
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP(B4,pesoCaminhao!C:G,5,0)</f>
-        <v>9000</v>
+        <v>1590</v>
       </c>
       <c r="L4" t="str">
         <f>VLOOKUP(C4,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B5" t="s">
-        <v>6434</v>
+        <v>6732</v>
       </c>
       <c r="C5">
-        <v>317</v>
+        <v>838</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E5" s="37">
-        <v>1266</v>
+        <v>1881.9</v>
       </c>
       <c r="F5">
-        <v>60.4</v>
+        <v>92.2</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7688869</v>
+        <v>-3.7440036</v>
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(C5,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6231497</v>
+        <v>-38.5080673</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6571</v>
@@ -65420,35 +65420,35 @@
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(C5,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B6" t="s">
-        <v>6436</v>
+        <v>6431</v>
       </c>
       <c r="C6">
-        <v>348</v>
+        <v>862</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="E6" s="37">
-        <v>926</v>
+        <v>1164.1400000000001</v>
       </c>
       <c r="F6">
-        <v>39.799999999999997</v>
+        <v>94</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.730491</v>
+        <v>-3.7566112</v>
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(C6,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5771848</v>
+        <v>-38.6024185</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6571</v>
@@ -65462,35 +65462,35 @@
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(C6,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B7" t="s">
         <v>6434</v>
       </c>
       <c r="C7">
-        <v>611</v>
+        <v>942</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="E7" s="37">
-        <v>293</v>
+        <v>3633.84</v>
       </c>
       <c r="F7">
-        <v>8.5</v>
+        <v>199.4</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7842908</v>
+        <v>-3.7407932</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(C7,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5691114</v>
+        <v>-38.516113</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6571</v>
@@ -65509,30 +65509,30 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B8" t="s">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="C8">
-        <v>620</v>
+        <v>958</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="E8" s="37">
-        <v>647.79999999999995</v>
+        <v>5476.25</v>
       </c>
       <c r="F8">
-        <v>18.899999999999999</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7802372</v>
+        <v>-3.7338116</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(C8,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5784333</v>
+        <v>-38.5136501</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6571</v>
@@ -65551,30 +65551,30 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B9" t="s">
-        <v>6436</v>
+        <v>6431</v>
       </c>
       <c r="C9">
-        <v>709</v>
+        <v>2207</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="E9" s="37">
-        <v>825.32</v>
+        <v>375.4</v>
       </c>
       <c r="F9">
-        <v>46.8</v>
+        <v>27</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.83265451</v>
+        <v>-3.7583253</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(C9,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.58103395</v>
+        <v>-38.6354708</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6571</v>
@@ -65593,30 +65593,30 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B10" t="s">
-        <v>6434</v>
+        <v>6516</v>
       </c>
       <c r="C10">
-        <v>715</v>
+        <v>2292</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="E10" s="37">
-        <v>542</v>
+        <v>300</v>
       </c>
       <c r="F10">
-        <v>14.5</v>
+        <v>51</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.767533</v>
+        <v>-3.8142935</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(C10,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6248232</v>
+        <v>-38.5831318</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6571</v>
@@ -65626,39 +65626,39 @@
       </c>
       <c r="K10" s="7">
         <f>VLOOKUP(B10,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(C10,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B11" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C11">
-        <v>718</v>
+        <v>2415</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="E11" s="37">
-        <v>1307.2</v>
+        <v>565.6</v>
       </c>
       <c r="F11">
-        <v>105.5</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.77334061</v>
+        <v>-3.8508378</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(C11,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.62707738</v>
+        <v>-38.5063457</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6571</v>
@@ -65677,30 +65677,30 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B12" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C12">
-        <v>719</v>
+        <v>2726</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c r="E12" s="37">
-        <v>1393.46</v>
+        <v>609.28</v>
       </c>
       <c r="F12">
-        <v>87.4</v>
+        <v>19</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7594355</v>
+        <v>-3.8143736</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(C12,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6163545</v>
+        <v>-38.6120921</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6571</v>
@@ -65719,30 +65719,30 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B13" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="C13">
-        <v>874</v>
+        <v>2734</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="E13" s="37">
-        <v>2635.74</v>
+        <v>3083.34</v>
       </c>
       <c r="F13">
-        <v>155.6</v>
+        <v>106</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.782635</v>
+        <v>-3.817788</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(C13,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5538401</v>
+        <v>-38.589921</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6571</v>
@@ -65752,39 +65752,39 @@
       </c>
       <c r="K13" s="7">
         <f>VLOOKUP(B13,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L13" t="str">
         <f>VLOOKUP(C13,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B14" t="s">
-        <v>6435</v>
+        <v>6436</v>
       </c>
       <c r="C14">
-        <v>884</v>
+        <v>2990</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>394</v>
       </c>
       <c r="E14" s="37">
-        <v>2101</v>
+        <v>1671.63</v>
       </c>
       <c r="F14">
-        <v>60.9</v>
+        <v>58.7</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7899059</v>
+        <v>-3.7086442</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(C14,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.495258</v>
+        <v>-38.563186</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6571</v>
@@ -65798,35 +65798,35 @@
       </c>
       <c r="L14" t="str">
         <f>VLOOKUP(C14,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B15" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="C15">
-        <v>954</v>
+        <v>3078</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>400</v>
       </c>
       <c r="E15" s="37">
-        <v>3788.99</v>
+        <v>742.8</v>
       </c>
       <c r="F15">
-        <v>204.6</v>
+        <v>71.8</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8301305</v>
+        <v>-3.8169208</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(C15,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4875383</v>
+        <v>-38.5316105</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6571</v>
@@ -65836,7 +65836,7 @@
       </c>
       <c r="K15" s="7">
         <f>VLOOKUP(B15,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L15" t="str">
         <f>VLOOKUP(C15,horarios!B:G,6,0)</f>
@@ -65845,30 +65845,30 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B16" t="s">
-        <v>6732</v>
+        <v>6431</v>
       </c>
       <c r="C16">
-        <v>967</v>
+        <v>3542</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>467</v>
       </c>
       <c r="E16" s="37">
-        <v>3142.99</v>
+        <v>209</v>
       </c>
       <c r="F16">
-        <v>160.1</v>
+        <v>26.7</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7374817</v>
+        <v>-3.7591887</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(C16,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5204755</v>
+        <v>-38.6294438</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6571</v>
@@ -65887,30 +65887,30 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B17" t="s">
-        <v>6436</v>
+        <v>6516</v>
       </c>
       <c r="C17">
-        <v>989</v>
+        <v>3643</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>481</v>
       </c>
       <c r="E17" s="37">
-        <v>4674.0600000000004</v>
+        <v>900</v>
       </c>
       <c r="F17">
-        <v>254.7</v>
+        <v>171.7</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7049139</v>
+        <v>-3.806077</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(C17,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5780082</v>
+        <v>-38.5966382</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>6571</v>
@@ -65920,7 +65920,7 @@
       </c>
       <c r="K17" s="7">
         <f>VLOOKUP(B17,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L17" t="str">
         <f>VLOOKUP(C17,horarios!B:G,6,0)</f>
@@ -65929,30 +65929,30 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B18" t="s">
-        <v>6506</v>
+        <v>6732</v>
       </c>
       <c r="C18">
-        <v>1049</v>
+        <v>3784</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="E18" s="37">
-        <v>1588.5</v>
+        <v>230.4</v>
       </c>
       <c r="F18">
-        <v>64.599999999999994</v>
+        <v>7.2</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7955137</v>
+        <v>-3.7555418</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(C18,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4901664</v>
+        <v>-38.5303956</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6571</v>
@@ -65962,39 +65962,39 @@
       </c>
       <c r="K18" s="7">
         <f>VLOOKUP(B18,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(C18,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B19" t="s">
-        <v>6436</v>
+        <v>6434</v>
       </c>
       <c r="C19">
-        <v>1226</v>
+        <v>4029</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>542</v>
       </c>
       <c r="E19" s="37">
-        <v>918.48</v>
+        <v>5207.1000000000004</v>
       </c>
       <c r="F19">
-        <v>52.6</v>
+        <v>246.5</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7123457</v>
+        <v>-3.7411822</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(C19,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5589927</v>
+        <v>-38.5041525</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>6571</v>
@@ -66013,30 +66013,30 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B20" t="s">
-        <v>6434</v>
+        <v>6732</v>
       </c>
       <c r="C20">
-        <v>2279</v>
+        <v>4197</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>568</v>
       </c>
       <c r="E20" s="37">
-        <v>846</v>
+        <v>2310</v>
       </c>
       <c r="F20">
-        <v>37.6</v>
+        <v>66</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.758694</v>
+        <v>-3.7306636</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(C20,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.625415</v>
+        <v>-38.5131575</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6571</v>
@@ -66055,30 +66055,30 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B21" t="s">
-        <v>6506</v>
+        <v>6436</v>
       </c>
       <c r="C21">
-        <v>2309</v>
+        <v>4202</v>
       </c>
       <c r="D21" t="s">
-        <v>323</v>
+        <v>569</v>
       </c>
       <c r="E21" s="37">
-        <v>2578.2600000000002</v>
+        <v>1613.84</v>
       </c>
       <c r="F21">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7495749</v>
+        <v>-3.71767679</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(C21,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5285489</v>
+        <v>-38.57899347</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>6571</v>
@@ -66088,39 +66088,39 @@
       </c>
       <c r="K21" s="7">
         <f>VLOOKUP(B21,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L21" t="str">
         <f>VLOOKUP(C21,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B22" t="s">
-        <v>6435</v>
+        <v>6436</v>
       </c>
       <c r="C22">
-        <v>2726</v>
+        <v>4221</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>573</v>
       </c>
       <c r="E22" s="37">
-        <v>609.28</v>
+        <v>144</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>4.8</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8143736</v>
+        <v>-3.7335995</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(C22,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6120921</v>
+        <v>-38.5586262</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6571</v>
@@ -66139,30 +66139,30 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B23" t="s">
-        <v>6435</v>
+        <v>6431</v>
       </c>
       <c r="C23">
-        <v>2734</v>
+        <v>4293</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>590</v>
       </c>
       <c r="E23" s="37">
-        <v>3122.08</v>
+        <v>1423.08</v>
       </c>
       <c r="F23">
-        <v>106.3</v>
+        <v>88</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.817788</v>
+        <v>-3.7347353</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP(C23,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.589921</v>
+        <v>-38.6595839</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>6571</v>
@@ -66181,30 +66181,30 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B24" t="s">
-        <v>6435</v>
+        <v>6436</v>
       </c>
       <c r="C24">
-        <v>2807</v>
+        <v>4458</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>610</v>
       </c>
       <c r="E24" s="37">
-        <v>530.79999999999995</v>
+        <v>1398</v>
       </c>
       <c r="F24">
-        <v>15.7</v>
+        <v>112.1</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7872948</v>
+        <v>-3.7100856</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP(C24,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5439698</v>
+        <v>-38.5897058</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>6571</v>
@@ -66218,35 +66218,35 @@
       </c>
       <c r="L24" t="str">
         <f>VLOOKUP(C24,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B25" t="s">
-        <v>6435</v>
+        <v>6732</v>
       </c>
       <c r="C25">
-        <v>2990</v>
+        <v>4522</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>616</v>
       </c>
       <c r="E25" s="37">
-        <v>1710</v>
+        <v>2184.36</v>
       </c>
       <c r="F25">
-        <v>59</v>
+        <v>96.2</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7086442</v>
+        <v>-3.7354447</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP(C25,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.563186</v>
+        <v>-38.4816158</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>6571</v>
@@ -66260,35 +66260,35 @@
       </c>
       <c r="L25" t="str">
         <f>VLOOKUP(C25,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B26" t="s">
         <v>6516</v>
       </c>
       <c r="C26">
-        <v>3059</v>
+        <v>4888</v>
       </c>
       <c r="D26" t="s">
-        <v>399</v>
+        <v>671</v>
       </c>
       <c r="E26" s="37">
-        <v>8465.44</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>539.20000000000005</v>
+        <v>51</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7929966</v>
+        <v>-3.81534018</v>
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP(C26,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5335303</v>
+        <v>-38.60506827</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>6571</v>
@@ -66302,35 +66302,35 @@
       </c>
       <c r="L26" t="str">
         <f>VLOOKUP(C26,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B27" t="s">
         <v>6435</v>
       </c>
       <c r="C27">
-        <v>3141</v>
+        <v>5158</v>
       </c>
       <c r="D27" t="s">
-        <v>405</v>
+        <v>691</v>
       </c>
       <c r="E27" s="37">
-        <v>165.6</v>
+        <v>446</v>
       </c>
       <c r="F27">
-        <v>4.8</v>
+        <v>23</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7881406</v>
+        <v>-3.8090825</v>
       </c>
       <c r="H27" t="str">
         <f>VLOOKUP(C27,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4676257</v>
+        <v>-38.524932</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>6571</v>
@@ -66349,30 +66349,30 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B28" t="s">
-        <v>6732</v>
+        <v>6435</v>
       </c>
       <c r="C28">
-        <v>3968</v>
+        <v>5192</v>
       </c>
       <c r="D28" t="s">
-        <v>531</v>
+        <v>696</v>
       </c>
       <c r="E28" s="37">
-        <v>812.8</v>
+        <v>1764</v>
       </c>
       <c r="F28">
-        <v>90</v>
+        <v>63.7</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7309369</v>
+        <v>-3.83829143</v>
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP(C28,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5376384</v>
+        <v>-38.48757653</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>6571</v>
@@ -66386,35 +66386,35 @@
       </c>
       <c r="L28" t="str">
         <f>VLOOKUP(C28,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B29" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="C29">
-        <v>4089</v>
+        <v>9326</v>
       </c>
       <c r="D29" t="s">
-        <v>549</v>
+        <v>714</v>
       </c>
       <c r="E29" s="37">
-        <v>733.6</v>
+        <v>1226.78</v>
       </c>
       <c r="F29">
-        <v>51.2</v>
+        <v>44.3</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7666193</v>
+        <v>-3.86330658</v>
       </c>
       <c r="H29" t="str">
         <f>VLOOKUP(C29,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6538536</v>
+        <v>-38.58178138</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>6571</v>
@@ -66428,35 +66428,35 @@
       </c>
       <c r="L29" t="str">
         <f>VLOOKUP(C29,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B30" t="s">
-        <v>6436</v>
+        <v>6434</v>
       </c>
       <c r="C30">
-        <v>4803</v>
+        <v>9340</v>
       </c>
       <c r="D30" t="s">
-        <v>660</v>
+        <v>721</v>
       </c>
       <c r="E30" s="37">
-        <v>3067.02</v>
+        <v>4053.6</v>
       </c>
       <c r="F30">
-        <v>124.7</v>
+        <v>197.9</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7403104</v>
+        <v>-3.745611</v>
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP(C30,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5603054</v>
+        <v>-38.495747</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>6571</v>
@@ -66475,30 +66475,30 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B31" t="s">
-        <v>6435</v>
+        <v>6732</v>
       </c>
       <c r="C31">
-        <v>9319</v>
+        <v>10749</v>
       </c>
       <c r="D31" t="s">
-        <v>710</v>
+        <v>822</v>
       </c>
       <c r="E31" s="37">
-        <v>448.8</v>
+        <v>767.2</v>
       </c>
       <c r="F31">
-        <v>14.6</v>
+        <v>91.3</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.777836</v>
+        <v>-3.7242051</v>
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP(C31,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.597821</v>
+        <v>-38.4636954</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>6571</v>
@@ -66517,30 +66517,30 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B32" t="s">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="C32">
-        <v>9326</v>
+        <v>10978</v>
       </c>
       <c r="D32" t="s">
-        <v>714</v>
+        <v>859</v>
       </c>
       <c r="E32" s="37">
-        <v>1226.78</v>
+        <v>1223.4000000000001</v>
       </c>
       <c r="F32">
-        <v>44.3</v>
+        <v>32.9</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.86330658</v>
+        <v>-3.74863598</v>
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP(C32,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.58178138</v>
+        <v>-38.51500582</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6571</v>
@@ -66554,35 +66554,35 @@
       </c>
       <c r="L32" t="str">
         <f>VLOOKUP(C32,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B33" t="s">
-        <v>6506</v>
+        <v>6732</v>
       </c>
       <c r="C33">
-        <v>9341</v>
+        <v>11047</v>
       </c>
       <c r="D33" t="s">
-        <v>722</v>
+        <v>6740</v>
       </c>
       <c r="E33" s="37">
-        <v>1731.54</v>
+        <v>689</v>
       </c>
       <c r="F33">
-        <v>77</v>
+        <v>14.8</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(C33,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7532492</v>
+        <v>-3.73140298</v>
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP(C33,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5276962</v>
+        <v>-38.49667067</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>6571</v>
@@ -66592,7 +66592,7 @@
       </c>
       <c r="K33" s="7">
         <f>VLOOKUP(B33,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L33" t="s">
         <v>6727</v>
@@ -66600,30 +66600,30 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B34" t="s">
-        <v>6506</v>
+        <v>6431</v>
       </c>
       <c r="C34">
-        <v>9346</v>
+        <v>11069</v>
       </c>
       <c r="D34" t="s">
-        <v>724</v>
+        <v>866</v>
       </c>
       <c r="E34" s="37">
-        <v>2476.87</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="F34">
-        <v>124.9</v>
+        <v>12</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(C34,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7888981</v>
+        <v>-3.76838301</v>
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP(C34,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4759777</v>
+        <v>-38.63246723</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6571</v>
@@ -66633,7 +66633,7 @@
       </c>
       <c r="K34" s="7">
         <f>VLOOKUP(B34,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L34" t="str">
         <f>VLOOKUP(C34,horarios!B:G,6,0)</f>
@@ -66642,30 +66642,30 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B35" t="s">
-        <v>6506</v>
+        <v>6732</v>
       </c>
       <c r="C35">
-        <v>9347</v>
+        <v>11645</v>
       </c>
       <c r="D35" t="s">
-        <v>725</v>
+        <v>968</v>
       </c>
       <c r="E35" s="37">
-        <v>3568.69</v>
+        <v>733</v>
       </c>
       <c r="F35">
-        <v>182</v>
+        <v>97.3</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(C35,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8795207</v>
+        <v>-3.72712807</v>
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP(C35,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4613795</v>
+        <v>-38.47527325</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>6571</v>
@@ -66675,7 +66675,7 @@
       </c>
       <c r="K35" s="7">
         <f>VLOOKUP(B35,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L35" t="str">
         <f>VLOOKUP(C35,horarios!B:G,6,0)</f>
@@ -66684,30 +66684,30 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B36" t="s">
-        <v>6506</v>
+        <v>6732</v>
       </c>
       <c r="C36">
-        <v>9622</v>
+        <v>11809</v>
       </c>
       <c r="D36" t="s">
-        <v>809</v>
+        <v>1010</v>
       </c>
       <c r="E36" s="37">
-        <v>3381.5</v>
+        <v>1745.27</v>
       </c>
       <c r="F36">
-        <v>168.7</v>
+        <v>81.2</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(C36,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7570117</v>
+        <v>-3.77305558</v>
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP(C36,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5530651</v>
+        <v>-38.57358276</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>6571</v>
@@ -66717,7 +66717,7 @@
       </c>
       <c r="K36" s="7">
         <f>VLOOKUP(B36,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="L36" t="str">
         <f>VLOOKUP(C36,horarios!B:G,6,0)</f>
@@ -66726,30 +66726,30 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B37" t="s">
-        <v>6732</v>
+        <v>6516</v>
       </c>
       <c r="C37">
-        <v>10946</v>
+        <v>11946</v>
       </c>
       <c r="D37" t="s">
-        <v>841</v>
+        <v>1051</v>
       </c>
       <c r="E37" s="37">
-        <v>2294.64</v>
+        <v>897.22</v>
       </c>
       <c r="F37">
-        <v>123.1</v>
+        <v>72.8</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(C37,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7216531</v>
+        <v>-3.8573702</v>
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP(C37,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.540229</v>
+        <v>-38.50257130</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>6571</v>
@@ -66759,341 +66759,68 @@
       </c>
       <c r="K37" s="7">
         <f>VLOOKUP(B37,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
+        <v>900</v>
       </c>
       <c r="L37" t="str">
         <f>VLOOKUP(C37,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6506</v>
-      </c>
-      <c r="C38">
-        <v>10947</v>
-      </c>
-      <c r="D38" t="s">
-        <v>842</v>
-      </c>
-      <c r="E38" s="37">
-        <v>2117.1799999999998</v>
-      </c>
-      <c r="F38">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="G38" t="str">
-        <f>VLOOKUP(C38,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8194224</v>
-      </c>
-      <c r="H38" t="str">
-        <f>VLOOKUP(C38,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4817816</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K38" s="7">
-        <f>VLOOKUP(B38,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
-      </c>
-      <c r="L38" t="str">
-        <f>VLOOKUP(C38,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="E38" s="37"/>
+      <c r="F38"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6732</v>
-      </c>
-      <c r="C39">
-        <v>10961</v>
-      </c>
-      <c r="D39" t="s">
-        <v>848</v>
-      </c>
-      <c r="E39" s="37">
-        <v>170.4</v>
-      </c>
-      <c r="F39">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP(C39,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7779625</v>
-      </c>
-      <c r="H39" t="str">
-        <f>VLOOKUP(C39,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5519438</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K39" s="7">
-        <f>VLOOKUP(B39,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
-      </c>
-      <c r="L39" t="s">
-        <v>6727</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="E39" s="37"/>
+      <c r="F39"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C40">
-        <v>11163</v>
-      </c>
-      <c r="D40" t="s">
-        <v>889</v>
-      </c>
-      <c r="E40" s="37">
-        <v>1887.8</v>
-      </c>
-      <c r="F40">
-        <v>131.80000000000001</v>
-      </c>
-      <c r="G40" t="str">
-        <f>VLOOKUP(C40,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.67322246</v>
-      </c>
-      <c r="H40" t="str">
-        <f>VLOOKUP(C40,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.67026304</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K40" s="7">
-        <f>VLOOKUP(B40,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
-      </c>
-      <c r="L40" t="s">
-        <v>6727</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="E40" s="37"/>
+      <c r="F40"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C41">
-        <v>11743</v>
-      </c>
-      <c r="D41" t="s">
-        <v>988</v>
-      </c>
-      <c r="E41" s="37">
-        <v>2885.8</v>
-      </c>
-      <c r="F41">
-        <v>78.8</v>
-      </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP(C41,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.79508034</v>
-      </c>
-      <c r="H41" t="str">
-        <f>VLOOKUP(C41,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.47443215</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K41" s="7">
-        <f>VLOOKUP(B41,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
-      </c>
-      <c r="L41" t="s">
-        <v>6727</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="E41" s="37"/>
+      <c r="F41"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6732</v>
-      </c>
-      <c r="C42">
-        <v>11775</v>
-      </c>
-      <c r="D42" t="s">
-        <v>994</v>
-      </c>
-      <c r="E42" s="37">
-        <v>3133.59</v>
-      </c>
-      <c r="F42">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP(C42,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.73996838</v>
-      </c>
-      <c r="H42" t="str">
-        <f>VLOOKUP(C42,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.53237147</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K42" s="7">
-        <f>VLOOKUP(B42,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
-      </c>
-      <c r="L42" t="s">
-        <v>6727</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="E42" s="37"/>
+      <c r="F42"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C43">
-        <v>11844</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E43" s="37">
-        <v>1367</v>
-      </c>
-      <c r="F43">
-        <v>97.7</v>
-      </c>
-      <c r="G43" t="str">
-        <f>VLOOKUP(C43,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76944093</v>
-      </c>
-      <c r="H43" t="str">
-        <f>VLOOKUP(C43,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.65433696</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K43" s="7">
-        <f>VLOOKUP(B43,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
-      </c>
-      <c r="L43" t="s">
-        <v>6727</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="E43" s="37"/>
+      <c r="F43"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6732</v>
-      </c>
-      <c r="C44">
-        <v>11912</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E44" s="37">
-        <v>483.8</v>
-      </c>
-      <c r="F44">
-        <v>22.3</v>
-      </c>
-      <c r="G44" t="str">
-        <f>VLOOKUP(C44,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.73839532</v>
-      </c>
-      <c r="H44" t="str">
-        <f>VLOOKUP(C44,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.53222215</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K44" s="7">
-        <f>VLOOKUP(B44,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
-      </c>
-      <c r="L44" t="s">
-        <v>6727</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="E44" s="37"/>
+      <c r="F44"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="4">
-        <v>45770</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6435</v>
-      </c>
-      <c r="C45">
-        <v>11929</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E45" s="37">
-        <v>226.8</v>
-      </c>
-      <c r="F45">
-        <v>22.9</v>
-      </c>
-      <c r="G45" t="str">
-        <f>VLOOKUP(C45,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7967961</v>
-      </c>
-      <c r="H45" t="str">
-        <f>VLOOKUP(C45,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.46483618</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>6571</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>6572</v>
-      </c>
-      <c r="K45" s="7">
-        <f>VLOOKUP(B45,pesoCaminhao!C:G,5,0)</f>
-        <v>1590</v>
-      </c>
-      <c r="L45" t="s">
-        <v>6727</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="E45" s="37"/>
+      <c r="F45"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="4"/>
